--- a/docs/LMER_Microglia_5.xlsx
+++ b/docs/LMER_Microglia_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>logFC</t>
   </si>
@@ -168,12 +168,12 @@
     <t>Batf3</t>
   </si>
   <si>
+    <t>Gm12411</t>
+  </si>
+  <si>
     <t>Sh3bgrl2</t>
   </si>
   <si>
-    <t>Gm12411</t>
-  </si>
-  <si>
     <t>Gm43444</t>
   </si>
   <si>
@@ -192,33 +192,33 @@
     <t>C1qc</t>
   </si>
   <si>
+    <t>Gm45867</t>
+  </si>
+  <si>
     <t>Svep1</t>
   </si>
   <si>
-    <t>Gm45867</t>
-  </si>
-  <si>
     <t>Ppp1r26</t>
   </si>
   <si>
+    <t>Gm37390</t>
+  </si>
+  <si>
+    <t>Cnn2</t>
+  </si>
+  <si>
+    <t>Fbxo8</t>
+  </si>
+  <si>
+    <t>Pex12</t>
+  </si>
+  <si>
+    <t>Gm3755</t>
+  </si>
+  <si>
     <t>Gm33023</t>
   </si>
   <si>
-    <t>Gm37390</t>
-  </si>
-  <si>
-    <t>Cnn2</t>
-  </si>
-  <si>
-    <t>Fbxo8</t>
-  </si>
-  <si>
-    <t>Pex12</t>
-  </si>
-  <si>
-    <t>Gm3755</t>
-  </si>
-  <si>
     <t>Sms</t>
   </si>
   <si>
@@ -234,12 +234,12 @@
     <t>Gm42725</t>
   </si>
   <si>
+    <t>1810014B01Rik</t>
+  </si>
+  <si>
     <t>Naalad2</t>
   </si>
   <si>
-    <t>1810014B01Rik</t>
-  </si>
-  <si>
     <t>AC154640.4</t>
   </si>
   <si>
@@ -270,12 +270,12 @@
     <t>Slfn1</t>
   </si>
   <si>
+    <t>Proser1</t>
+  </si>
+  <si>
     <t>Cog3</t>
   </si>
   <si>
-    <t>Proser1</t>
-  </si>
-  <si>
     <t>Gm17229</t>
   </si>
   <si>
@@ -300,15 +300,15 @@
     <t>Emb</t>
   </si>
   <si>
+    <t>Tex2</t>
+  </si>
+  <si>
     <t>Gle1</t>
   </si>
   <si>
     <t>Gm38699</t>
   </si>
   <si>
-    <t>Tex2</t>
-  </si>
-  <si>
     <t>Vac14</t>
   </si>
   <si>
@@ -333,51 +333,51 @@
     <t>N4bp1</t>
   </si>
   <si>
+    <t>Cep70</t>
+  </si>
+  <si>
     <t>Gm13369</t>
   </si>
   <si>
-    <t>Cep70</t>
+    <t>Ctr9</t>
   </si>
   <si>
     <t>Tfdp1</t>
   </si>
   <si>
-    <t>Ctr9</t>
-  </si>
-  <si>
     <t>Slc2a3</t>
   </si>
   <si>
+    <t>4930404A12Rik</t>
+  </si>
+  <si>
+    <t>Ddx23</t>
+  </si>
+  <si>
+    <t>Rad52</t>
+  </si>
+  <si>
     <t>Gm2436</t>
   </si>
   <si>
-    <t>4930404A12Rik</t>
-  </si>
-  <si>
-    <t>Ddx23</t>
-  </si>
-  <si>
     <t>Ppp2r3c</t>
   </si>
   <si>
-    <t>Rad52</t>
-  </si>
-  <si>
     <t>A630001O12Rik</t>
   </si>
   <si>
     <t>9130401M01Rik</t>
   </si>
   <si>
+    <t>Gm10825</t>
+  </si>
+  <si>
     <t>Hmga1</t>
   </si>
   <si>
     <t>Hexa</t>
   </si>
   <si>
-    <t>Gm10825</t>
-  </si>
-  <si>
     <t>Rasgrp1</t>
   </si>
   <si>
@@ -420,25 +420,28 @@
     <t>Gm6061</t>
   </si>
   <si>
+    <t>Gm37988</t>
+  </si>
+  <si>
     <t>Qser1</t>
   </si>
   <si>
     <t>AC164550.2</t>
   </si>
   <si>
-    <t>Gm37988</t>
-  </si>
-  <si>
     <t>Cpt1a</t>
   </si>
   <si>
     <t>Hist1h3e</t>
   </si>
   <si>
+    <t>Gm38126</t>
+  </si>
+  <si>
     <t>Rpap2</t>
   </si>
   <si>
-    <t>Gm38126</t>
+    <t>Nup54</t>
   </si>
   <si>
     <t>Rnaset2b</t>
@@ -447,21 +450,18 @@
     <t>Idua</t>
   </si>
   <si>
-    <t>Nup54</t>
-  </si>
-  <si>
     <t>Lrrc45</t>
   </si>
   <si>
+    <t>Rbm34</t>
+  </si>
+  <si>
+    <t>Slc26a11</t>
+  </si>
+  <si>
     <t>Hexb</t>
   </si>
   <si>
-    <t>Slc26a11</t>
-  </si>
-  <si>
-    <t>Rbm34</t>
-  </si>
-  <si>
     <t>Dlg1</t>
   </si>
   <si>
@@ -471,109 +471,112 @@
     <t>Xylt1</t>
   </si>
   <si>
+    <t>Zfyve16</t>
+  </si>
+  <si>
     <t>Mpeg1</t>
   </si>
   <si>
-    <t>Zfyve16</t>
+    <t>Slamf7</t>
   </si>
   <si>
     <t>Pigyl</t>
   </si>
   <si>
-    <t>Slamf7</t>
+    <t>Gm42857</t>
+  </si>
+  <si>
+    <t>Gm26905</t>
   </si>
   <si>
     <t>Apoe</t>
   </si>
   <si>
-    <t>Gm42857</t>
-  </si>
-  <si>
     <t>Prmt3</t>
   </si>
   <si>
     <t>Fhad1</t>
   </si>
   <si>
+    <t>Pdhx</t>
+  </si>
+  <si>
     <t>Nol10</t>
   </si>
   <si>
-    <t>Pdhx</t>
-  </si>
-  <si>
-    <t>Gm26905</t>
-  </si>
-  <si>
     <t>Sirpb1a</t>
   </si>
   <si>
+    <t>Gm16505</t>
+  </si>
+  <si>
     <t>Slc12a8</t>
   </si>
   <si>
+    <t>Gm37090</t>
+  </si>
+  <si>
+    <t>Fbxo21</t>
+  </si>
+  <si>
     <t>Igsf11</t>
   </si>
   <si>
-    <t>Gm37090</t>
-  </si>
-  <si>
-    <t>Fbxo21</t>
-  </si>
-  <si>
-    <t>Gm16505</t>
-  </si>
-  <si>
     <t>AC183268.1</t>
   </si>
   <si>
     <t>Gm37733</t>
   </si>
   <si>
+    <t>Vps36</t>
+  </si>
+  <si>
     <t>Pex6</t>
   </si>
   <si>
-    <t>Vps36</t>
-  </si>
-  <si>
     <t>Ppid</t>
   </si>
   <si>
     <t>Gpr35</t>
   </si>
   <si>
+    <t>Nelfa</t>
+  </si>
+  <si>
     <t>Tcea1-ps1</t>
   </si>
   <si>
     <t>Ppp2r2d</t>
   </si>
   <si>
-    <t>Nelfa</t>
-  </si>
-  <si>
     <t>Mefv</t>
   </si>
   <si>
     <t>Me2</t>
   </si>
   <si>
+    <t>Hnrnpul2</t>
+  </si>
+  <si>
+    <t>Ech1</t>
+  </si>
+  <si>
+    <t>Map2k4</t>
+  </si>
+  <si>
+    <t>4930481A15Rik</t>
+  </si>
+  <si>
+    <t>Tpm3-rs7</t>
+  </si>
+  <si>
     <t>2300009A05Rik</t>
   </si>
   <si>
-    <t>Hnrnpul2</t>
-  </si>
-  <si>
-    <t>Tpm3-rs7</t>
-  </si>
-  <si>
     <t>Gabra2</t>
   </si>
   <si>
-    <t>Map2k4</t>
-  </si>
-  <si>
-    <t>Ech1</t>
-  </si>
-  <si>
-    <t>4930481A15Rik</t>
+    <t>Fn1</t>
   </si>
   <si>
     <t>Mtmr3</t>
@@ -582,21 +585,18 @@
     <t>Mfsd4b5</t>
   </si>
   <si>
-    <t>Fn1</t>
+    <t>Mtr</t>
   </si>
   <si>
     <t>Ttc32</t>
   </si>
   <si>
-    <t>Mtr</t>
+    <t>Tnpo2</t>
   </si>
   <si>
     <t>Acot6</t>
   </si>
   <si>
-    <t>Tnpo2</t>
-  </si>
-  <si>
     <t>Adcy8</t>
   </si>
   <si>
@@ -606,31 +606,13 @@
     <t>Ripor1</t>
   </si>
   <si>
+    <t>Dcaf5</t>
+  </si>
+  <si>
+    <t>Tex10</t>
+  </si>
+  <si>
     <t>Haus6</t>
-  </si>
-  <si>
-    <t>Dcaf5</t>
-  </si>
-  <si>
-    <t>Tex10</t>
-  </si>
-  <si>
-    <t>Stk26</t>
-  </si>
-  <si>
-    <t>Hist1h2ae</t>
-  </si>
-  <si>
-    <t>March2</t>
-  </si>
-  <si>
-    <t>Gm28959</t>
-  </si>
-  <si>
-    <t>Mcm2</t>
-  </si>
-  <si>
-    <t>Fam193a</t>
   </si>
   <si>
     <t>x</t>
@@ -716,22 +698,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>8.787619257456655</v>
+        <v>8.787619257456651</v>
       </c>
       <c r="C2" t="n">
         <v>0.382070402498115</v>
       </c>
       <c r="D2" t="n">
-        <v>104.85425939097576</v>
+        <v>103.26199690355604</v>
       </c>
       <c r="E2" t="n">
-        <v>2.358102430027134E-27</v>
+        <v>3.1368347814417032E-27</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2197530579590485E-23</v>
+        <v>4.2830342105805014E-23</v>
       </c>
       <c r="G2" t="n">
-        <v>35.61482360887274</v>
+        <v>35.33311232872106</v>
       </c>
     </row>
     <row r="3">
@@ -739,22 +721,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>8.060695931687558</v>
+        <v>8.060695931687562</v>
       </c>
       <c r="C3" t="n">
         <v>0.3504650405081545</v>
       </c>
       <c r="D3" t="n">
-        <v>96.18057830347678</v>
+        <v>94.72002984564146</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1807733643784251E-26</v>
+        <v>1.5705778397161888E-26</v>
       </c>
       <c r="F3" t="n">
-        <v>8.061139758611509E-23</v>
+        <v>1.072233491174242E-22</v>
       </c>
       <c r="G3" t="n">
-        <v>35.38628325579951</v>
+        <v>35.10457856174787</v>
       </c>
     </row>
     <row r="4">
@@ -762,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>7.209453365628952</v>
+        <v>7.209453365628946</v>
       </c>
       <c r="C4" t="n">
         <v>0.31345449415778043</v>
       </c>
       <c r="D4" t="n">
-        <v>86.02351457425215</v>
+        <v>84.71720602667226</v>
       </c>
       <c r="E4" t="n">
-        <v>9.464830094769333E-26</v>
+        <v>1.2587755059783442E-25</v>
       </c>
       <c r="F4" t="n">
-        <v>4.307759670466015E-22</v>
+        <v>5.72910691954277E-22</v>
       </c>
       <c r="G4" t="n">
-        <v>35.03663747896681</v>
+        <v>34.75495131616779</v>
       </c>
     </row>
     <row r="5">
@@ -785,22 +767,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>7.094786367236178</v>
+        <v>7.0947863672361855</v>
       </c>
       <c r="C5" t="n">
         <v>0.3084689724885294</v>
       </c>
       <c r="D5" t="n">
-        <v>84.6553029072687</v>
+        <v>83.36977131357565</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2762401105357248E-25</v>
+        <v>1.6972993390695552E-25</v>
       </c>
       <c r="F5" t="n">
-        <v>4.356445617313696E-22</v>
+        <v>5.793731293913927E-22</v>
       </c>
       <c r="G5" t="n">
-        <v>34.9808769401094</v>
+        <v>34.69919467934685</v>
       </c>
     </row>
     <row r="6">
@@ -808,22 +790,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>6.965784284662088</v>
+        <v>6.96578428466209</v>
       </c>
       <c r="C6" t="n">
         <v>0.30286018628965594</v>
       </c>
       <c r="D6" t="n">
-        <v>83.11604438548854</v>
+        <v>81.85388717464745</v>
       </c>
       <c r="E6" t="n">
-        <v>1.796803901898238E-25</v>
+        <v>2.389546982983132E-25</v>
       </c>
       <c r="F6" t="n">
-        <v>4.906712095303709E-22</v>
+        <v>6.525374901130338E-22</v>
       </c>
       <c r="G6" t="n">
-        <v>34.91524241713122</v>
+        <v>34.63356508348459</v>
       </c>
     </row>
     <row r="7">
@@ -831,22 +813,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>6.825870142172156</v>
+        <v>6.825870142172162</v>
       </c>
       <c r="C7" t="n">
         <v>0.2967769627031371</v>
       </c>
       <c r="D7" t="n">
-        <v>81.4465826849652</v>
+        <v>80.20977705502672</v>
       </c>
       <c r="E7" t="n">
-        <v>2.622785096674684E-25</v>
+        <v>3.487905857016962E-25</v>
       </c>
       <c r="F7" t="n">
-        <v>5.196091749963149E-22</v>
+        <v>6.91000431188989E-22</v>
       </c>
       <c r="G7" t="n">
-        <v>34.84035948057162</v>
+        <v>34.55868820982366</v>
       </c>
     </row>
     <row r="8">
@@ -854,22 +836,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>6.820178962415187</v>
+        <v>6.820178962415195</v>
       </c>
       <c r="C8" t="n">
         <v>0.29652952010500816</v>
       </c>
       <c r="D8" t="n">
-        <v>81.3786752778513</v>
+        <v>80.14290085463344</v>
       </c>
       <c r="E8" t="n">
-        <v>2.663881811171967E-25</v>
+        <v>3.54255384379883E-25</v>
       </c>
       <c r="F8" t="n">
-        <v>5.196091749963149E-22</v>
+        <v>6.91000431188989E-22</v>
       </c>
       <c r="G8" t="n">
-        <v>34.83722841365207</v>
+        <v>34.55555740666529</v>
       </c>
     </row>
     <row r="9">
@@ -877,22 +859,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>6.71424551766613</v>
+        <v>6.714245517666123</v>
       </c>
       <c r="C9" t="n">
         <v>0.2919237181593966</v>
       </c>
       <c r="D9" t="n">
-        <v>80.11467275697832</v>
+        <v>78.89809282151576</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5664173724133117E-25</v>
+        <v>4.7426750667192595E-25</v>
       </c>
       <c r="F9" t="n">
-        <v>6.08698285036642E-22</v>
+        <v>8.094560670123096E-22</v>
       </c>
       <c r="G9" t="n">
-        <v>34.77768227842521</v>
+        <v>34.496016444358894</v>
       </c>
     </row>
     <row r="10">
@@ -900,22 +882,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>6.568734243033027</v>
+        <v>6.568734243033028</v>
       </c>
       <c r="C10" t="n">
         <v>0.28559714100143563</v>
       </c>
       <c r="D10" t="n">
-        <v>78.37842582960441</v>
+        <v>77.18821164091668</v>
       </c>
       <c r="E10" t="n">
-        <v>5.365030064673442E-25</v>
+        <v>7.134250802483271E-25</v>
       </c>
       <c r="F10" t="n">
-        <v>8.139346722561241E-22</v>
+        <v>1.082345116190073E-21</v>
       </c>
       <c r="G10" t="n">
-        <v>34.691801244872664</v>
+        <v>34.41014339635143</v>
       </c>
     </row>
     <row r="11">
@@ -923,22 +905,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>6.475733430966403</v>
+        <v>6.475733430966399</v>
       </c>
       <c r="C11" t="n">
         <v>0.28155362743332163</v>
       </c>
       <c r="D11" t="n">
-        <v>77.2687360505746</v>
+        <v>76.09537303625096</v>
       </c>
       <c r="E11" t="n">
-        <v>6.9979927481482355E-25</v>
+        <v>9.305497010690994E-25</v>
       </c>
       <c r="F11" t="n">
-        <v>8.479045658245093E-22</v>
+        <v>1.1274764759490864E-21</v>
       </c>
       <c r="G11" t="n">
-        <v>34.63428665570641</v>
+        <v>34.35263450196374</v>
       </c>
     </row>
     <row r="12">
@@ -946,22 +928,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>6.44294349584873</v>
+        <v>6.442943495848726</v>
       </c>
       <c r="C12" t="n">
         <v>0.2801279780803795</v>
       </c>
       <c r="D12" t="n">
-        <v>76.87748510290474</v>
+        <v>75.71006342287464</v>
       </c>
       <c r="E12" t="n">
-        <v>7.692270664070904E-25</v>
+        <v>1.0228618133922864E-24</v>
       </c>
       <c r="F12" t="n">
-        <v>8.479045658245093E-22</v>
+        <v>1.1274764759490864E-21</v>
       </c>
       <c r="G12" t="n">
-        <v>34.613497363166054</v>
+        <v>34.331847336373556</v>
       </c>
     </row>
     <row r="13">
@@ -969,22 +951,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>6.4262647547021</v>
+        <v>6.426264754702105</v>
       </c>
       <c r="C13" t="n">
         <v>0.2794028154218303</v>
       </c>
       <c r="D13" t="n">
-        <v>76.67847363014212</v>
+        <v>75.51407403528526</v>
       </c>
       <c r="E13" t="n">
-        <v>8.072915889643049E-25</v>
+        <v>1.0734725492411105E-24</v>
       </c>
       <c r="F13" t="n">
-        <v>8.479045658245093E-22</v>
+        <v>1.1274764759490864E-21</v>
       </c>
       <c r="G13" t="n">
-        <v>34.602818084358645</v>
+        <v>34.32116916431028</v>
       </c>
     </row>
     <row r="14">
@@ -992,22 +974,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>6.4262647547021</v>
+        <v>6.426264754702105</v>
       </c>
       <c r="C14" t="n">
         <v>0.2794028154218303</v>
       </c>
       <c r="D14" t="n">
-        <v>76.67847363014212</v>
+        <v>75.51407403528526</v>
       </c>
       <c r="E14" t="n">
-        <v>8.072915889643049E-25</v>
+        <v>1.0734725492411105E-24</v>
       </c>
       <c r="F14" t="n">
-        <v>8.479045658245093E-22</v>
+        <v>1.1274764759490864E-21</v>
       </c>
       <c r="G14" t="n">
-        <v>34.602818084358645</v>
+        <v>34.32116916431028</v>
       </c>
     </row>
     <row r="15">
@@ -1015,22 +997,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>5.643856189774731</v>
+        <v>5.643856189774728</v>
       </c>
       <c r="C15" t="n">
         <v>0.24538505172933583</v>
       </c>
       <c r="D15" t="n">
-        <v>67.34274022919827</v>
+        <v>66.32010824753333</v>
       </c>
       <c r="E15" t="n">
-        <v>9.061054677295288E-24</v>
+        <v>1.2045653248939666E-23</v>
       </c>
       <c r="F15" t="n">
-        <v>8.837117183127849E-21</v>
+        <v>1.1747953532930158E-20</v>
       </c>
       <c r="G15" t="n">
-        <v>34.0096348581829</v>
+        <v>33.72806253819601</v>
       </c>
     </row>
     <row r="16">
@@ -1038,22 +1020,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>5.247927513443587</v>
+        <v>5.247927513443586</v>
       </c>
       <c r="C16" t="n">
         <v>0.22817076145406892</v>
       </c>
       <c r="D16" t="n">
-        <v>62.61850185335781</v>
+        <v>61.66760970936062</v>
       </c>
       <c r="E16" t="n">
-        <v>3.5080809928324193E-23</v>
+        <v>4.662795243734516E-23</v>
       </c>
       <c r="F16" t="n">
-        <v>3.1932891917422565E-20</v>
+        <v>4.244387083863405E-20</v>
       </c>
       <c r="G16" t="n">
-        <v>33.623750631163055</v>
+        <v>33.34224418489691</v>
       </c>
     </row>
     <row r="17">
@@ -1061,22 +1043,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>5.044394119358456</v>
+        <v>5.044394119358453</v>
       </c>
       <c r="C17" t="n">
         <v>0.21932148345036753</v>
       </c>
       <c r="D17" t="n">
-        <v>60.18993244532173</v>
+        <v>59.27591929879176</v>
       </c>
       <c r="E17" t="n">
-        <v>7.32197737803654E-23</v>
+        <v>9.731045715572381E-23</v>
       </c>
       <c r="F17" t="n">
-        <v>6.248392444981932E-20</v>
+        <v>8.30423113752658E-20</v>
       </c>
       <c r="G17" t="n">
-        <v>33.39651834280593</v>
+        <v>33.11505665068723</v>
       </c>
     </row>
     <row r="18">
@@ -1090,16 +1072,16 @@
         <v>0.21739130434782608</v>
       </c>
       <c r="D18" t="n">
-        <v>59.66021986102929</v>
+        <v>58.75425065550836</v>
       </c>
       <c r="E18" t="n">
-        <v>8.630276043982519E-23</v>
+        <v>1.1469516679508385E-22</v>
       </c>
       <c r="F18" t="n">
-        <v>6.931634653208077E-20</v>
+        <v>9.21204592600044E-20</v>
       </c>
       <c r="G18" t="n">
-        <v>33.34400914197228</v>
+        <v>33.06255842370819</v>
       </c>
     </row>
     <row r="19">
@@ -1107,22 +1089,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>4.9068905956085205</v>
+        <v>4.906890595608525</v>
       </c>
       <c r="C19" t="n">
         <v>0.21334306937428343</v>
       </c>
       <c r="D19" t="n">
-        <v>58.54923435360424</v>
+        <v>57.66013599870798</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2241301816585925E-22</v>
+        <v>1.6267643163150857E-22</v>
       </c>
       <c r="F19" t="n">
-        <v>9.285707500203568E-20</v>
+        <v>1.2339911097203434E-19</v>
       </c>
       <c r="G19" t="n">
-        <v>33.230213489325756</v>
+        <v>32.94878737002971</v>
       </c>
     </row>
     <row r="20">
@@ -1130,22 +1112,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>4.6539050895312055</v>
+        <v>4.653905089531206</v>
       </c>
       <c r="C20" t="n">
         <v>0.20234369954483494</v>
       </c>
       <c r="D20" t="n">
-        <v>55.53060017075897</v>
+        <v>54.6873412314525</v>
       </c>
       <c r="E20" t="n">
-        <v>3.2744933855113505E-22</v>
+        <v>4.350811665949589E-22</v>
       </c>
       <c r="F20" t="n">
-        <v>2.353154351882736E-19</v>
+        <v>3.1266306572039836E-19</v>
       </c>
       <c r="G20" t="n">
-        <v>32.893863020226924</v>
+        <v>32.612516174093706</v>
       </c>
     </row>
     <row r="21">
@@ -1159,16 +1141,16 @@
         <v>0.18790991716901576</v>
       </c>
       <c r="D21" t="n">
-        <v>51.569436072907905</v>
+        <v>50.78632932041917</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2945551632425859E-21</v>
+        <v>1.719626435633348E-21</v>
       </c>
       <c r="F21" t="n">
-        <v>8.837928099457135E-19</v>
+        <v>1.1739889676068868E-18</v>
       </c>
       <c r="G21" t="n">
-        <v>32.38306452644024</v>
+        <v>32.10185700732042</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1158,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>4.087462841250342</v>
+        <v>4.087462841250341</v>
       </c>
       <c r="C22" t="n">
         <v>0.1777157757065365</v>
       </c>
       <c r="D22" t="n">
-        <v>48.771786356556554</v>
+        <v>48.031163263979764</v>
       </c>
       <c r="E22" t="n">
-        <v>3.644809217565157E-21</v>
+        <v>4.840516733624205E-21</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3698202407921263E-18</v>
+        <v>3.14725788004309E-18</v>
       </c>
       <c r="G22" t="n">
-        <v>31.96580273557916</v>
+        <v>31.684726211250005</v>
       </c>
     </row>
     <row r="23">
@@ -1205,16 +1187,16 @@
         <v>0.17391304347826086</v>
       </c>
       <c r="D23" t="n">
-        <v>47.72817588882343</v>
+        <v>47.003400524406686</v>
       </c>
       <c r="E23" t="n">
-        <v>5.443918330634379E-21</v>
+        <v>7.229163719472024E-21</v>
       </c>
       <c r="F23" t="n">
-        <v>3.231793951586166E-18</v>
+        <v>4.29160875763787E-18</v>
       </c>
       <c r="G23" t="n">
-        <v>31.796362843279</v>
+        <v>31.51534398118991</v>
       </c>
     </row>
     <row r="24">
@@ -1228,16 +1210,16 @@
         <v>0.17391304347826086</v>
       </c>
       <c r="D24" t="n">
-        <v>47.72817588882343</v>
+        <v>47.003400524406686</v>
       </c>
       <c r="E24" t="n">
-        <v>5.443918330634379E-21</v>
+        <v>7.229163719472024E-21</v>
       </c>
       <c r="F24" t="n">
-        <v>3.231793951586166E-18</v>
+        <v>4.29160875763787E-18</v>
       </c>
       <c r="G24" t="n">
-        <v>31.796362843279</v>
+        <v>31.51534398118991</v>
       </c>
     </row>
     <row r="25">
@@ -1245,22 +1227,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>3.8073549220576046</v>
+        <v>3.8073549220576055</v>
       </c>
       <c r="C25" t="n">
         <v>0.16553717052424366</v>
       </c>
       <c r="D25" t="n">
-        <v>45.42952634778573</v>
+        <v>44.739657085011196</v>
       </c>
       <c r="E25" t="n">
-        <v>1.3592390287894113E-20</v>
+        <v>1.8045675809483112E-20</v>
       </c>
       <c r="F25" t="n">
-        <v>7.423619879636249E-18</v>
+        <v>9.855826300107296E-18</v>
       </c>
       <c r="G25" t="n">
-        <v>31.393517325128656</v>
+        <v>31.11264605252573</v>
       </c>
     </row>
     <row r="26">
@@ -1268,22 +1250,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>3.8073549220576046</v>
+        <v>3.8073549220576055</v>
       </c>
       <c r="C26" t="n">
         <v>0.16553717052424366</v>
       </c>
       <c r="D26" t="n">
-        <v>45.42952634778573</v>
+        <v>44.739657085011196</v>
       </c>
       <c r="E26" t="n">
-        <v>1.3592390287894113E-20</v>
+        <v>1.8045675809483112E-20</v>
       </c>
       <c r="F26" t="n">
-        <v>7.423619879636249E-18</v>
+        <v>9.855826300107296E-18</v>
       </c>
       <c r="G26" t="n">
-        <v>31.393517325128656</v>
+        <v>31.11264605252573</v>
       </c>
     </row>
     <row r="27">
@@ -1291,22 +1273,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>3.5126887968365357</v>
+        <v>3.5126887968365352</v>
       </c>
       <c r="C27" t="n">
         <v>0.15272559986245798</v>
       </c>
       <c r="D27" t="n">
-        <v>41.91355718452842</v>
+        <v>41.277079608825964</v>
       </c>
       <c r="E27" t="n">
-        <v>6.040537750665145E-20</v>
+        <v>8.016203022724776E-20</v>
       </c>
       <c r="F27" t="n">
-        <v>3.172211632599304E-17</v>
+        <v>4.209739848934004E-17</v>
       </c>
       <c r="G27" t="n">
-        <v>30.687221287194383</v>
+        <v>30.40664510157301</v>
       </c>
     </row>
     <row r="28">
@@ -1314,22 +1296,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>3.3219280948873635</v>
+        <v>3.3219280948873644</v>
       </c>
       <c r="C28" t="n">
         <v>0.14443165629945054</v>
       </c>
       <c r="D28" t="n">
-        <v>39.637392100702044</v>
+        <v>39.0354791893175</v>
       </c>
       <c r="E28" t="n">
-        <v>1.6962490844537447E-19</v>
+        <v>2.2502805888158827E-19</v>
       </c>
       <c r="F28" t="n">
-        <v>8.271637499689797E-17</v>
+        <v>1.097333255703288E-16</v>
       </c>
       <c r="G28" t="n">
-        <v>30.161849888027184</v>
+        <v>29.881523971275467</v>
       </c>
     </row>
     <row r="29">
@@ -1337,22 +1319,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>3.3219280948873635</v>
+        <v>3.3219280948873644</v>
       </c>
       <c r="C29" t="n">
         <v>0.14443165629945054</v>
       </c>
       <c r="D29" t="n">
-        <v>39.637392100702044</v>
+        <v>39.0354791893175</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6962490844537447E-19</v>
+        <v>2.2502805888158827E-19</v>
       </c>
       <c r="F29" t="n">
-        <v>8.271637499689797E-17</v>
+        <v>1.097333255703288E-16</v>
       </c>
       <c r="G29" t="n">
-        <v>30.161849888027184</v>
+        <v>29.881523971275467</v>
       </c>
     </row>
     <row r="30">
@@ -1360,22 +1342,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>3.1699250014423117</v>
+        <v>3.1699250014423104</v>
       </c>
       <c r="C30" t="n">
         <v>0.13782282614966573</v>
       </c>
       <c r="D30" t="n">
-        <v>37.82368450580437</v>
+        <v>37.24931361878083</v>
       </c>
       <c r="E30" t="n">
-        <v>4.0290692318845914E-19</v>
+        <v>5.343382111717611E-19</v>
       </c>
       <c r="F30" t="n">
-        <v>1.896996941108697E-16</v>
+        <v>2.5158117018411124E-16</v>
       </c>
       <c r="G30" t="n">
-        <v>29.698584247761353</v>
+        <v>29.418501424684084</v>
       </c>
     </row>
     <row r="31">
@@ -1389,16 +1371,16 @@
         <v>0.12414176548753152</v>
       </c>
       <c r="D31" t="n">
-        <v>34.069095105443374</v>
+        <v>33.55173946885012</v>
       </c>
       <c r="E31" t="n">
-        <v>2.7682887444570044E-18</v>
+        <v>3.668355493639672E-18</v>
       </c>
       <c r="F31" t="n">
-        <v>1.2599404838938646E-15</v>
+        <v>1.6695908636718693E-15</v>
       </c>
       <c r="G31" t="n">
-        <v>28.59123985245833</v>
+        <v>28.311826584499254</v>
       </c>
     </row>
     <row r="32">
@@ -1406,22 +1388,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>2.8073549220576055</v>
+        <v>2.8073549220576037</v>
       </c>
       <c r="C32" t="n">
         <v>0.12205890965467844</v>
       </c>
       <c r="D32" t="n">
-        <v>33.497482375579885</v>
+        <v>32.9888069539095</v>
       </c>
       <c r="E32" t="n">
-        <v>3.77959356081273E-18</v>
+        <v>5.007733230877979E-18</v>
       </c>
       <c r="F32" t="n">
-        <v>1.6647280799786133E-15</v>
+        <v>2.2056641785292876E-15</v>
       </c>
       <c r="G32" t="n">
-        <v>28.402669589103745</v>
+        <v>28.123383215700446</v>
       </c>
     </row>
     <row r="33">
@@ -1429,22 +1411,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>6.169925001442312</v>
+        <v>6.169925001442316</v>
       </c>
       <c r="C33" t="n">
         <v>0.3117358696279266</v>
       </c>
       <c r="D33" t="n">
-        <v>28.448147106605134</v>
+        <v>27.808031293703667</v>
       </c>
       <c r="E33" t="n">
-        <v>7.572707443066447E-17</v>
+        <v>1.1478370158959413E-16</v>
       </c>
       <c r="F33" t="n">
-        <v>3.2311796071134145E-14</v>
+        <v>4.897677067200995E-14</v>
       </c>
       <c r="G33" t="n">
-        <v>26.454251927204396</v>
+        <v>26.08240620024954</v>
       </c>
     </row>
     <row r="34">
@@ -1452,22 +1434,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>2.3219280948873635</v>
+        <v>2.321928094887361</v>
       </c>
       <c r="C34" t="n">
         <v>0.10095339542988531</v>
       </c>
       <c r="D34" t="n">
-        <v>27.70534812849619</v>
+        <v>27.284629058215792</v>
       </c>
       <c r="E34" t="n">
-        <v>1.228196283752495E-16</v>
+        <v>1.623986646993123E-16</v>
       </c>
       <c r="F34" t="n">
-        <v>5.081755169198959E-14</v>
+        <v>6.719367781225486E-14</v>
       </c>
       <c r="G34" t="n">
-        <v>26.118046755893552</v>
+        <v>25.840620072179913</v>
       </c>
     </row>
     <row r="35">
@@ -1475,22 +1457,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>2.306683416585635</v>
+        <v>2.3066834165856336</v>
       </c>
       <c r="C35" t="n">
         <v>0.19968138362427337</v>
       </c>
       <c r="D35" t="n">
-        <v>27.27341546934507</v>
+        <v>26.854966765313375</v>
       </c>
       <c r="E35" t="n">
-        <v>1.636355748353659E-16</v>
+        <v>2.1695466421386557E-16</v>
       </c>
       <c r="F35" t="n">
-        <v>6.571412172947311E-14</v>
+        <v>8.712644074047413E-14</v>
       </c>
       <c r="G35" t="n">
-        <v>25.915804744911355</v>
+        <v>25.636510252239116</v>
       </c>
     </row>
     <row r="36">
@@ -1498,22 +1480,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>7.28924216787481</v>
+        <v>7.281575357496297</v>
       </c>
       <c r="C36" t="n">
         <v>0.36489941167858275</v>
       </c>
       <c r="D36" t="n">
-        <v>25.67286868644431</v>
+        <v>25.446187526298907</v>
       </c>
       <c r="E36" t="n">
-        <v>4.927326096894828E-16</v>
+        <v>5.789719545546352E-16</v>
       </c>
       <c r="F36" t="n">
-        <v>1.9222203007714851E-13</v>
+        <v>2.2586523049968541E-13</v>
       </c>
       <c r="G36" t="n">
-        <v>25.12014829737864</v>
+        <v>24.9295481898828</v>
       </c>
     </row>
     <row r="37">
@@ -1527,16 +1509,16 @@
         <v>0.27845386251182414</v>
       </c>
       <c r="D37" t="n">
-        <v>24.902939746033724</v>
+        <v>24.342562383626742</v>
       </c>
       <c r="E37" t="n">
-        <v>8.571908601728498E-16</v>
+        <v>1.2957454198549488E-15</v>
       </c>
       <c r="F37" t="n">
-        <v>3.251134445777803E-13</v>
+        <v>4.914474434083186E-13</v>
       </c>
       <c r="G37" t="n">
-        <v>24.70960691249028</v>
+        <v>24.33224458876802</v>
       </c>
     </row>
     <row r="38">
@@ -1544,22 +1526,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0001309851112063</v>
+        <v>2.000130985111207</v>
       </c>
       <c r="C38" t="n">
         <v>0.08696221674396547</v>
       </c>
       <c r="D38" t="n">
-        <v>23.865650864518326</v>
+        <v>23.503239448614533</v>
       </c>
       <c r="E38" t="n">
-        <v>1.855194460498108E-15</v>
+        <v>2.447642704072151E-15</v>
       </c>
       <c r="F38" t="n">
-        <v>6.507550133744814E-13</v>
+        <v>8.585953747144061E-13</v>
       </c>
       <c r="G38" t="n">
-        <v>24.12541659797445</v>
+        <v>23.850154945263665</v>
       </c>
     </row>
     <row r="39">
@@ -1567,22 +1549,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0000000000000004</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="C39" t="n">
         <v>0.08695652173913042</v>
       </c>
       <c r="D39" t="n">
-        <v>23.864087944411715</v>
+        <v>23.501700262203332</v>
       </c>
       <c r="E39" t="n">
-        <v>1.8573978468896388E-15</v>
+        <v>2.4505470142528912E-15</v>
       </c>
       <c r="F39" t="n">
-        <v>6.507550133744814E-13</v>
+        <v>8.585953747144061E-13</v>
       </c>
       <c r="G39" t="n">
-        <v>24.12450818935801</v>
+        <v>23.849247652482074</v>
       </c>
     </row>
     <row r="40">
@@ -1590,22 +1572,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>1.9999235731392477</v>
+        <v>1.9999201593926308</v>
       </c>
       <c r="C40" t="n">
         <v>0.08698429238517236</v>
       </c>
       <c r="D40" t="n">
-        <v>23.863126003618547</v>
+        <v>23.500713430147126</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8587553480009357E-15</v>
+        <v>2.452410986806931E-15</v>
       </c>
       <c r="F40" t="n">
-        <v>6.507550133744814E-13</v>
+        <v>8.585953747144061E-13</v>
       </c>
       <c r="G40" t="n">
-        <v>24.123949041787952</v>
+        <v>23.848665906218866</v>
       </c>
     </row>
     <row r="41">
@@ -1613,22 +1595,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>7.222852004573401</v>
+        <v>7.227130592815254</v>
       </c>
       <c r="C41" t="n">
         <v>0.3681425152656407</v>
       </c>
       <c r="D41" t="n">
-        <v>23.262378136352183</v>
+        <v>22.828087217866297</v>
       </c>
       <c r="E41" t="n">
-        <v>2.9495842441207093E-15</v>
+        <v>4.1471134858639934E-15</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0068405817306042E-12</v>
+        <v>1.4156171883996742E-12</v>
       </c>
       <c r="G41" t="n">
-        <v>23.768205827273874</v>
+        <v>23.443690933131936</v>
       </c>
     </row>
     <row r="42">
@@ -1636,22 +1618,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>1.5849625007211559</v>
+        <v>1.5849625007211552</v>
       </c>
       <c r="C42" t="n">
         <v>0.06891141307483287</v>
       </c>
       <c r="D42" t="n">
-        <v>18.911842252902186</v>
+        <v>18.624656809390416</v>
       </c>
       <c r="E42" t="n">
-        <v>1.2154700162227514E-13</v>
+        <v>1.5957436679675389E-13</v>
       </c>
       <c r="F42" t="n">
-        <v>3.859541302675685E-11</v>
+        <v>5.067042800564831E-11</v>
       </c>
       <c r="G42" t="n">
-        <v>20.745058049227964</v>
+        <v>20.474896756604107</v>
       </c>
     </row>
     <row r="43">
@@ -1659,22 +1641,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>1.5849625007211559</v>
+        <v>1.5849625007211552</v>
       </c>
       <c r="C43" t="n">
         <v>0.06891141307483287</v>
       </c>
       <c r="D43" t="n">
-        <v>18.911842252902186</v>
+        <v>18.624656809390416</v>
       </c>
       <c r="E43" t="n">
-        <v>1.2154700162227514E-13</v>
+        <v>1.5957436679675389E-13</v>
       </c>
       <c r="F43" t="n">
-        <v>3.859541302675685E-11</v>
+        <v>5.067042800564831E-11</v>
       </c>
       <c r="G43" t="n">
-        <v>20.745058049227964</v>
+        <v>20.474896756604107</v>
       </c>
     </row>
     <row r="44">
@@ -1682,22 +1664,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>1.5849625007211559</v>
+        <v>1.5849625007211552</v>
       </c>
       <c r="C44" t="n">
         <v>0.06891141307483287</v>
       </c>
       <c r="D44" t="n">
-        <v>18.911842252902186</v>
+        <v>18.624656809390416</v>
       </c>
       <c r="E44" t="n">
-        <v>1.2154700162227514E-13</v>
+        <v>1.5957436679675389E-13</v>
       </c>
       <c r="F44" t="n">
-        <v>3.859541302675685E-11</v>
+        <v>5.067042800564831E-11</v>
       </c>
       <c r="G44" t="n">
-        <v>20.745058049227964</v>
+        <v>20.474896756604107</v>
       </c>
     </row>
     <row r="45">
@@ -1705,22 +1687,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>6.541407782111304</v>
+        <v>6.545730892254143</v>
       </c>
       <c r="C45" t="n">
         <v>0.3505375009113912</v>
       </c>
       <c r="D45" t="n">
-        <v>17.75822132446751</v>
+        <v>17.44565478891736</v>
       </c>
       <c r="E45" t="n">
-        <v>3.7150545879888936E-13</v>
+        <v>5.084769884751234E-13</v>
       </c>
       <c r="F45" t="n">
-        <v>1.152848985100008E-10</v>
+        <v>1.5778965455998489E-10</v>
       </c>
       <c r="G45" t="n">
-        <v>19.78737051745844</v>
+        <v>19.48146513206177</v>
       </c>
     </row>
     <row r="46">
@@ -1728,22 +1710,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>4.834540938155666</v>
+        <v>4.829196310386875</v>
       </c>
       <c r="C46" t="n">
         <v>0.25887810045160325</v>
       </c>
       <c r="D46" t="n">
-        <v>17.18010990033345</v>
+        <v>16.997588951052137</v>
       </c>
       <c r="E46" t="n">
-        <v>6.665592127947487E-13</v>
+        <v>8.045329635966616E-13</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0224887758887775E-10</v>
+        <v>2.4411317966552926E-10</v>
       </c>
       <c r="G46" t="n">
-        <v>19.278267971419353</v>
+        <v>19.0821420250398</v>
       </c>
     </row>
     <row r="47">
@@ -1751,22 +1733,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>3.4594316186373004</v>
+        <v>2.4732651733289295</v>
       </c>
       <c r="C47" t="n">
-        <v>0.19388833124509988</v>
+        <v>0.13083568847273155</v>
       </c>
       <c r="D47" t="n">
-        <v>15.950667077675954</v>
+        <v>15.767911247240846</v>
       </c>
       <c r="E47" t="n">
-        <v>2.4539668330923036E-12</v>
+        <v>3.0006971588808505E-12</v>
       </c>
       <c r="F47" t="n">
-        <v>7.195475743331142E-10</v>
+        <v>8.90685195812155E-10</v>
       </c>
       <c r="G47" t="n">
-        <v>18.124761233747293</v>
+        <v>17.919002650180836</v>
       </c>
     </row>
     <row r="48">
@@ -1774,22 +1756,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>2.4769624740009553</v>
+        <v>3.4594316186372955</v>
       </c>
       <c r="C48" t="n">
-        <v>0.13083568847273155</v>
+        <v>0.19388833124509988</v>
       </c>
       <c r="D48" t="n">
-        <v>15.942200234214315</v>
+        <v>15.591758844233027</v>
       </c>
       <c r="E48" t="n">
-        <v>2.4768372633408794E-12</v>
+        <v>3.649870129707119E-12</v>
       </c>
       <c r="F48" t="n">
-        <v>7.195475743331142E-10</v>
+        <v>1.0603261010855532E-9</v>
       </c>
       <c r="G48" t="n">
-        <v>18.116464240837388</v>
+        <v>17.74383597392445</v>
       </c>
     </row>
     <row r="49">
@@ -1797,22 +1779,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>3.3140900595681297</v>
+        <v>3.3101076003501415</v>
       </c>
       <c r="C49" t="n">
         <v>0.18036445093864303</v>
       </c>
       <c r="D49" t="n">
-        <v>15.2719865086684</v>
+        <v>15.102512708698836</v>
       </c>
       <c r="E49" t="n">
-        <v>5.234146709111111E-12</v>
+        <v>6.352376977569283E-12</v>
       </c>
       <c r="F49" t="n">
-        <v>1.4888966492958981E-9</v>
+        <v>1.8069865677443953E-9</v>
       </c>
       <c r="G49" t="n">
-        <v>17.44343597135201</v>
+        <v>17.245408405433363</v>
       </c>
     </row>
     <row r="50">
@@ -1826,16 +1808,16 @@
         <v>0.39748291553489346</v>
       </c>
       <c r="D50" t="n">
-        <v>14.450432873290794</v>
+        <v>14.110828832207996</v>
       </c>
       <c r="E50" t="n">
-        <v>1.3623812129671703E-11</v>
+        <v>2.050595990207056E-11</v>
       </c>
       <c r="F50" t="n">
-        <v>3.796316955480356E-9</v>
+        <v>5.651265072183847E-9</v>
       </c>
       <c r="G50" t="n">
-        <v>16.57247547076453</v>
+        <v>16.178403775863423</v>
       </c>
     </row>
     <row r="51">
@@ -1843,22 +1825,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>6.18539015335063</v>
+        <v>6.176919118756779</v>
       </c>
       <c r="C51" t="n">
         <v>0.34608704052469913</v>
       </c>
       <c r="D51" t="n">
-        <v>14.253881626946354</v>
+        <v>14.103304088687892</v>
       </c>
       <c r="E51" t="n">
-        <v>1.724469506041971E-11</v>
+        <v>2.0694540325852673E-11</v>
       </c>
       <c r="F51" t="n">
-        <v>4.709181327099415E-9</v>
+        <v>5.651265072183847E-9</v>
       </c>
       <c r="G51" t="n">
-        <v>16.356185419700566</v>
+        <v>16.170002985188837</v>
       </c>
     </row>
     <row r="52">
@@ -1866,22 +1848,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>7.372756837336904</v>
+        <v>7.3589411749742775</v>
       </c>
       <c r="C52" t="n">
         <v>0.4753778545631406</v>
       </c>
       <c r="D52" t="n">
-        <v>13.677642205280568</v>
+        <v>13.712361363366071</v>
       </c>
       <c r="E52" t="n">
-        <v>3.4971018859289925E-11</v>
+        <v>3.348774331988411E-11</v>
       </c>
       <c r="F52" t="n">
-        <v>9.362633166759699E-9</v>
+        <v>8.965522495876424E-9</v>
       </c>
       <c r="G52" t="n">
-        <v>15.703524843777755</v>
+        <v>15.7269468651291</v>
       </c>
     </row>
     <row r="53">
@@ -1889,22 +1871,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>5.858412475453966</v>
+        <v>5.846260868503886</v>
       </c>
       <c r="C53" t="n">
         <v>0.33075349190215697</v>
       </c>
       <c r="D53" t="n">
-        <v>13.373670240043934</v>
+        <v>13.247549978947372</v>
       </c>
       <c r="E53" t="n">
-        <v>5.128967135965139E-11</v>
+        <v>6.024651656594152E-11</v>
       </c>
       <c r="F53" t="n">
-        <v>1.346748409124385E-8</v>
+        <v>1.58193449459878E-8</v>
       </c>
       <c r="G53" t="n">
-        <v>15.34769497915154</v>
+        <v>15.182841576897044</v>
       </c>
     </row>
     <row r="54">
@@ -1912,22 +1894,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>-11.301741742314542</v>
+        <v>-11.263683175323036</v>
       </c>
       <c r="C54" t="n">
         <v>9.702866042057343</v>
       </c>
       <c r="D54" t="n">
-        <v>-12.98879070186164</v>
+        <v>-13.027433442985922</v>
       </c>
       <c r="E54" t="n">
-        <v>8.416410523630115E-11</v>
+        <v>8.003480977418793E-11</v>
       </c>
       <c r="F54" t="n">
-        <v>2.168257911125388E-8</v>
+        <v>2.0618779106731356E-8</v>
       </c>
       <c r="G54" t="n">
-        <v>14.885231856126575</v>
+        <v>14.91836918885425</v>
       </c>
     </row>
     <row r="55">
@@ -1935,22 +1917,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>2.807354922057605</v>
+        <v>3.6210579089640085</v>
       </c>
       <c r="C55" t="n">
-        <v>0.16553717052424366</v>
+        <v>0.20574647913370056</v>
       </c>
       <c r="D55" t="n">
-        <v>12.944086967747229</v>
+        <v>12.654146125155005</v>
       </c>
       <c r="E55" t="n">
-        <v>8.921654765940723E-11</v>
+        <v>1.307299540652156E-10</v>
       </c>
       <c r="F55" t="n">
-        <v>2.2558569291510116E-8</v>
+        <v>3.2511156774482057E-8</v>
       </c>
       <c r="G55" t="n">
-        <v>14.830632179810047</v>
+        <v>14.459508190563945</v>
       </c>
     </row>
     <row r="56">
@@ -1958,22 +1940,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>3.6172245037747444</v>
+        <v>2.8073549220576077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20574647913370056</v>
+        <v>0.16553717052424366</v>
       </c>
       <c r="D56" t="n">
-        <v>12.887929353736148</v>
+        <v>12.6528302219007</v>
       </c>
       <c r="E56" t="n">
-        <v>9.601774283038088E-11</v>
+        <v>1.3095895873711097E-10</v>
       </c>
       <c r="F56" t="n">
-        <v>2.3836841101927646E-8</v>
+        <v>3.2511156774482057E-8</v>
       </c>
       <c r="G56" t="n">
-        <v>14.761778009652934</v>
+        <v>14.457867133248953</v>
       </c>
     </row>
     <row r="57">
@@ -1981,22 +1963,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>1.0059721960290084</v>
+        <v>1.0059721960290076</v>
       </c>
       <c r="C57" t="n">
         <v>0.0437379215664786</v>
       </c>
       <c r="D57" t="n">
-        <v>12.003304477834616</v>
+        <v>11.821028511592097</v>
       </c>
       <c r="E57" t="n">
-        <v>3.1641697301870644E-10</v>
+        <v>4.0801976254193964E-10</v>
       </c>
       <c r="F57" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>9.948396138835079E-8</v>
       </c>
       <c r="G57" t="n">
-        <v>13.636907062533547</v>
+        <v>13.386164650850745</v>
       </c>
     </row>
     <row r="58">
@@ -2004,22 +1986,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>3.331224841976024</v>
+        <v>1.000725670475896</v>
       </c>
       <c r="C58" t="n">
-        <v>0.19388833124509988</v>
+        <v>0.04350981175982151</v>
       </c>
       <c r="D58" t="n">
-        <v>11.94155101935234</v>
+        <v>11.759377376108487</v>
       </c>
       <c r="E58" t="n">
-        <v>3.447687749917427E-10</v>
+        <v>4.449740422819662E-10</v>
       </c>
       <c r="F58" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>1.0080591027213633E-7</v>
       </c>
       <c r="G58" t="n">
-        <v>13.55546207268989</v>
+        <v>13.30391971181503</v>
       </c>
     </row>
     <row r="59">
@@ -2027,22 +2009,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>1.000725670475895</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04350981175982151</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="D59" t="n">
-        <v>11.940702704233564</v>
+        <v>11.750850131101672</v>
       </c>
       <c r="E59" t="n">
-        <v>3.451762692201206E-10</v>
+        <v>4.503547389338626E-10</v>
       </c>
       <c r="F59" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>1.0080591027213633E-7</v>
       </c>
       <c r="G59" t="n">
-        <v>13.55434051557229</v>
+        <v>13.292512577220979</v>
       </c>
     </row>
     <row r="60">
@@ -2056,16 +2038,16 @@
         <v>0.043478260869565216</v>
       </c>
       <c r="D60" t="n">
-        <v>11.932043972205857</v>
+        <v>11.750850131101672</v>
       </c>
       <c r="E60" t="n">
-        <v>3.4936450920975197E-10</v>
+        <v>4.503547389338626E-10</v>
       </c>
       <c r="F60" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>1.0080591027213633E-7</v>
       </c>
       <c r="G60" t="n">
-        <v>13.54288855667548</v>
+        <v>13.292512577220979</v>
       </c>
     </row>
     <row r="61">
@@ -2079,16 +2061,16 @@
         <v>0.043478260869565216</v>
       </c>
       <c r="D61" t="n">
-        <v>11.932043972205857</v>
+        <v>11.750850131101672</v>
       </c>
       <c r="E61" t="n">
-        <v>3.4936450920975197E-10</v>
+        <v>4.503547389338626E-10</v>
       </c>
       <c r="F61" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>1.0080591027213633E-7</v>
       </c>
       <c r="G61" t="n">
-        <v>13.54288855667548</v>
+        <v>13.292512577220979</v>
       </c>
     </row>
     <row r="62">
@@ -2096,22 +2078,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0000000000000002</v>
+        <v>0.9999998339194828</v>
       </c>
       <c r="C62" t="n">
-        <v>0.043478260869565216</v>
+        <v>0.04347831863670183</v>
       </c>
       <c r="D62" t="n">
-        <v>11.932043972205857</v>
+        <v>11.750848179409168</v>
       </c>
       <c r="E62" t="n">
-        <v>3.4936450920975197E-10</v>
+        <v>4.5035597821886013E-10</v>
       </c>
       <c r="F62" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>1.0080591027213633E-7</v>
       </c>
       <c r="G62" t="n">
-        <v>13.54288855667548</v>
+        <v>13.292509965509883</v>
       </c>
     </row>
     <row r="63">
@@ -2119,22 +2101,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9999998296588174</v>
+        <v>3.3344316186373004</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04347831863670183</v>
+        <v>0.19388833124509988</v>
       </c>
       <c r="D63" t="n">
-        <v>11.932041939581222</v>
+        <v>11.736383115568097</v>
       </c>
       <c r="E63" t="n">
-        <v>3.4936549861524063E-10</v>
+        <v>4.5963978686615126E-10</v>
       </c>
       <c r="F63" t="n">
-        <v>7.693929867891122E-8</v>
+        <v>1.0122454273984563E-7</v>
       </c>
       <c r="G63" t="n">
-        <v>13.542885867435283</v>
+        <v>13.273142104135534</v>
       </c>
     </row>
     <row r="64">
@@ -2142,22 +2124,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>5.0757206720824035</v>
+        <v>5.08080329283871</v>
       </c>
       <c r="C64" t="n">
         <v>0.29842983070217427</v>
       </c>
       <c r="D64" t="n">
-        <v>11.804983311439841</v>
+        <v>11.600623624181958</v>
       </c>
       <c r="E64" t="n">
-        <v>4.1733340283306087E-10</v>
+        <v>5.571874924015347E-10</v>
       </c>
       <c r="F64" t="n">
-        <v>9.044873463940656E-8</v>
+        <v>1.2075933367064373E-7</v>
       </c>
       <c r="G64" t="n">
-        <v>13.373944514841023</v>
+        <v>13.090287247750318</v>
       </c>
     </row>
     <row r="65">
@@ -2165,22 +2147,22 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>4.53633776445562</v>
+        <v>4.543377946306149</v>
       </c>
       <c r="C65" t="n">
         <v>0.2947603938007504</v>
       </c>
       <c r="D65" t="n">
-        <v>11.729610683454329</v>
+        <v>11.526739453502495</v>
       </c>
       <c r="E65" t="n">
-        <v>4.640730860360937E-10</v>
+        <v>6.191656751393702E-10</v>
       </c>
       <c r="F65" t="n">
-        <v>9.900709244901286E-8</v>
+        <v>1.32095127005515E-7</v>
       </c>
       <c r="G65" t="n">
-        <v>13.272929413220107</v>
+        <v>12.989945470466914</v>
       </c>
     </row>
     <row r="66">
@@ -2188,22 +2170,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>5.0839721758691</v>
+        <v>5.071820568919014</v>
       </c>
       <c r="C66" t="n">
         <v>0.2970821745289018</v>
       </c>
       <c r="D66" t="n">
-        <v>11.605766523696914</v>
+        <v>11.492678479843871</v>
       </c>
       <c r="E66" t="n">
-        <v>5.531437049192751E-10</v>
+        <v>6.501286672137888E-10</v>
       </c>
       <c r="F66" t="n">
-        <v>1.161942176456582E-7</v>
+        <v>1.3656702803287804E-7</v>
       </c>
       <c r="G66" t="n">
-        <v>13.105649542948283</v>
+        <v>12.943489554765009</v>
       </c>
     </row>
     <row r="67">
@@ -2211,22 +2193,22 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>5.336966523754736</v>
+        <v>5.336966523754735</v>
       </c>
       <c r="C67" t="n">
         <v>0.6961260683158346</v>
       </c>
       <c r="D67" t="n">
-        <v>11.419712658904409</v>
+        <v>11.31878298931591</v>
       </c>
       <c r="E67" t="n">
-        <v>7.22065450279629E-10</v>
+        <v>8.355056686411143E-10</v>
       </c>
       <c r="F67" t="n">
-        <v>1.4938002512300082E-7</v>
+        <v>1.7284839999432992E-7</v>
       </c>
       <c r="G67" t="n">
-        <v>12.851258380616846</v>
+        <v>12.704348918613356</v>
       </c>
     </row>
     <row r="68">
@@ -2234,22 +2216,22 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>5.1492670951947135</v>
+        <v>5.149267095194719</v>
       </c>
       <c r="C68" t="n">
         <v>0.28135956687886876</v>
       </c>
       <c r="D68" t="n">
-        <v>10.894842723352497</v>
+        <v>10.79860356771631</v>
       </c>
       <c r="E68" t="n">
-        <v>1.5594738602617586E-9</v>
+        <v>1.8012732078716709E-9</v>
       </c>
       <c r="F68" t="n">
-        <v>3.1780680728379185E-7</v>
+        <v>3.670833489593999E-7</v>
       </c>
       <c r="G68" t="n">
-        <v>12.113108375821534</v>
+        <v>11.968929007786834</v>
       </c>
     </row>
     <row r="69">
@@ -2257,22 +2239,22 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>5.495951211318359</v>
+        <v>2.974295427613485</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9078335242058182</v>
+        <v>0.17823023598319507</v>
       </c>
       <c r="D69" t="n">
-        <v>10.591201768996028</v>
+        <v>10.468791875126268</v>
       </c>
       <c r="E69" t="n">
-        <v>2.4657532745980613E-9</v>
+        <v>2.9739313117217456E-9</v>
       </c>
       <c r="F69" t="n">
-        <v>4.89946433743309E-7</v>
+        <v>5.948723053931717E-7</v>
       </c>
       <c r="G69" t="n">
-        <v>11.671811887354854</v>
+        <v>11.48655039437556</v>
       </c>
     </row>
     <row r="70">
@@ -2280,22 +2262,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>2.97964005538228</v>
+        <v>5.4959512113183555</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17823023598319507</v>
+        <v>0.9078335242058182</v>
       </c>
       <c r="D70" t="n">
-        <v>10.58850142541805</v>
+        <v>10.461782106127261</v>
       </c>
       <c r="E70" t="n">
-        <v>2.4759267561365407E-9</v>
+        <v>3.006165890737428E-9</v>
       </c>
       <c r="F70" t="n">
-        <v>4.89946433743309E-7</v>
+        <v>5.948723053931717E-7</v>
       </c>
       <c r="G70" t="n">
-        <v>11.66783918216922</v>
+        <v>11.476158771679398</v>
       </c>
     </row>
     <row r="71">
@@ -2303,22 +2285,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>6.120612589534126</v>
+        <v>6.128279399912651</v>
       </c>
       <c r="C71" t="n">
         <v>0.4094980249606303</v>
       </c>
       <c r="D71" t="n">
-        <v>10.50196247980194</v>
+        <v>10.304339530209342</v>
       </c>
       <c r="E71" t="n">
-        <v>2.8263170114570132E-9</v>
+        <v>3.8350833866855886E-9</v>
       </c>
       <c r="F71" t="n">
-        <v>5.512933210633437E-7</v>
+        <v>7.48060408025786E-7</v>
       </c>
       <c r="G71" t="n">
-        <v>11.540069282978385</v>
+        <v>11.241208358211662</v>
       </c>
     </row>
     <row r="72">
@@ -2326,22 +2308,22 @@
         <v>76</v>
       </c>
       <c r="B72" t="n">
-        <v>5.677001563007781</v>
+        <v>5.684668373386297</v>
       </c>
       <c r="C72" t="n">
         <v>0.34377785198297905</v>
       </c>
       <c r="D72" t="n">
-        <v>10.469505856882112</v>
+        <v>10.27959668513332</v>
       </c>
       <c r="E72" t="n">
-        <v>2.970768451718978E-9</v>
+        <v>3.9856691691475624E-9</v>
       </c>
       <c r="F72" t="n">
-        <v>5.713080625319848E-7</v>
+        <v>7.664834765569129E-7</v>
       </c>
       <c r="G72" t="n">
-        <v>11.491920453303814</v>
+        <v>11.204013411285665</v>
       </c>
     </row>
     <row r="73">
@@ -2349,22 +2331,22 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>3.190457553784087</v>
+        <v>3.1948597303493393</v>
       </c>
       <c r="C73" t="n">
         <v>0.1943838704171105</v>
       </c>
       <c r="D73" t="n">
-        <v>10.007117399362937</v>
+        <v>9.827856376666194</v>
       </c>
       <c r="E73" t="n">
-        <v>6.118403755045878E-9</v>
+        <v>8.147559558772934E-9</v>
       </c>
       <c r="F73" t="n">
-        <v>1.1602872898805059E-6</v>
+        <v>1.545094141881745E-6</v>
       </c>
       <c r="G73" t="n">
-        <v>10.792201045626728</v>
+        <v>10.511725367853622</v>
       </c>
     </row>
     <row r="74">
@@ -2372,22 +2354,22 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>5.935127204165631</v>
+        <v>5.946285628396979</v>
       </c>
       <c r="C74" t="n">
         <v>0.4126277342153917</v>
       </c>
       <c r="D74" t="n">
-        <v>9.822355575111256</v>
+        <v>9.654599714161414</v>
       </c>
       <c r="E74" t="n">
-        <v>8.220217473722719E-9</v>
+        <v>1.0783727363709959E-8</v>
       </c>
       <c r="F74" t="n">
-        <v>1.5375184847426027E-6</v>
+        <v>2.017000183891723E-6</v>
       </c>
       <c r="G74" t="n">
-        <v>10.505261984069728</v>
+        <v>10.239442164358849</v>
       </c>
     </row>
     <row r="75">
@@ -2395,22 +2377,22 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>2.768078036474097</v>
+        <v>2.7706564200428128</v>
       </c>
       <c r="C75" t="n">
         <v>0.1802577193423313</v>
       </c>
       <c r="D75" t="n">
-        <v>9.622500802591793</v>
+        <v>9.45139783571724</v>
       </c>
       <c r="E75" t="n">
-        <v>1.136321396225427E-8</v>
+        <v>1.5047724479737202E-8</v>
       </c>
       <c r="F75" t="n">
-        <v>2.096666532981349E-6</v>
+        <v>2.7765085141396183E-6</v>
       </c>
       <c r="G75" t="n">
-        <v>10.190045718187227</v>
+        <v>9.915204503823567</v>
       </c>
     </row>
     <row r="76">
@@ -2418,22 +2400,22 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>5.055513186261515</v>
+        <v>5.0631799966400335</v>
       </c>
       <c r="C76" t="n">
         <v>0.3167566182114021</v>
       </c>
       <c r="D76" t="n">
-        <v>9.323359228576116</v>
+        <v>9.155758065565072</v>
       </c>
       <c r="E76" t="n">
-        <v>1.8609804354172222E-8</v>
+        <v>2.4647745098243846E-8</v>
       </c>
       <c r="F76" t="n">
-        <v>3.3879769153582338E-6</v>
+        <v>4.48720415428562E-6</v>
       </c>
       <c r="G76" t="n">
-        <v>9.708659272241968</v>
+        <v>9.433864241891985</v>
       </c>
     </row>
     <row r="77">
@@ -2441,22 +2423,22 @@
         <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>4.830675919526059</v>
+        <v>4.8325134924703965</v>
       </c>
       <c r="C77" t="n">
         <v>0.367697671877583</v>
       </c>
       <c r="D77" t="n">
-        <v>9.253836106383169</v>
+        <v>9.112302811008044</v>
       </c>
       <c r="E77" t="n">
-        <v>2.0902159593714627E-8</v>
+        <v>2.6525360327168077E-8</v>
       </c>
       <c r="F77" t="n">
-        <v>3.755237988060257E-6</v>
+        <v>4.76549039351517E-6</v>
       </c>
       <c r="G77" t="n">
-        <v>9.595112294224565</v>
+        <v>9.362140371813606</v>
       </c>
     </row>
     <row r="78">
@@ -2464,22 +2446,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>4.485372541903187</v>
+        <v>4.492309324480122</v>
       </c>
       <c r="C78" t="n">
         <v>0.282736228338621</v>
       </c>
       <c r="D78" t="n">
-        <v>9.118346493397008</v>
+        <v>8.954903404041163</v>
       </c>
       <c r="E78" t="n">
-        <v>2.6256270064984256E-8</v>
+        <v>3.4672435095498E-8</v>
       </c>
       <c r="F78" t="n">
-        <v>4.655884564510325E-6</v>
+        <v>6.1482782960250604E-6</v>
       </c>
       <c r="G78" t="n">
-        <v>9.371995539376941</v>
+        <v>9.100236190389538</v>
       </c>
     </row>
     <row r="79">
@@ -2487,22 +2469,22 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>2.4815181999885603</v>
+        <v>2.473851389610048</v>
       </c>
       <c r="C79" t="n">
         <v>0.1558679348139633</v>
       </c>
       <c r="D79" t="n">
-        <v>8.739960811303648</v>
+        <v>8.645119123488307</v>
       </c>
       <c r="E79" t="n">
-        <v>5.023255189095485E-8</v>
+        <v>5.926592879484991E-8</v>
       </c>
       <c r="F79" t="n">
-        <v>8.793272609219199E-6</v>
+        <v>1.0374576817498469E-5</v>
       </c>
       <c r="G79" t="n">
-        <v>8.73588958722568</v>
+        <v>8.574985767965522</v>
       </c>
     </row>
     <row r="80">
@@ -2510,22 +2492,22 @@
         <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>6.534449621399486</v>
+        <v>6.519445354326208</v>
       </c>
       <c r="C80" t="n">
         <v>0.420770419201783</v>
       </c>
       <c r="D80" t="n">
-        <v>8.611639765075365</v>
+        <v>8.514111930956323</v>
       </c>
       <c r="E80" t="n">
-        <v>6.284781728509058E-8</v>
+        <v>7.461704987234101E-8</v>
       </c>
       <c r="F80" t="n">
-        <v>1.0862330344438313E-5</v>
+        <v>1.2896470872872711E-5</v>
       </c>
       <c r="G80" t="n">
-        <v>8.515757737180216</v>
+        <v>8.348903522954597</v>
       </c>
     </row>
     <row r="81">
@@ -2533,22 +2515,22 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>4.857980995127573</v>
+        <v>6.168817159275689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.33327547466022506</v>
+        <v>0.42772295361614804</v>
       </c>
       <c r="D81" t="n">
-        <v>8.555911976929277</v>
+        <v>8.36366254060271</v>
       </c>
       <c r="E81" t="n">
-        <v>6.931531287816592E-8</v>
+        <v>9.747377362599635E-8</v>
       </c>
       <c r="F81" t="n">
-        <v>1.183039102548097E-5</v>
+        <v>1.6636336313616927E-5</v>
       </c>
       <c r="G81" t="n">
-        <v>8.419454018157863</v>
+        <v>8.086335836640384</v>
       </c>
     </row>
     <row r="82">
@@ -2556,22 +2538,22 @@
         <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>6.161371254451843</v>
+        <v>4.857980995127575</v>
       </c>
       <c r="C82" t="n">
-        <v>0.42772295361614804</v>
+        <v>0.33327547466022506</v>
       </c>
       <c r="D82" t="n">
-        <v>8.48795768366968</v>
+        <v>8.354130116167497</v>
       </c>
       <c r="E82" t="n">
-        <v>7.81506918247609E-8</v>
+        <v>9.914781075783508E-8</v>
       </c>
       <c r="F82" t="n">
-        <v>1.317369810092945E-5</v>
+        <v>1.6713138371450373E-5</v>
       </c>
       <c r="G82" t="n">
-        <v>8.3014418961619</v>
+        <v>8.069593434668306</v>
       </c>
     </row>
     <row r="83">
@@ -2579,22 +2561,22 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>3.536515463699874</v>
+        <v>3.5416473085581384</v>
       </c>
       <c r="C83" t="n">
         <v>0.23226082173941975</v>
       </c>
       <c r="D83" t="n">
-        <v>8.14920003716571</v>
+        <v>8.011706399031457</v>
       </c>
       <c r="E83" t="n">
-        <v>1.4338854485546783E-7</v>
+        <v>1.8421868033215592E-7</v>
       </c>
       <c r="F83" t="n">
-        <v>2.3875941359226312E-5</v>
+        <v>3.06746568445763E-5</v>
       </c>
       <c r="G83" t="n">
-        <v>7.703562013594157</v>
+        <v>7.459713343697319</v>
       </c>
     </row>
     <row r="84">
@@ -2602,22 +2584,22 @@
         <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>3.523808956931519</v>
+        <v>3.5319540211923823</v>
       </c>
       <c r="C84" t="n">
         <v>0.26470934349238145</v>
       </c>
       <c r="D84" t="n">
-        <v>7.941446525529928</v>
+        <v>7.808577653023671</v>
       </c>
       <c r="E84" t="n">
-        <v>2.095907902583719E-7</v>
+        <v>2.679745991840283E-7</v>
       </c>
       <c r="F84" t="n">
-        <v>3.447894759262422E-5</v>
+        <v>4.408343587058701E-5</v>
       </c>
       <c r="G84" t="n">
-        <v>7.328924126023253</v>
+        <v>7.090090908304025</v>
       </c>
     </row>
     <row r="85">
@@ -2625,22 +2607,22 @@
         <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>2.206983578586994</v>
+        <v>2.2108169837762537</v>
       </c>
       <c r="C85" t="n">
         <v>0.14443165629945054</v>
       </c>
       <c r="D85" t="n">
-        <v>7.863335111216591</v>
+        <v>7.725919295414756</v>
       </c>
       <c r="E85" t="n">
-        <v>2.4209980310162834E-7</v>
+        <v>3.1261189175331264E-7</v>
       </c>
       <c r="F85" t="n">
-        <v>3.935274656606706E-5</v>
+        <v>5.081431869047298E-5</v>
       </c>
       <c r="G85" t="n">
-        <v>7.18648729835812</v>
+        <v>6.938000249705193</v>
       </c>
     </row>
     <row r="86">
@@ -2648,22 +2630,22 @@
         <v>90</v>
       </c>
       <c r="B86" t="n">
-        <v>1.1151935698737947</v>
+        <v>1.116853507617628</v>
       </c>
       <c r="C86" t="n">
         <v>0.06947764625235985</v>
       </c>
       <c r="D86" t="n">
-        <v>7.793147356542605</v>
+        <v>7.6637072860216575</v>
       </c>
       <c r="E86" t="n">
-        <v>2.75780722991081E-7</v>
+        <v>3.512587377545175E-7</v>
       </c>
       <c r="F86" t="n">
-        <v>4.430011754964964E-5</v>
+        <v>5.6424550650590366E-5</v>
       </c>
       <c r="G86" t="n">
-        <v>7.057760157149879</v>
+        <v>6.8228873766131</v>
       </c>
     </row>
     <row r="87">
@@ -2671,22 +2653,22 @@
         <v>91</v>
       </c>
       <c r="B87" t="n">
-        <v>6.032979209019978</v>
+        <v>6.015095415074871</v>
       </c>
       <c r="C87" t="n">
         <v>0.4466768562272418</v>
       </c>
       <c r="D87" t="n">
-        <v>7.712278678096644</v>
+        <v>7.590698012501626</v>
       </c>
       <c r="E87" t="n">
-        <v>3.2069698930707786E-7</v>
+        <v>4.0301508944017384E-7</v>
       </c>
       <c r="F87" t="n">
-        <v>5.0916240604637686E-5</v>
+        <v>6.398567478158295E-5</v>
       </c>
       <c r="G87" t="n">
-        <v>6.9085746706670985</v>
+        <v>6.6870904472531025</v>
       </c>
     </row>
     <row r="88">
@@ -2694,22 +2676,22 @@
         <v>92</v>
       </c>
       <c r="B88" t="n">
-        <v>6.000000000000001</v>
+        <v>6.000000000000004</v>
       </c>
       <c r="C88" t="n">
         <v>0.4307343737221095</v>
       </c>
       <c r="D88" t="n">
-        <v>7.633577821882066</v>
+        <v>7.4528742567213</v>
       </c>
       <c r="E88" t="n">
-        <v>3.7173485217051623E-7</v>
+        <v>5.234274226053917E-7</v>
       </c>
       <c r="F88" t="n">
-        <v>5.8341007718807224E-5</v>
+        <v>8.214802331326458E-5</v>
       </c>
       <c r="G88" t="n">
-        <v>6.762493526181146</v>
+        <v>6.42866021147445</v>
       </c>
     </row>
     <row r="89">
@@ -2717,22 +2699,22 @@
         <v>93</v>
       </c>
       <c r="B89" t="n">
-        <v>5.044724580097135</v>
+        <v>5.049807200853446</v>
       </c>
       <c r="C89" t="n">
         <v>0.40947184847329987</v>
       </c>
       <c r="D89" t="n">
-        <v>7.501520005403697</v>
+        <v>7.347318203766382</v>
       </c>
       <c r="E89" t="n">
-        <v>4.771618498508674E-7</v>
+        <v>6.405629604294244E-7</v>
       </c>
       <c r="F89" t="n">
-        <v>7.403599883936073E-5</v>
+        <v>9.938916661026545E-5</v>
       </c>
       <c r="G89" t="n">
-        <v>6.515387601589687</v>
+        <v>6.228895874397504</v>
       </c>
     </row>
     <row r="90">
@@ -2740,22 +2722,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="n">
-        <v>5.869531928664422</v>
+        <v>5.85472580528581</v>
       </c>
       <c r="C90" t="n">
         <v>0.4693154975515133</v>
       </c>
       <c r="D90" t="n">
-        <v>7.443452651591485</v>
+        <v>7.331461717348931</v>
       </c>
       <c r="E90" t="n">
-        <v>5.329261240726274E-7</v>
+        <v>6.603789688931708E-7</v>
       </c>
       <c r="F90" t="n">
-        <v>8.175925054031072E-5</v>
+        <v>1.0131252181199275E-4</v>
       </c>
       <c r="G90" t="n">
-        <v>6.405943952605849</v>
+        <v>6.198749795706372</v>
       </c>
     </row>
     <row r="91">
@@ -2763,22 +2745,22 @@
         <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>5.0261422946103576</v>
+        <v>8.813300052260486</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3453267176234452</v>
+        <v>0.534185607073034</v>
       </c>
       <c r="D91" t="n">
-        <v>7.254002353021071</v>
+        <v>7.13326305180575</v>
       </c>
       <c r="E91" t="n">
-        <v>7.667425786992954E-7</v>
+        <v>9.692275301508317E-7</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1632336855066867E-4</v>
+        <v>1.455486988637256E-4</v>
       </c>
       <c r="G91" t="n">
-        <v>6.0455253375375175</v>
+        <v>5.818905929848824</v>
       </c>
     </row>
     <row r="92">
@@ -2786,22 +2768,22 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>3.3559131738715315</v>
+        <v>5.034431692027941</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2269066593651078</v>
+        <v>0.3453267176234452</v>
       </c>
       <c r="D92" t="n">
-        <v>7.207707305907971</v>
+        <v>7.132494034314487</v>
       </c>
       <c r="E92" t="n">
-        <v>8.386396544292173E-7</v>
+        <v>9.706815594872222E-7</v>
       </c>
       <c r="F92" t="n">
-        <v>1.2583281144589597E-4</v>
+        <v>1.455486988637256E-4</v>
       </c>
       <c r="G92" t="n">
-        <v>5.956672973659263</v>
+        <v>5.817421202309693</v>
       </c>
     </row>
     <row r="93">
@@ -2809,22 +2791,22 @@
         <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>8.81330005226049</v>
+        <v>3.342969332798538</v>
       </c>
       <c r="C93" t="n">
-        <v>0.534185607073034</v>
+        <v>0.2269066593651078</v>
       </c>
       <c r="D93" t="n">
-        <v>7.195549210294317</v>
+        <v>7.127227524369046</v>
       </c>
       <c r="E93" t="n">
-        <v>8.586556969734247E-7</v>
+        <v>9.80700182764227E-7</v>
       </c>
       <c r="F93" t="n">
-        <v>1.2743570528777327E-4</v>
+        <v>1.455486988637256E-4</v>
       </c>
       <c r="G93" t="n">
-        <v>5.933287754064647</v>
+        <v>5.807250986074034</v>
       </c>
     </row>
     <row r="94">
@@ -2832,22 +2814,22 @@
         <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>4.953992508854523</v>
+        <v>4.962281906272108</v>
       </c>
       <c r="C94" t="n">
         <v>0.34218977041666976</v>
       </c>
       <c r="D94" t="n">
-        <v>7.149871851939951</v>
+        <v>7.030276356538576</v>
       </c>
       <c r="E94" t="n">
-        <v>9.383863003850323E-7</v>
+        <v>1.1855565618808556E-6</v>
       </c>
       <c r="F94" t="n">
-        <v>1.3777125317695948E-4</v>
+        <v>1.7406009995614197E-4</v>
       </c>
       <c r="G94" t="n">
-        <v>5.845242557538571</v>
+        <v>5.619322080521527</v>
       </c>
     </row>
     <row r="95">
@@ -2855,22 +2837,22 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>4.988274954562267</v>
+        <v>4.998184163226568</v>
       </c>
       <c r="C95" t="n">
         <v>0.8105153995253914</v>
       </c>
       <c r="D95" t="n">
-        <v>7.129722172773237</v>
+        <v>7.004356117610811</v>
       </c>
       <c r="E95" t="n">
-        <v>9.759595321043354E-7</v>
+        <v>1.2475046148972778E-6</v>
       </c>
       <c r="F95" t="n">
-        <v>1.4176331331226165E-4</v>
+        <v>1.812066809766748E-4</v>
       </c>
       <c r="G95" t="n">
-        <v>5.80630875116818</v>
+        <v>5.56885224723137</v>
       </c>
     </row>
     <row r="96">
@@ -2878,22 +2860,22 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>2.4753365880890836</v>
+        <v>2.4791699932783398</v>
       </c>
       <c r="C96" t="n">
         <v>0.20277362187033057</v>
       </c>
       <c r="D96" t="n">
-        <v>7.004441688210983</v>
+        <v>6.868800978468268</v>
       </c>
       <c r="E96" t="n">
-        <v>1.2473173106644647E-6</v>
+        <v>1.630670166269513E-6</v>
       </c>
       <c r="F96" t="n">
-        <v>1.792723216822379E-4</v>
+        <v>2.343702152657256E-4</v>
       </c>
       <c r="G96" t="n">
-        <v>5.562944140253936</v>
+        <v>5.303359745353322</v>
       </c>
     </row>
     <row r="97">
@@ -2901,22 +2883,22 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>1.8850554836996323</v>
+        <v>1.8888888888888904</v>
       </c>
       <c r="C97" t="n">
         <v>0.13043478260869565</v>
       </c>
       <c r="D97" t="n">
-        <v>6.716326807042631</v>
+        <v>6.600909627822051</v>
       </c>
       <c r="E97" t="n">
-        <v>2.2105750133351904E-6</v>
+        <v>2.788824147247732E-6</v>
       </c>
       <c r="F97" t="n">
-        <v>3.144082420008197E-4</v>
+        <v>3.966521344429222E-4</v>
       </c>
       <c r="G97" t="n">
-        <v>4.994857235803568</v>
+        <v>4.771086392535891</v>
       </c>
     </row>
     <row r="98">
@@ -2924,22 +2906,22 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>6.622531235824929</v>
+        <v>6.635792638943697</v>
       </c>
       <c r="C98" t="n">
         <v>0.5015759658994838</v>
       </c>
       <c r="D98" t="n">
-        <v>6.609561250768643</v>
+        <v>6.503242830223188</v>
       </c>
       <c r="E98" t="n">
-        <v>2.740539906579172E-6</v>
+        <v>3.399607214670492E-6</v>
       </c>
       <c r="F98" t="n">
-        <v>3.85766308086928E-4</v>
+        <v>4.785385248361948E-4</v>
       </c>
       <c r="G98" t="n">
-        <v>4.781397884416421</v>
+        <v>4.574554999357795</v>
       </c>
     </row>
     <row r="99">
@@ -2947,22 +2929,22 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9431704690946624</v>
+        <v>0.9445919198020603</v>
       </c>
       <c r="C99" t="n">
         <v>0.0627506365905877</v>
       </c>
       <c r="D99" t="n">
-        <v>6.518762716527631</v>
+        <v>6.415407626507609</v>
       </c>
       <c r="E99" t="n">
-        <v>3.2940599743995846E-6</v>
+        <v>4.066774560005083E-6</v>
       </c>
       <c r="F99" t="n">
-        <v>4.589499478617544E-4</v>
+        <v>5.66609590227647E-4</v>
       </c>
       <c r="G99" t="n">
-        <v>4.598624449101322</v>
+        <v>4.396693203258175</v>
       </c>
     </row>
     <row r="100">
@@ -2970,22 +2952,22 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>8.007856405270875</v>
+        <v>8.007856405270871</v>
       </c>
       <c r="C100" t="n">
         <v>0.5062573955675032</v>
       </c>
       <c r="D100" t="n">
-        <v>6.245975246832553</v>
+        <v>6.1919257149564215</v>
       </c>
       <c r="E100" t="n">
-        <v>5.7626692157202776E-6</v>
+        <v>6.445367510707341E-6</v>
       </c>
       <c r="F100" t="n">
-        <v>7.947826815297442E-4</v>
+        <v>8.889398786989701E-4</v>
       </c>
       <c r="G100" t="n">
-        <v>4.042789631544554</v>
+        <v>3.939477015476185</v>
       </c>
     </row>
     <row r="101">
@@ -2993,22 +2975,22 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>8.477141864738183</v>
+        <v>8.477141864738185</v>
       </c>
       <c r="C101" t="n">
         <v>0.5398151796774477</v>
       </c>
       <c r="D101" t="n">
-        <v>6.106035932293467</v>
+        <v>6.053222809506477</v>
       </c>
       <c r="E101" t="n">
-        <v>7.706734230914836E-6</v>
+        <v>8.605873109563803E-6</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0010522774918891116</v>
+        <v>0.0011750459143798416</v>
       </c>
       <c r="G101" t="n">
-        <v>3.753820607815687</v>
+        <v>3.652408224107023</v>
       </c>
     </row>
     <row r="102">
@@ -3016,22 +2998,22 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>5.291342936752743</v>
+        <v>6.696096256325338</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429929815084197</v>
+        <v>0.4273792493515678</v>
       </c>
       <c r="D102" t="n">
-        <v>6.097078330063951</v>
+        <v>6.003298893090659</v>
       </c>
       <c r="E102" t="n">
-        <v>7.852156060820986E-6</v>
+        <v>9.555328200836135E-6</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0010615182064797005</v>
+        <v>0.0012884432954479853</v>
       </c>
       <c r="G102" t="n">
-        <v>3.7352371801890865</v>
+        <v>3.548479165803104</v>
       </c>
     </row>
     <row r="103">
@@ -3039,22 +3021,22 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>6.696096256325333</v>
+        <v>5.30507373998293</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4273792493515678</v>
+        <v>0.429929815084197</v>
       </c>
       <c r="D103" t="n">
-        <v>6.055761453372151</v>
+        <v>5.99983351750377</v>
       </c>
       <c r="E103" t="n">
-        <v>8.560387816031748E-6</v>
+        <v>9.625107377742382E-6</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0011459170121578186</v>
+        <v>0.0012884432954479853</v>
       </c>
       <c r="G103" t="n">
-        <v>3.6493884255616997</v>
+        <v>3.5412534319976556</v>
       </c>
     </row>
     <row r="104">
@@ -3062,22 +3044,22 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>5.117794950850613</v>
+        <v>6.344434328553777</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4266861387485668</v>
+        <v>0.7442545577322615</v>
       </c>
       <c r="D104" t="n">
-        <v>6.03551721689729</v>
+        <v>5.948777311031048</v>
       </c>
       <c r="E104" t="n">
-        <v>8.931086403746176E-6</v>
+        <v>1.0716145365619802E-5</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0011839325607451484</v>
+        <v>0.0014205655225453667</v>
       </c>
       <c r="G104" t="n">
-        <v>3.607245377373454</v>
+        <v>3.434620445014496</v>
       </c>
     </row>
     <row r="105">
@@ -3085,22 +3067,22 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>6.329358543665178</v>
+        <v>5.122615564594436</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7442545577322615</v>
+        <v>0.4266861387485668</v>
       </c>
       <c r="D105" t="n">
-        <v>6.026025773598907</v>
+        <v>5.90526193480064</v>
       </c>
       <c r="E105" t="n">
-        <v>9.110536698756747E-6</v>
+        <v>1.1746172260797639E-5</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0011961083469694677</v>
+        <v>0.0015421368850858748</v>
       </c>
       <c r="G105" t="n">
-        <v>3.58746887925102</v>
+        <v>3.343480786308377</v>
       </c>
     </row>
     <row r="106">
@@ -3108,22 +3090,22 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>2.096775682897699</v>
+        <v>2.1010207746635348</v>
       </c>
       <c r="C106" t="n">
         <v>0.28940247174734807</v>
       </c>
       <c r="D106" t="n">
-        <v>5.93485205222551</v>
+        <v>5.825959840842084</v>
       </c>
       <c r="E106" t="n">
-        <v>1.1035396736508912E-5</v>
+        <v>1.3893000519645418E-5</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0014350219718123115</v>
+        <v>0.0018066193247165577</v>
       </c>
       <c r="G106" t="n">
-        <v>3.3969222359695266</v>
+        <v>3.1767915129559006</v>
       </c>
     </row>
     <row r="107">
@@ -3131,22 +3113,22 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>4.020207081754716</v>
+        <v>5.735944736411845</v>
       </c>
       <c r="C107" t="n">
-        <v>0.35761588154508733</v>
+        <v>0.46860201602133505</v>
       </c>
       <c r="D107" t="n">
-        <v>5.8970078789202365</v>
+        <v>5.795344581828504</v>
       </c>
       <c r="E107" t="n">
-        <v>1.1952917613811424E-5</v>
+        <v>1.4826194750829833E-5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0015396711047073696</v>
+        <v>0.0019097817276210426</v>
       </c>
       <c r="G107" t="n">
-        <v>3.317527570617832</v>
+        <v>3.1122362379119624</v>
       </c>
     </row>
     <row r="108">
@@ -3154,22 +3136,22 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>5.735944736411844</v>
+        <v>5.42106605527265</v>
       </c>
       <c r="C108" t="n">
-        <v>0.46860201602133505</v>
+        <v>0.7609339782657745</v>
       </c>
       <c r="D108" t="n">
-        <v>5.875412804496253</v>
+        <v>5.783676603926564</v>
       </c>
       <c r="E108" t="n">
-        <v>1.2511275161620981E-5</v>
+        <v>1.5198583494810507E-5</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0015965322528670362</v>
+        <v>0.0019394528882069409</v>
       </c>
       <c r="G108" t="n">
-        <v>3.2721438149807813</v>
+        <v>3.087603681480801</v>
       </c>
     </row>
     <row r="109">
@@ -3177,22 +3159,22 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>5.4168701373815535</v>
+        <v>5.783691474961439</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7609339782657745</v>
+        <v>0.49051869682414967</v>
       </c>
       <c r="D109" t="n">
-        <v>5.866387560625261</v>
+        <v>5.767606781787777</v>
       </c>
       <c r="E109" t="n">
-        <v>1.2752508117504682E-5</v>
+        <v>1.5727246132818842E-5</v>
       </c>
       <c r="F109" t="n">
-        <v>0.001612247646633416</v>
+        <v>0.00198833165460656</v>
       </c>
       <c r="G109" t="n">
-        <v>3.2531597168948068</v>
+        <v>3.05365180215746</v>
       </c>
     </row>
     <row r="110">
@@ -3200,22 +3182,22 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>7.239507726086976</v>
+        <v>4.015045734090092</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7734091941562806</v>
+        <v>0.35761588154508733</v>
       </c>
       <c r="D110" t="n">
-        <v>5.853995011217323</v>
+        <v>5.762589076076761</v>
       </c>
       <c r="E110" t="n">
-        <v>1.3091556076905889E-5</v>
+        <v>1.5896157839982368E-5</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0016399275841658073</v>
+        <v>0.001991248983001094</v>
       </c>
       <c r="G110" t="n">
-        <v>3.227076573004327</v>
+        <v>3.0430442661130686</v>
       </c>
     </row>
     <row r="111">
@@ -3223,22 +3205,22 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>5.79537014062825</v>
+        <v>7.224488516118456</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49051869682414967</v>
+        <v>0.7734091941562806</v>
       </c>
       <c r="D111" t="n">
-        <v>5.843442114189307</v>
+        <v>5.7381463861388315</v>
       </c>
       <c r="E111" t="n">
-        <v>1.3387570291759257E-5</v>
+        <v>1.6746011101544833E-5</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0016617625887607353</v>
+        <v>0.0020786366870953923</v>
       </c>
       <c r="G111" t="n">
-        <v>3.2048507760829352</v>
+        <v>2.991329466970977</v>
       </c>
     </row>
     <row r="112">
@@ -3246,22 +3228,22 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>4.927298934140239</v>
+        <v>4.9337124874627865</v>
       </c>
       <c r="C112" t="n">
         <v>0.3937079319783126</v>
       </c>
       <c r="D112" t="n">
-        <v>5.791464640399753</v>
+        <v>5.7262017656958175</v>
       </c>
       <c r="E112" t="n">
-        <v>1.4949162363984791E-5</v>
+        <v>1.717814654671066E-5</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0018388816479085435</v>
+        <v>0.0021130667833224085</v>
       </c>
       <c r="G112" t="n">
-        <v>3.0951840799621433</v>
+        <v>2.966032048248647</v>
       </c>
     </row>
     <row r="113">
@@ -3269,22 +3251,22 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>6.21720817563377</v>
+        <v>6.235488212680908</v>
       </c>
       <c r="C113" t="n">
         <v>0.5789195461850566</v>
       </c>
       <c r="D113" t="n">
-        <v>5.728334645941594</v>
+        <v>5.673553435572106</v>
       </c>
       <c r="E113" t="n">
-        <v>1.710036271233921E-5</v>
+        <v>1.9223650570466922E-5</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0020847174328060677</v>
+        <v>0.0023435689722246015</v>
       </c>
       <c r="G113" t="n">
-        <v>2.9615556176213467</v>
+        <v>2.854330961056889</v>
       </c>
     </row>
     <row r="114">
@@ -3292,22 +3274,22 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>5.088573121506069</v>
+        <v>2.8887886864100785</v>
       </c>
       <c r="C114" t="n">
-        <v>0.49674851649075336</v>
+        <v>0.3071386415060213</v>
       </c>
       <c r="D114" t="n">
-        <v>5.676956037558357</v>
+        <v>5.63890532924994</v>
       </c>
       <c r="E114" t="n">
-        <v>1.9084423491795694E-5</v>
+        <v>2.0704693713212607E-5</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0023060063571414017</v>
+        <v>0.002501786619116858</v>
       </c>
       <c r="G114" t="n">
-        <v>2.852458476059118</v>
+        <v>2.780646191467482</v>
       </c>
     </row>
     <row r="115">
@@ -3315,22 +3297,22 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>-10.195660670890009</v>
+        <v>5.108126694122209</v>
       </c>
       <c r="C115" t="n">
-        <v>7.250462839260562</v>
+        <v>0.49674851649075336</v>
       </c>
       <c r="D115" t="n">
-        <v>-5.632243354376538</v>
+        <v>5.605073706538701</v>
       </c>
       <c r="E115" t="n">
-        <v>2.1002870676792698E-5</v>
+        <v>2.2263915194714213E-5</v>
       </c>
       <c r="F115" t="n">
-        <v>0.002515554352815153</v>
+        <v>0.0026665920883212966</v>
       </c>
       <c r="G115" t="n">
-        <v>2.75726964264844</v>
+        <v>2.7085666063642178</v>
       </c>
     </row>
     <row r="116">
@@ -3338,22 +3320,22 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>2.9037026066576495</v>
+        <v>-10.17915080835716</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3071386415060213</v>
+        <v>7.250462839260562</v>
       </c>
       <c r="D116" t="n">
-        <v>5.624618395828372</v>
+        <v>-5.566826778819745</v>
       </c>
       <c r="E116" t="n">
-        <v>2.1349267320008406E-5</v>
+        <v>2.417238680013843E-5</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0025348077911947374</v>
+        <v>0.002869997994513827</v>
       </c>
       <c r="G116" t="n">
-        <v>2.7410142901562793</v>
+        <v>2.6269260024842653</v>
       </c>
     </row>
     <row r="117">
@@ -3361,22 +3343,22 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>2.702872735700015</v>
+        <v>2.7127819443643184</v>
       </c>
       <c r="C117" t="n">
         <v>0.24282445655309373</v>
       </c>
       <c r="D117" t="n">
-        <v>5.602161904600466</v>
+        <v>5.539520976842298</v>
       </c>
       <c r="E117" t="n">
-        <v>2.2403884794418923E-5</v>
+        <v>2.5636863306928115E-5</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0026370917498534136</v>
+        <v>0.00301763561717928</v>
       </c>
       <c r="G117" t="n">
-        <v>2.6931023040768114</v>
+        <v>2.5685412356715487</v>
       </c>
     </row>
     <row r="118">
@@ -3384,22 +3366,22 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>3.0885208583661976</v>
+        <v>3.099394445405988</v>
       </c>
       <c r="C118" t="n">
         <v>0.35521413049749184</v>
       </c>
       <c r="D118" t="n">
-        <v>5.540038352561817</v>
+        <v>5.485607986036738</v>
       </c>
       <c r="E118" t="n">
-        <v>2.5608581873195754E-5</v>
+        <v>2.8801226408207118E-5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.002988543392278759</v>
+        <v>0.0033611277382705985</v>
       </c>
       <c r="G118" t="n">
-        <v>2.5602677256419515</v>
+        <v>2.4530279167117923</v>
       </c>
     </row>
     <row r="119">
@@ -3407,22 +3389,22 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>7.056089863147778</v>
+        <v>7.0715059767143</v>
       </c>
       <c r="C119" t="n">
         <v>0.5425991419143087</v>
       </c>
       <c r="D119" t="n">
-        <v>5.504594027621146</v>
+        <v>5.415099286996936</v>
       </c>
       <c r="E119" t="n">
-        <v>2.7643890752768976E-5</v>
+        <v>3.3553003013296625E-5</v>
       </c>
       <c r="F119" t="n">
-        <v>0.003198726138460234</v>
+        <v>0.003882480535114849</v>
       </c>
       <c r="G119" t="n">
-        <v>2.4842910604799933</v>
+        <v>2.301491421666147</v>
       </c>
     </row>
     <row r="120">
@@ -3430,22 +3412,22 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>8.821818341050431</v>
+        <v>8.829188353074002</v>
       </c>
       <c r="C120" t="n">
         <v>0.9733793205320477</v>
       </c>
       <c r="D120" t="n">
-        <v>5.463371084567925</v>
+        <v>5.3923212290829525</v>
       </c>
       <c r="E120" t="n">
-        <v>3.0220785612780035E-5</v>
+        <v>3.525394246708674E-5</v>
       </c>
       <c r="F120" t="n">
-        <v>0.003467517703839484</v>
+        <v>0.00404501958357649</v>
       </c>
       <c r="G120" t="n">
-        <v>2.3957587840856114</v>
+        <v>2.252426920274714</v>
       </c>
     </row>
     <row r="121">
@@ -3453,22 +3435,22 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>6.657513966324442</v>
+        <v>6.6473789942869095</v>
       </c>
       <c r="C121" t="n">
         <v>0.7137824085432355</v>
       </c>
       <c r="D121" t="n">
-        <v>5.436432832514019</v>
+        <v>5.356199264187723</v>
       </c>
       <c r="E121" t="n">
-        <v>3.2036455413142645E-5</v>
+        <v>3.8134309774709544E-5</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0036452146850920806</v>
+        <v>0.004339048880532367</v>
       </c>
       <c r="G121" t="n">
-        <v>2.3378083855122878</v>
+        <v>2.174511374001743</v>
       </c>
     </row>
     <row r="122">
@@ -3476,22 +3458,22 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>6.240047458858815</v>
+        <v>6.211312809300821</v>
       </c>
       <c r="C122" t="n">
         <v>0.5235801469475518</v>
       </c>
       <c r="D122" t="n">
-        <v>5.429725125870627</v>
+        <v>5.346753372121024</v>
       </c>
       <c r="E122" t="n">
-        <v>3.25056864876562E-5</v>
+        <v>3.8926498208445005E-5</v>
       </c>
       <c r="F122" t="n">
-        <v>0.003668038374400477</v>
+        <v>0.00439258187221577</v>
       </c>
       <c r="G122" t="n">
-        <v>2.3233668283045947</v>
+        <v>2.154114885564156</v>
       </c>
     </row>
     <row r="123">
@@ -3499,22 +3481,22 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>-9.22633230248055</v>
+        <v>-9.219900997038689</v>
       </c>
       <c r="C123" t="n">
         <v>3.741539088506998</v>
       </c>
       <c r="D123" t="n">
-        <v>-5.399421903086957</v>
+        <v>-5.317412409238307</v>
       </c>
       <c r="E123" t="n">
-        <v>3.471481884438728E-5</v>
+        <v>4.1496236801295685E-5</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0038852142336169176</v>
+        <v>0.004644177190859765</v>
       </c>
       <c r="G123" t="n">
-        <v>2.2580669029867533</v>
+        <v>2.0907027474942206</v>
       </c>
     </row>
     <row r="124">
@@ -3522,22 +3504,22 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>6.804205583212609</v>
+        <v>6.8139990687946925</v>
       </c>
       <c r="C124" t="n">
         <v>0.9472586821792676</v>
       </c>
       <c r="D124" t="n">
-        <v>5.395307018873799</v>
+        <v>5.310102693616686</v>
       </c>
       <c r="E124" t="n">
-        <v>3.502642909544901E-5</v>
+        <v>4.216301234006197E-5</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0038882183973110635</v>
+        <v>0.004680437158465091</v>
       </c>
       <c r="G124" t="n">
-        <v>2.2491925693613837</v>
+        <v>2.074891743305039</v>
       </c>
     </row>
     <row r="125">
@@ -3545,22 +3527,22 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>6.726869563216956</v>
+        <v>6.694301508469709</v>
       </c>
       <c r="C125" t="n">
         <v>0.5635727404830307</v>
       </c>
       <c r="D125" t="n">
-        <v>5.26629722339835</v>
+        <v>5.202073905005662</v>
       </c>
       <c r="E125" t="n">
-        <v>4.639542044184954E-5</v>
+        <v>5.339838856123565E-5</v>
       </c>
       <c r="F125" t="n">
-        <v>0.005108734441233981</v>
+        <v>0.005879851592057351</v>
       </c>
       <c r="G125" t="n">
-        <v>1.970112020169962</v>
+        <v>1.8406304258750383</v>
       </c>
     </row>
     <row r="126">
@@ -3568,22 +3550,22 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>10.360861243217657</v>
+        <v>10.367486906961132</v>
       </c>
       <c r="C126" t="n">
         <v>1.0997484610410775</v>
       </c>
       <c r="D126" t="n">
-        <v>5.2549454657323205</v>
+        <v>5.194209245095386</v>
       </c>
       <c r="E126" t="n">
-        <v>4.756130881853462E-5</v>
+        <v>5.4327255428146716E-5</v>
       </c>
       <c r="F126" t="n">
-        <v>0.005195216884866174</v>
+        <v>0.005934274764927322</v>
       </c>
       <c r="G126" t="n">
-        <v>1.945478350242885</v>
+        <v>1.823533518532206</v>
       </c>
     </row>
     <row r="127">
@@ -3591,22 +3573,22 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>7.85727062855917</v>
+        <v>7.857270628559169</v>
       </c>
       <c r="C127" t="n">
         <v>0.6068305235461864</v>
       </c>
       <c r="D127" t="n">
-        <v>5.24058625259322</v>
+        <v>5.189503955291348</v>
       </c>
       <c r="E127" t="n">
-        <v>4.907908425611159E-5</v>
+        <v>5.489085233443481E-5</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00531845886057895</v>
+        <v>0.005948251569637881</v>
       </c>
       <c r="G127" t="n">
-        <v>1.914301119151835</v>
+        <v>1.8133020604623757</v>
       </c>
     </row>
     <row r="128">
@@ -3614,22 +3596,22 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>-5.604726113574864</v>
+        <v>-5.576942955988701</v>
       </c>
       <c r="C128" t="n">
         <v>9.728261497100076</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.2341799008360335</v>
+        <v>-5.149354403602243</v>
       </c>
       <c r="E128" t="n">
-        <v>4.977211575602496E-5</v>
+        <v>5.9949471338704664E-5</v>
       </c>
       <c r="F128" t="n">
-        <v>0.005351090303407597</v>
+        <v>0.006445276233532862</v>
       </c>
       <c r="G128" t="n">
-        <v>1.9003852344258085</v>
+        <v>1.7259180779124934</v>
       </c>
     </row>
     <row r="129">
@@ -3637,22 +3619,22 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>-9.811568165654512</v>
+        <v>-9.764252810397823</v>
       </c>
       <c r="C129" t="n">
         <v>3.9074243163939237</v>
       </c>
       <c r="D129" t="n">
-        <v>-5.198097973992999</v>
+        <v>-5.144338032533707</v>
       </c>
       <c r="E129" t="n">
-        <v>5.3866469476824396E-5</v>
+        <v>6.061410920915681E-5</v>
       </c>
       <c r="F129" t="n">
-        <v>0.005746037298723128</v>
+        <v>0.006465820680795525</v>
       </c>
       <c r="G129" t="n">
-        <v>1.8219376030366128</v>
+        <v>1.7149901350387156</v>
       </c>
     </row>
     <row r="130">
@@ -3660,22 +3642,22 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>3.0338937711784766</v>
+        <v>3.0173667768792587</v>
       </c>
       <c r="C130" t="n">
         <v>0.2353277584536439</v>
       </c>
       <c r="D130" t="n">
-        <v>5.135624496625011</v>
+        <v>5.070687925471176</v>
       </c>
       <c r="E130" t="n">
-        <v>6.178713387338011E-5</v>
+        <v>7.128522264937484E-5</v>
       </c>
       <c r="F130" t="n">
-        <v>0.006539856789977768</v>
+        <v>0.007545181628329955</v>
       </c>
       <c r="G130" t="n">
-        <v>1.685834506349849</v>
+        <v>1.5542983750865664</v>
       </c>
     </row>
     <row r="131">
@@ -3683,22 +3665,22 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>4.869097955582108</v>
+        <v>4.109161344455218</v>
       </c>
       <c r="C131" t="n">
-        <v>0.43527075023579365</v>
+        <v>0.2789177685822866</v>
       </c>
       <c r="D131" t="n">
-        <v>5.064445201318772</v>
+        <v>4.99403644737954</v>
       </c>
       <c r="E131" t="n">
-        <v>7.227423717036659E-5</v>
+        <v>8.443716732486145E-5</v>
       </c>
       <c r="F131" t="n">
-        <v>0.007581282568980417</v>
+        <v>0.008868500635797371</v>
       </c>
       <c r="G131" t="n">
-        <v>1.5303556656729587</v>
+        <v>1.3865847619044471</v>
       </c>
     </row>
     <row r="132">
@@ -3706,22 +3688,22 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>2.768093846645436</v>
+        <v>4.853144442111954</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21815428900479916</v>
+        <v>0.43527075023579365</v>
       </c>
       <c r="D132" t="n">
-        <v>5.061553419190099</v>
+        <v>4.979799640308044</v>
       </c>
       <c r="E132" t="n">
-        <v>7.273678164174855E-5</v>
+        <v>8.713997483283837E-5</v>
       </c>
       <c r="F132" t="n">
-        <v>0.007581282568980417</v>
+        <v>0.009071840885150565</v>
       </c>
       <c r="G132" t="n">
-        <v>1.5240301733634851</v>
+        <v>1.3553839240501455</v>
       </c>
     </row>
     <row r="133">
@@ -3729,22 +3711,22 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>4.109161344455217</v>
+        <v>2.7758279280988494</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2789177685822866</v>
+        <v>0.21815428900479916</v>
       </c>
       <c r="D133" t="n">
-        <v>5.037841135008334</v>
+        <v>4.97689579307307</v>
       </c>
       <c r="E133" t="n">
-        <v>7.664526741581544E-5</v>
+        <v>8.770199185878677E-5</v>
       </c>
       <c r="F133" t="n">
-        <v>0.007928140009814727</v>
+        <v>0.009071840885150565</v>
       </c>
       <c r="G133" t="n">
-        <v>1.4721363662955653</v>
+        <v>1.349018071864374</v>
       </c>
     </row>
     <row r="134">
@@ -3752,22 +3734,22 @@
         <v>138</v>
       </c>
       <c r="B134" t="n">
-        <v>7.528911573572405</v>
+        <v>7.507510704142949</v>
       </c>
       <c r="C134" t="n">
         <v>0.8032304387871494</v>
       </c>
       <c r="D134" t="n">
-        <v>5.001400286333256</v>
+        <v>4.904497171930374</v>
       </c>
       <c r="E134" t="n">
-        <v>8.307360025588792E-5</v>
+        <v>1.029735170734817E-4</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00852847321724732</v>
+        <v>0.010571431594897138</v>
       </c>
       <c r="G134" t="n">
-        <v>1.3922994342883683</v>
+        <v>1.190103701756981</v>
       </c>
     </row>
     <row r="135">
@@ -3775,22 +3757,22 @@
         <v>139</v>
       </c>
       <c r="B135" t="n">
-        <v>5.460905898379639</v>
+        <v>5.476574799646187</v>
       </c>
       <c r="C135" t="n">
         <v>0.43557392081796636</v>
       </c>
       <c r="D135" t="n">
-        <v>4.973128501065295</v>
+        <v>4.889933467912263</v>
       </c>
       <c r="E135" t="n">
-        <v>8.843743532008023E-5</v>
+        <v>1.0635885018855014E-4</v>
       </c>
       <c r="F135" t="n">
-        <v>0.009011378670599817</v>
+        <v>0.010837490600555699</v>
       </c>
       <c r="G135" t="n">
-        <v>1.3302891825705139</v>
+        <v>1.1580912205903653</v>
       </c>
     </row>
     <row r="136">
@@ -3798,22 +3780,22 @@
         <v>140</v>
       </c>
       <c r="B136" t="n">
-        <v>6.896447734376311</v>
+        <v>4.552655532516015</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6388567277924037</v>
+        <v>0.4903673677487166</v>
       </c>
       <c r="D136" t="n">
-        <v>4.956427756181875</v>
+        <v>4.885599114700617</v>
       </c>
       <c r="E136" t="n">
-        <v>9.177039558558413E-5</v>
+        <v>1.0738807384000043E-4</v>
       </c>
       <c r="F136" t="n">
-        <v>0.009280905664901199</v>
+        <v>0.010861309334899007</v>
       </c>
       <c r="G136" t="n">
-        <v>1.293630165009228</v>
+        <v>1.1485610474439794</v>
       </c>
     </row>
     <row r="137">
@@ -3821,22 +3803,22 @@
         <v>141</v>
       </c>
       <c r="B137" t="n">
-        <v>4.560395391403609</v>
+        <v>6.921695421616207</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4903673677487166</v>
+        <v>0.6388567277924037</v>
       </c>
       <c r="D137" t="n">
-        <v>4.953137300238142</v>
+        <v>4.878439000505606</v>
       </c>
       <c r="E137" t="n">
-        <v>9.244200750157925E-5</v>
+        <v>1.0911053827518228E-4</v>
       </c>
       <c r="F137" t="n">
-        <v>0.009280905664901199</v>
+        <v>0.010954377129480433</v>
       </c>
       <c r="G137" t="n">
-        <v>1.2864050063887849</v>
+        <v>1.1328149078909835</v>
       </c>
     </row>
     <row r="138">
@@ -3844,22 +3826,22 @@
         <v>142</v>
       </c>
       <c r="B138" t="n">
-        <v>-8.436337913350627</v>
+        <v>0.82159247282114</v>
       </c>
       <c r="C138" t="n">
-        <v>7.105080871358947</v>
+        <v>0.0535887351009512</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.930100793794461</v>
+        <v>4.865495165949305</v>
       </c>
       <c r="E138" t="n">
-        <v>9.72862756662405E-5</v>
+        <v>1.1229600941634041E-4</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00964487907779696</v>
+        <v>0.011191895712194977</v>
       </c>
       <c r="G138" t="n">
-        <v>1.2357995071718264</v>
+        <v>1.104340704242536</v>
       </c>
     </row>
     <row r="139">
@@ -3867,22 +3849,22 @@
         <v>143</v>
       </c>
       <c r="B139" t="n">
-        <v>8.029189609396811</v>
+        <v>-8.387960034853398</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9829891456814458</v>
+        <v>7.105080871358947</v>
       </c>
       <c r="D139" t="n">
-        <v>4.929203533091737</v>
+        <v>-4.857889420904188</v>
       </c>
       <c r="E139" t="n">
-        <v>9.748010200204924E-5</v>
+        <v>1.1421173383847491E-4</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00964487907779696</v>
+        <v>0.011300340679931424</v>
       </c>
       <c r="G139" t="n">
-        <v>1.2338276722009773</v>
+        <v>1.0876041402046068</v>
       </c>
     </row>
     <row r="140">
@@ -3890,22 +3872,22 @@
         <v>144</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8215924728211397</v>
+        <v>8.034497663113132</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0535887351009512</v>
+        <v>0.9829891456814458</v>
       </c>
       <c r="D140" t="n">
-        <v>4.916068045658774</v>
+        <v>4.839380886970318</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0036304965513988E-4</v>
+        <v>1.1901367533313827E-4</v>
       </c>
       <c r="F140" t="n">
-        <v>0.009858684028714244</v>
+        <v>0.011646386026394385</v>
       </c>
       <c r="G140" t="n">
-        <v>1.2049543397434803</v>
+        <v>1.0468598772040858</v>
       </c>
     </row>
     <row r="141">
@@ -3913,22 +3895,22 @@
         <v>145</v>
       </c>
       <c r="B141" t="n">
-        <v>7.832218856399223</v>
+        <v>7.832218856399225</v>
       </c>
       <c r="C141" t="n">
         <v>0.5385860376453209</v>
       </c>
       <c r="D141" t="n">
-        <v>4.8800475924346305</v>
+        <v>4.837868107999547</v>
       </c>
       <c r="E141" t="n">
-        <v>1.0872208953914097E-4</v>
+        <v>1.1941511964956892E-4</v>
       </c>
       <c r="F141" t="n">
-        <v>0.010603510075481649</v>
+        <v>0.011646386026394385</v>
       </c>
       <c r="G141" t="n">
-        <v>1.1257152526263345</v>
+        <v>1.0435286930148049</v>
       </c>
     </row>
     <row r="142">
@@ -3936,22 +3918,22 @@
         <v>146</v>
       </c>
       <c r="B142" t="n">
-        <v>-8.89319204038911</v>
+        <v>8.202981375590799</v>
       </c>
       <c r="C142" t="n">
-        <v>9.371664511254277</v>
+        <v>0.9957093974867556</v>
       </c>
       <c r="D142" t="n">
-        <v>-4.874515886568851</v>
+        <v>4.810305357054639</v>
       </c>
       <c r="E142" t="n">
-        <v>1.1006714906218604E-4</v>
+        <v>1.2697530970547704E-4</v>
       </c>
       <c r="F142" t="n">
-        <v>0.010658559243227577</v>
+        <v>0.012295892756869388</v>
       </c>
       <c r="G142" t="n">
-        <v>1.1135385335472012</v>
+        <v>0.9828091063863349</v>
       </c>
     </row>
     <row r="143">
@@ -3959,22 +3941,22 @@
         <v>147</v>
       </c>
       <c r="B143" t="n">
-        <v>5.703661681847284</v>
+        <v>5.7177468628475605</v>
       </c>
       <c r="C143" t="n">
         <v>0.46343930275972445</v>
       </c>
       <c r="D143" t="n">
-        <v>4.867924015749421</v>
+        <v>4.790153989145969</v>
       </c>
       <c r="E143" t="n">
-        <v>1.1169211579237498E-4</v>
+        <v>1.328089708293783E-4</v>
       </c>
       <c r="F143" t="n">
-        <v>0.010668766454755988</v>
+        <v>0.012770237237354445</v>
       </c>
       <c r="G143" t="n">
-        <v>1.099025430322329</v>
+        <v>0.9383864486196583</v>
       </c>
     </row>
     <row r="144">
@@ -3982,22 +3964,22 @@
         <v>148</v>
       </c>
       <c r="B144" t="n">
-        <v>8.199511254215281</v>
+        <v>-8.872218785393603</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9957093974867556</v>
+        <v>9.371664511254277</v>
       </c>
       <c r="D144" t="n">
-        <v>4.8677502211567125</v>
+        <v>-4.773907289863721</v>
       </c>
       <c r="E144" t="n">
-        <v>1.1173528658489134E-4</v>
+        <v>1.3771005933439187E-4</v>
       </c>
       <c r="F144" t="n">
-        <v>0.010668766454755988</v>
+        <v>0.013148903147914592</v>
       </c>
       <c r="G144" t="n">
-        <v>1.0986427532082006</v>
+        <v>0.9025534976911302</v>
       </c>
     </row>
     <row r="145">
@@ -4005,22 +3987,22 @@
         <v>149</v>
       </c>
       <c r="B145" t="n">
-        <v>6.593605411051813</v>
+        <v>6.591131227624727</v>
       </c>
       <c r="C145" t="n">
         <v>0.911914093196037</v>
       </c>
       <c r="D145" t="n">
-        <v>4.827532252637151</v>
+        <v>4.737581618718373</v>
       </c>
       <c r="E145" t="n">
-        <v>1.2219605995780687E-4</v>
+        <v>1.493436085758564E-4</v>
       </c>
       <c r="F145" t="n">
-        <v>0.011586562518499271</v>
+        <v>0.014160677996491273</v>
       </c>
       <c r="G145" t="n">
-        <v>1.0100337946630527</v>
+        <v>0.8223794142074254</v>
       </c>
     </row>
     <row r="146">
@@ -4028,22 +4010,22 @@
         <v>150</v>
       </c>
       <c r="B146" t="n">
-        <v>7.844846589040834</v>
+        <v>7.8157243625320545</v>
       </c>
       <c r="C146" t="n">
         <v>0.7602396476313844</v>
       </c>
       <c r="D146" t="n">
-        <v>4.763540747366022</v>
+        <v>4.705723441192733</v>
       </c>
       <c r="E146" t="n">
-        <v>1.4093409138085268E-4</v>
+        <v>1.6036575291696972E-4</v>
       </c>
       <c r="F146" t="n">
-        <v>0.013271131611821809</v>
+        <v>0.015100924071229687</v>
       </c>
       <c r="G146" t="n">
-        <v>0.8688374872422449</v>
+        <v>0.7520046304898482</v>
       </c>
     </row>
     <row r="147">
@@ -4051,22 +4033,22 @@
         <v>151</v>
       </c>
       <c r="B147" t="n">
-        <v>3.4268676582043303</v>
+        <v>3.443192980390762</v>
       </c>
       <c r="C147" t="n">
         <v>0.48483999101127656</v>
       </c>
       <c r="D147" t="n">
-        <v>4.708109907511651</v>
+        <v>4.650266017896603</v>
       </c>
       <c r="E147" t="n">
-        <v>1.5951349823738696E-4</v>
+        <v>1.8156035883514984E-4</v>
       </c>
       <c r="F147" t="n">
-        <v>0.014917789759816997</v>
+        <v>0.01697962424339134</v>
       </c>
       <c r="G147" t="n">
-        <v>0.7463378250051278</v>
+        <v>0.6293724894196853</v>
       </c>
     </row>
     <row r="148">
@@ -4074,22 +4056,22 @@
         <v>152</v>
       </c>
       <c r="B148" t="n">
-        <v>-6.780012128829485</v>
+        <v>6.636065463412876</v>
       </c>
       <c r="C148" t="n">
-        <v>7.1326320245999835</v>
+        <v>0.5420476536480759</v>
       </c>
       <c r="D148" t="n">
-        <v>-4.700210511512467</v>
+        <v>4.620237533482856</v>
       </c>
       <c r="E148" t="n">
-        <v>1.6235657036775555E-4</v>
+        <v>1.942004676015818E-4</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01508038511429479</v>
+        <v>0.018038184929469375</v>
       </c>
       <c r="G148" t="n">
-        <v>0.7288669255263462</v>
+        <v>0.5629085895470665</v>
       </c>
     </row>
     <row r="149">
@@ -4097,22 +4079,22 @@
         <v>153</v>
       </c>
       <c r="B149" t="n">
-        <v>6.676300328538645</v>
+        <v>-6.780814428252555</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5420476536480759</v>
+        <v>7.1326320245999835</v>
       </c>
       <c r="D149" t="n">
-        <v>4.681485959555326</v>
+        <v>-4.599671570195291</v>
       </c>
       <c r="E149" t="n">
-        <v>1.6930285614212185E-4</v>
+        <v>2.033686699295594E-4</v>
       </c>
       <c r="F149" t="n">
-        <v>0.015619332417327917</v>
+        <v>0.018762133913636514</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6874413776461266</v>
+        <v>0.5173651628776899</v>
       </c>
     </row>
     <row r="150">
@@ -4120,22 +4102,22 @@
         <v>154</v>
       </c>
       <c r="B150" t="n">
-        <v>5.376636867555576</v>
+        <v>6.823346448624087</v>
       </c>
       <c r="C150" t="n">
-        <v>0.44576806228044563</v>
+        <v>0.5588056308436606</v>
       </c>
       <c r="D150" t="n">
-        <v>4.663161327495895</v>
+        <v>4.595017838259882</v>
       </c>
       <c r="E150" t="n">
-        <v>1.763927179250738E-4</v>
+        <v>2.055034109767931E-4</v>
       </c>
       <c r="F150" t="n">
-        <v>0.016164202486905758</v>
+        <v>0.01883183606360492</v>
       </c>
       <c r="G150" t="n">
-        <v>0.6468834814228748</v>
+        <v>0.5070569053787155</v>
       </c>
     </row>
     <row r="151">
@@ -4143,22 +4125,22 @@
         <v>155</v>
       </c>
       <c r="B151" t="n">
-        <v>6.864948591562016</v>
+        <v>5.390496325701973</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5588056308436606</v>
+        <v>0.44576806228044563</v>
       </c>
       <c r="D151" t="n">
-        <v>4.656080569244499</v>
+        <v>4.589160470557621</v>
       </c>
       <c r="E151" t="n">
-        <v>1.7921228083220522E-4</v>
+        <v>2.0822257610937596E-4</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0163130965498862</v>
+        <v>0.018953807027982796</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6312072330228258</v>
+        <v>0.49408122883304184</v>
       </c>
     </row>
     <row r="152">
@@ -4166,22 +4148,22 @@
         <v>156</v>
       </c>
       <c r="B152" t="n">
-        <v>-10.850536390686075</v>
+        <v>-6.906294173761505</v>
       </c>
       <c r="C152" t="n">
-        <v>10.645395828138671</v>
+        <v>3.9356946770684895</v>
       </c>
       <c r="D152" t="n">
-        <v>-4.648719200383239</v>
+        <v>-4.578890124372806</v>
       </c>
       <c r="E152" t="n">
-        <v>1.8219205222550153E-4</v>
+        <v>2.130786566301201E-4</v>
       </c>
       <c r="F152" t="n">
-        <v>0.016474505172761576</v>
+        <v>0.019202752237597685</v>
       </c>
       <c r="G152" t="n">
-        <v>0.6149071830685884</v>
+        <v>0.4713261451070858</v>
       </c>
     </row>
     <row r="153">
@@ -4189,22 +4171,22 @@
         <v>157</v>
       </c>
       <c r="B153" t="n">
-        <v>-6.895231977872695</v>
+        <v>-10.46751605017887</v>
       </c>
       <c r="C153" t="n">
-        <v>3.9356946770684895</v>
+        <v>5.056511768900916</v>
       </c>
       <c r="D153" t="n">
-        <v>-4.643519789393499</v>
+        <v>-4.577446856068824</v>
       </c>
       <c r="E153" t="n">
-        <v>1.8432691921223601E-4</v>
+        <v>2.1377020214697877E-4</v>
       </c>
       <c r="F153" t="n">
-        <v>0.016557893124499148</v>
+        <v>0.019202752237597685</v>
       </c>
       <c r="G153" t="n">
-        <v>0.6033927422642051</v>
+        <v>0.46812807809779056</v>
       </c>
     </row>
     <row r="154">
@@ -4212,22 +4194,22 @@
         <v>158</v>
       </c>
       <c r="B154" t="n">
-        <v>6.6736757682100825</v>
+        <v>-10.814078607241452</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5916230571195483</v>
+        <v>10.645395828138671</v>
       </c>
       <c r="D154" t="n">
-        <v>4.628225938144474</v>
+        <v>-4.5690947284841</v>
       </c>
       <c r="E154" t="n">
-        <v>1.9075470440332667E-4</v>
+        <v>2.1781701544802017E-4</v>
       </c>
       <c r="F154" t="n">
-        <v>0.017006528460372747</v>
+        <v>0.019438389077955996</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5695162102189668</v>
+        <v>0.4496193590560962</v>
       </c>
     </row>
     <row r="155">
@@ -4235,22 +4217,22 @@
         <v>159</v>
       </c>
       <c r="B155" t="n">
-        <v>2.9030320996912478</v>
+        <v>6.694076874985874</v>
       </c>
       <c r="C155" t="n">
-        <v>0.23877622157955106</v>
+        <v>0.5916230571195483</v>
       </c>
       <c r="D155" t="n">
-        <v>4.625759659019393</v>
+        <v>4.551225160406946</v>
       </c>
       <c r="E155" t="n">
-        <v>1.9181231748186634E-4</v>
+        <v>2.2673775065185333E-4</v>
       </c>
       <c r="F155" t="n">
-        <v>0.017006528460372747</v>
+        <v>0.020050485927040163</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5640522953165394</v>
+        <v>0.41001029160599867</v>
       </c>
     </row>
     <row r="156">
@@ -4258,22 +4240,22 @@
         <v>160</v>
       </c>
       <c r="B156" t="n">
-        <v>3.9113963670352523</v>
+        <v>2.9119329908992766</v>
       </c>
       <c r="C156" t="n">
-        <v>0.36430081298418776</v>
+        <v>0.23877622157955106</v>
       </c>
       <c r="D156" t="n">
-        <v>4.590822047645987</v>
+        <v>4.549510768497535</v>
       </c>
       <c r="E156" t="n">
-        <v>2.074491196519204E-4</v>
+        <v>2.2761281080205253E-4</v>
       </c>
       <c r="F156" t="n">
-        <v>0.018178043044848942</v>
+        <v>0.020050485927040163</v>
       </c>
       <c r="G156" t="n">
-        <v>0.48662105361306374</v>
+        <v>0.4062095836971302</v>
       </c>
     </row>
     <row r="157">
@@ -4281,22 +4263,22 @@
         <v>161</v>
       </c>
       <c r="B157" t="n">
-        <v>3.516950055237145</v>
+        <v>3.49542659738454</v>
       </c>
       <c r="C157" t="n">
         <v>0.2875960801789221</v>
       </c>
       <c r="D157" t="n">
-        <v>4.590308818291399</v>
+        <v>4.529508634259919</v>
       </c>
       <c r="E157" t="n">
-        <v>2.076882023580222E-4</v>
+        <v>2.3807847512912338E-4</v>
       </c>
       <c r="F157" t="n">
-        <v>0.018178043044848942</v>
+        <v>0.020837971150083658</v>
       </c>
       <c r="G157" t="n">
-        <v>0.48548320891492125</v>
+        <v>0.36185794524840453</v>
       </c>
     </row>
     <row r="158">
@@ -4304,22 +4286,22 @@
         <v>162</v>
       </c>
       <c r="B158" t="n">
-        <v>-10.419063084950755</v>
+        <v>3.917555858300845</v>
       </c>
       <c r="C158" t="n">
-        <v>5.056511768900916</v>
+        <v>0.36430081298418776</v>
       </c>
       <c r="D158" t="n">
-        <v>-4.583462928504322</v>
+        <v>4.513053085373756</v>
       </c>
       <c r="E158" t="n">
-        <v>2.10904109892638E-4</v>
+        <v>2.470527445090513E-4</v>
       </c>
       <c r="F158" t="n">
-        <v>0.01834194086926165</v>
+        <v>0.021485720850487812</v>
       </c>
       <c r="G158" t="n">
-        <v>0.4703046266896287</v>
+        <v>0.32535957635485246</v>
       </c>
     </row>
     <row r="159">
@@ -4327,22 +4309,22 @@
         <v>163</v>
       </c>
       <c r="B159" t="n">
-        <v>6.428636669812589</v>
+        <v>6.445585774293485</v>
       </c>
       <c r="C159" t="n">
         <v>0.5387679682831962</v>
       </c>
       <c r="D159" t="n">
-        <v>4.563190399215385</v>
+        <v>4.491013640657952</v>
       </c>
       <c r="E159" t="n">
-        <v>2.2072618924369352E-4</v>
+        <v>2.596109007060482E-4</v>
       </c>
       <c r="F159" t="n">
-        <v>0.019074654354008805</v>
+        <v>0.022434982520508743</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4253456337709114</v>
+        <v>0.2764618328386037</v>
       </c>
     </row>
     <row r="160">
@@ -4350,22 +4332,22 @@
         <v>164</v>
       </c>
       <c r="B160" t="n">
-        <v>1.7769003270361956</v>
+        <v>2.7356036923101326</v>
       </c>
       <c r="C160" t="n">
-        <v>0.17391304347826086</v>
+        <v>0.3864472637254563</v>
       </c>
       <c r="D160" t="n">
-        <v>4.546017271155751</v>
+        <v>4.488149075236304</v>
       </c>
       <c r="E160" t="n">
-        <v>2.294082639500593E-4</v>
+        <v>2.612898769807225E-4</v>
       </c>
       <c r="F160" t="n">
-        <v>0.019700254314302577</v>
+        <v>0.022438062769149593</v>
       </c>
       <c r="G160" t="n">
-        <v>0.38724776366706504</v>
+        <v>0.27010522348727317</v>
       </c>
     </row>
     <row r="161">
@@ -4373,22 +4355,22 @@
         <v>165</v>
       </c>
       <c r="B161" t="n">
-        <v>1.0788174982772276</v>
+        <v>1.763888888888891</v>
       </c>
       <c r="C161" t="n">
-        <v>0.095584231849124</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="D161" t="n">
-        <v>4.511395482488475</v>
+        <v>4.475059721518538</v>
       </c>
       <c r="E161" t="n">
-        <v>2.4797731993008603E-4</v>
+        <v>2.691026129207917E-4</v>
       </c>
       <c r="F161" t="n">
-        <v>0.021094413637115145</v>
+        <v>0.022964544230128066</v>
       </c>
       <c r="G161" t="n">
-        <v>0.31040810265432395</v>
+        <v>0.241056089000792</v>
       </c>
     </row>
     <row r="162">
@@ -4396,22 +4378,22 @@
         <v>166</v>
       </c>
       <c r="B162" t="n">
-        <v>4.102087727341136</v>
+        <v>4.076064851046525</v>
       </c>
       <c r="C162" t="n">
         <v>0.5752097269794516</v>
       </c>
       <c r="D162" t="n">
-        <v>4.510042639191394</v>
+        <v>4.449467810551675</v>
       </c>
       <c r="E162" t="n">
-        <v>2.4873301564197584E-4</v>
+        <v>2.8506691399216906E-4</v>
       </c>
       <c r="F162" t="n">
-        <v>0.021094413637115145</v>
+        <v>0.024097416757604073</v>
       </c>
       <c r="G162" t="n">
-        <v>0.30740475846560056</v>
+        <v>0.18424555529054398</v>
       </c>
     </row>
     <row r="163">
@@ -4419,22 +4401,22 @@
         <v>167</v>
       </c>
       <c r="B163" t="n">
-        <v>6.791504021724304</v>
+        <v>6.791504021724303</v>
       </c>
       <c r="C163" t="n">
         <v>0.4820347689401501</v>
       </c>
       <c r="D163" t="n">
-        <v>4.48695261974824</v>
+        <v>4.448160676108262</v>
       </c>
       <c r="E163" t="n">
-        <v>2.6199627933969934E-4</v>
+        <v>2.859075373320536E-4</v>
       </c>
       <c r="F163" t="n">
-        <v>0.02208208146977935</v>
+        <v>0.024097416757604073</v>
       </c>
       <c r="G163" t="n">
-        <v>0.2561352019535068</v>
+        <v>0.1813434054091747</v>
       </c>
     </row>
     <row r="164">
@@ -4442,22 +4424,22 @@
         <v>168</v>
       </c>
       <c r="B164" t="n">
-        <v>2.7155113007110043</v>
+        <v>1.078817498277227</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3864472637254563</v>
+        <v>0.095584231849124</v>
       </c>
       <c r="D164" t="n">
-        <v>4.461303951986559</v>
+        <v>4.4088678743264005</v>
       </c>
       <c r="E164" t="n">
-        <v>2.775698119768363E-4</v>
+        <v>3.1238087334476637E-4</v>
       </c>
       <c r="F164" t="n">
-        <v>0.023251154679335726</v>
+        <v>0.026167168372082456</v>
       </c>
       <c r="G164" t="n">
-        <v>0.19916519367806806</v>
+        <v>0.09408372784408403</v>
       </c>
     </row>
     <row r="165">
@@ -4465,22 +4447,22 @@
         <v>169</v>
       </c>
       <c r="B165" t="n">
-        <v>3.0787255415023433</v>
+        <v>3.0822796432593145</v>
       </c>
       <c r="C165" t="n">
         <v>0.41282997050726544</v>
       </c>
       <c r="D165" t="n">
-        <v>4.456555954599871</v>
+        <v>4.384764918760597</v>
       </c>
       <c r="E165" t="n">
-        <v>2.805537929974331E-4</v>
+        <v>3.298317696807123E-4</v>
       </c>
       <c r="F165" t="n">
-        <v>0.02335781396089604</v>
+        <v>0.027343916858203386</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1886170185862266</v>
+        <v>0.04053940202194983</v>
       </c>
     </row>
     <row r="166">
@@ -4488,22 +4470,22 @@
         <v>170</v>
       </c>
       <c r="B166" t="n">
-        <v>6.042161730413425</v>
+        <v>6.051537956058643</v>
       </c>
       <c r="C166" t="n">
         <v>0.8374158555080315</v>
       </c>
       <c r="D166" t="n">
-        <v>4.43617047514749</v>
+        <v>4.383956240038489</v>
       </c>
       <c r="E166" t="n">
-        <v>2.93738377318573E-4</v>
+        <v>3.304340326353859E-4</v>
       </c>
       <c r="F166" t="n">
-        <v>0.02430729578125937</v>
+        <v>0.027343916858203386</v>
       </c>
       <c r="G166" t="n">
-        <v>0.14332165097501992</v>
+        <v>0.038742728389014935</v>
       </c>
     </row>
     <row r="167">
@@ -4511,22 +4493,22 @@
         <v>171</v>
       </c>
       <c r="B167" t="n">
-        <v>7.916127211397328</v>
+        <v>6.85704301067195</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8189243877664125</v>
+        <v>0.6700156110720472</v>
       </c>
       <c r="D167" t="n">
-        <v>4.4275754181757385</v>
+        <v>4.370034602191304</v>
       </c>
       <c r="E167" t="n">
-        <v>2.9948334855451795E-4</v>
+        <v>3.4097795157777763E-4</v>
       </c>
       <c r="F167" t="n">
-        <v>0.02463340747688788</v>
+        <v>0.028046463559295035</v>
       </c>
       <c r="G167" t="n">
-        <v>0.12422073674258893</v>
+        <v>0.007810520602093085</v>
       </c>
     </row>
     <row r="168">
@@ -4534,22 +4516,22 @@
         <v>172</v>
       </c>
       <c r="B168" t="n">
-        <v>6.861678839218959</v>
+        <v>7.873966490130345</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6700156110720472</v>
+        <v>0.8189243877664125</v>
       </c>
       <c r="D168" t="n">
-        <v>4.4155781120398325</v>
+        <v>4.366915248286464</v>
       </c>
       <c r="E168" t="n">
-        <v>3.0769271037949886E-4</v>
+        <v>3.433866655850965E-4</v>
       </c>
       <c r="F168" t="n">
-        <v>0.025157103398333398</v>
+        <v>0.02807545827484376</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09755598297912993</v>
+        <v>8.792032758586643E-4</v>
       </c>
     </row>
     <row r="169">
@@ -4557,22 +4539,22 @@
         <v>173</v>
       </c>
       <c r="B169" t="n">
-        <v>10.055795966899423</v>
+        <v>10.085862544214857</v>
       </c>
       <c r="C169" t="n">
         <v>1.693855417415141</v>
       </c>
       <c r="D169" t="n">
-        <v>4.408790907188214</v>
+        <v>4.360330906871359</v>
       </c>
       <c r="E169" t="n">
-        <v>3.124372505615779E-4</v>
+        <v>3.485275080190244E-4</v>
       </c>
       <c r="F169" t="n">
-        <v>0.025253684817235316</v>
+        <v>0.028326158300546186</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08246953228672993</v>
+        <v>-0.01375199808112626</v>
       </c>
     </row>
     <row r="170">
@@ -4580,22 +4562,22 @@
         <v>174</v>
       </c>
       <c r="B170" t="n">
-        <v>5.562292832200815</v>
+        <v>5.583221045698098</v>
       </c>
       <c r="C170" t="n">
         <v>0.5934459207616224</v>
       </c>
       <c r="D170" t="n">
-        <v>4.408598145499643</v>
+        <v>4.345204100231706</v>
       </c>
       <c r="E170" t="n">
-        <v>3.1257307266096147E-4</v>
+        <v>3.6063411225996557E-4</v>
       </c>
       <c r="F170" t="n">
-        <v>0.025253684817235316</v>
+        <v>0.029136675555015208</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08204105080087043</v>
+        <v>-0.047368286781537705</v>
       </c>
     </row>
     <row r="171">
@@ -4603,22 +4585,22 @@
         <v>175</v>
       </c>
       <c r="B171" t="n">
-        <v>3.8931730039713206</v>
+        <v>3.8184424067681904</v>
       </c>
       <c r="C171" t="n">
-        <v>0.35544340173724104</v>
+        <v>0.27327835734183686</v>
       </c>
       <c r="D171" t="n">
-        <v>4.385084049445193</v>
+        <v>4.34075804242783</v>
       </c>
       <c r="E171" t="n">
-        <v>3.2959665416518305E-4</v>
+        <v>3.642725010914027E-4</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02642587770338395</v>
+        <v>0.02925751017589419</v>
       </c>
       <c r="G171" t="n">
-        <v>0.02976670472990417</v>
+        <v>-0.05724942686315604</v>
       </c>
     </row>
     <row r="172">
@@ -4626,22 +4608,22 @@
         <v>176</v>
       </c>
       <c r="B172" t="n">
-        <v>6.806172589822629</v>
+        <v>3.9051809993737145</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9653849543554726</v>
+        <v>0.35544340173724104</v>
       </c>
       <c r="D172" t="n">
-        <v>4.380287393361259</v>
+        <v>4.317352338045159</v>
       </c>
       <c r="E172" t="n">
-        <v>3.331826462398248E-4</v>
+        <v>3.840457393372647E-4</v>
       </c>
       <c r="F172" t="n">
-        <v>0.02642587770338395</v>
+        <v>0.030665266227549778</v>
       </c>
       <c r="G172" t="n">
-        <v>0.01910186456837515</v>
+        <v>-0.10927188574060143</v>
       </c>
     </row>
     <row r="173">
@@ -4649,22 +4631,22 @@
         <v>177</v>
       </c>
       <c r="B173" t="n">
-        <v>3.818442406768189</v>
+        <v>6.806682130480114</v>
       </c>
       <c r="C173" t="n">
-        <v>0.27327835734183686</v>
+        <v>0.9653849543554726</v>
       </c>
       <c r="D173" t="n">
-        <v>4.3787939139920935</v>
+        <v>4.300519869587397</v>
       </c>
       <c r="E173" t="n">
-        <v>3.3430719473003293E-4</v>
+        <v>3.989316925018105E-4</v>
       </c>
       <c r="F173" t="n">
-        <v>0.02642587770338395</v>
+        <v>0.0313778119910484</v>
       </c>
       <c r="G173" t="n">
-        <v>0.015781187776111594</v>
+        <v>-0.14668842465549403</v>
       </c>
     </row>
     <row r="174">
@@ -4672,22 +4654,22 @@
         <v>178</v>
       </c>
       <c r="B174" t="n">
-        <v>6.225346512379316</v>
+        <v>6.192211109206236</v>
       </c>
       <c r="C174" t="n">
         <v>0.6519284102982112</v>
       </c>
       <c r="D174" t="n">
-        <v>4.378110234654421</v>
+        <v>4.300464290729031</v>
       </c>
       <c r="E174" t="n">
-        <v>3.3482326370920046E-4</v>
+        <v>3.9898179540340907E-4</v>
       </c>
       <c r="F174" t="n">
-        <v>0.02642587770338395</v>
+        <v>0.0313778119910484</v>
       </c>
       <c r="G174" t="n">
-        <v>0.014261047049503262</v>
+        <v>-0.14681197452420225</v>
       </c>
     </row>
     <row r="175">
@@ -4695,22 +4677,22 @@
         <v>179</v>
       </c>
       <c r="B175" t="n">
-        <v>6.618056220892403</v>
+        <v>6.639691408497717</v>
       </c>
       <c r="C175" t="n">
         <v>0.5613322926291141</v>
       </c>
       <c r="D175" t="n">
-        <v>4.370947553862746</v>
+        <v>4.299487122452228</v>
       </c>
       <c r="E175" t="n">
-        <v>3.402785226418748E-4</v>
+        <v>3.9986372392283745E-4</v>
       </c>
       <c r="F175" t="n">
-        <v>0.02670208590892045</v>
+        <v>0.0313778119910484</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.0016654743814026318</v>
+        <v>-0.14898419039812616</v>
       </c>
     </row>
     <row r="176">
@@ -4718,22 +4700,22 @@
         <v>180</v>
       </c>
       <c r="B176" t="n">
-        <v>3.8913703241672497</v>
+        <v>6.201738119994122</v>
       </c>
       <c r="C176" t="n">
-        <v>0.49347170555493103</v>
+        <v>0.7520273684471958</v>
       </c>
       <c r="D176" t="n">
-        <v>4.321958553932609</v>
+        <v>4.2603887878303155</v>
       </c>
       <c r="E176" t="n">
-        <v>3.800731550601726E-4</v>
+        <v>4.3681096784433976E-4</v>
       </c>
       <c r="F176" t="n">
-        <v>0.02965439348109484</v>
+        <v>0.03408123974255209</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.11061660558087905</v>
+        <v>-0.23590474901195257</v>
       </c>
     </row>
     <row r="177">
@@ -4741,22 +4723,22 @@
         <v>181</v>
       </c>
       <c r="B177" t="n">
-        <v>6.173810221322498</v>
+        <v>9.43382318223064</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7520273684471958</v>
+        <v>1.1536108787149495</v>
       </c>
       <c r="D177" t="n">
-        <v>4.309724661125999</v>
+        <v>4.24489194975881</v>
       </c>
       <c r="E177" t="n">
-        <v>3.9072325438359545E-4</v>
+        <v>4.523900109761891E-4</v>
       </c>
       <c r="F177" t="n">
-        <v>0.03031213247360007</v>
+        <v>0.03501815929923174</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.1378296586773775</v>
+        <v>-0.2703585112423088</v>
       </c>
     </row>
     <row r="178">
@@ -4764,22 +4746,22 @@
         <v>182</v>
       </c>
       <c r="B178" t="n">
-        <v>2.745952467205703</v>
+        <v>7.257828389672128</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2674693018100757</v>
+        <v>0.9192176189014694</v>
       </c>
       <c r="D178" t="n">
-        <v>4.288413228824288</v>
+        <v>4.243371253008386</v>
       </c>
       <c r="E178" t="n">
-        <v>4.0999930526775305E-4</v>
+        <v>4.539486008469326E-4</v>
       </c>
       <c r="F178" t="n">
-        <v>0.03162488571118819</v>
+        <v>0.03501815929923174</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.18523833056339623</v>
+        <v>-0.2737394816162384</v>
       </c>
     </row>
     <row r="179">
@@ -4787,22 +4769,22 @@
         <v>183</v>
       </c>
       <c r="B179" t="n">
-        <v>2.837311524792632</v>
+        <v>7.7963548944508725</v>
       </c>
       <c r="C179" t="n">
-        <v>0.47041988789979916</v>
+        <v>0.953852159506954</v>
       </c>
       <c r="D179" t="n">
-        <v>4.285962050490891</v>
+        <v>4.231513381421691</v>
       </c>
       <c r="E179" t="n">
-        <v>4.1227696327753754E-4</v>
+        <v>4.662888334124001E-4</v>
       </c>
       <c r="F179" t="n">
-        <v>0.03162488571118819</v>
+        <v>0.035768020962993884</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.19069138307889055</v>
+        <v>-0.3001032784406066</v>
       </c>
     </row>
     <row r="180">
@@ -4810,22 +4792,22 @@
         <v>184</v>
       </c>
       <c r="B180" t="n">
-        <v>7.239140841711883</v>
+        <v>2.7459524672057025</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9192176189014694</v>
+        <v>0.2674693018100757</v>
       </c>
       <c r="D180" t="n">
-        <v>4.281731730042069</v>
+        <v>4.224998897203404</v>
       </c>
       <c r="E180" t="n">
-        <v>4.162378446067632E-4</v>
+        <v>4.732114531876063E-4</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03164384285045446</v>
+        <v>0.0360919570078</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.20010253529380773</v>
+        <v>-0.31458709777723204</v>
       </c>
     </row>
     <row r="181">
@@ -4833,22 +4815,22 @@
         <v>185</v>
       </c>
       <c r="B181" t="n">
-        <v>9.396909956594008</v>
+        <v>3.8760385329437796</v>
       </c>
       <c r="C181" t="n">
-        <v>1.1536108787149495</v>
+        <v>0.49347170555493103</v>
       </c>
       <c r="D181" t="n">
-        <v>4.28075351441679</v>
+        <v>4.22258899337494</v>
       </c>
       <c r="E181" t="n">
-        <v>4.1715919972768443E-4</v>
+        <v>4.757984664863043E-4</v>
       </c>
       <c r="F181" t="n">
-        <v>0.03164384285045446</v>
+        <v>0.0360919570078</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.20227877973648312</v>
+        <v>-0.31994510000695886</v>
       </c>
     </row>
     <row r="182">
@@ -4856,22 +4838,22 @@
         <v>186</v>
       </c>
       <c r="B182" t="n">
-        <v>7.770570141188989</v>
+        <v>2.846720770212977</v>
       </c>
       <c r="C182" t="n">
-        <v>0.953852159506954</v>
+        <v>0.47041988789979916</v>
       </c>
       <c r="D182" t="n">
-        <v>4.274267570307654</v>
+        <v>4.218100508802969</v>
       </c>
       <c r="E182" t="n">
-        <v>4.2332032890369056E-4</v>
+        <v>4.806548200614465E-4</v>
       </c>
       <c r="F182" t="n">
-        <v>0.03193378878923199</v>
+        <v>0.03625890007248061</v>
       </c>
       <c r="G182" t="n">
-        <v>-0.2167082707035357</v>
+        <v>-0.32992445822651373</v>
       </c>
     </row>
     <row r="183">
@@ -4879,22 +4861,22 @@
         <v>187</v>
       </c>
       <c r="B183" t="n">
-        <v>5.945629082050163</v>
+        <v>8.166723692848077</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5971290699756092</v>
+        <v>1.2152024149053886</v>
       </c>
       <c r="D183" t="n">
-        <v>4.257640363641122</v>
+        <v>4.200889445397946</v>
       </c>
       <c r="E183" t="n">
-        <v>4.3953682011833384E-4</v>
+        <v>4.99743283534739E-4</v>
       </c>
       <c r="F183" t="n">
-        <v>0.032940966590298354</v>
+        <v>0.03744632563234703</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.2537004116303896</v>
+        <v>-0.36818995878094096</v>
       </c>
     </row>
     <row r="184">
@@ -4902,22 +4884,22 @@
         <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>2.7351918057060653</v>
+        <v>5.929710290512043</v>
       </c>
       <c r="C184" t="n">
-        <v>0.31122698840259017</v>
+        <v>0.5971290699756092</v>
       </c>
       <c r="D184" t="n">
-        <v>4.255672755414919</v>
+        <v>4.199003663547858</v>
       </c>
       <c r="E184" t="n">
-        <v>4.4149676915369846E-4</v>
+        <v>5.018805910882897E-4</v>
       </c>
       <c r="F184" t="n">
-        <v>0.032940966590298354</v>
+        <v>0.03744632563234703</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.25807801922544105</v>
+        <v>-0.3723825876302369</v>
       </c>
     </row>
     <row r="185">
@@ -4925,22 +4907,22 @@
         <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>8.14207538837982</v>
+        <v>2.739864313009306</v>
       </c>
       <c r="C185" t="n">
-        <v>1.2152024149053886</v>
+        <v>0.31122698840259017</v>
       </c>
       <c r="D185" t="n">
-        <v>4.245724784910334</v>
+        <v>4.188184681443869</v>
       </c>
       <c r="E185" t="n">
-        <v>4.5154156159958684E-4</v>
+        <v>5.143215045290649E-4</v>
       </c>
       <c r="F185" t="n">
-        <v>0.033507328706960646</v>
+        <v>0.038166009906738324</v>
       </c>
       <c r="G185" t="n">
-        <v>-0.2802108225525535</v>
+        <v>-0.3964359939817639</v>
       </c>
     </row>
     <row r="186">
@@ -4948,22 +4930,22 @@
         <v>190</v>
       </c>
       <c r="B186" t="n">
-        <v>7.533966685954113</v>
+        <v>5.298664181761898</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7108262920881627</v>
+        <v>0.5790916337315211</v>
       </c>
       <c r="D186" t="n">
-        <v>4.203127915038306</v>
+        <v>4.166019226135638</v>
       </c>
       <c r="E186" t="n">
-        <v>4.972211937984887E-4</v>
+        <v>5.407869722635066E-4</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03669761178445711</v>
+        <v>0.03991300172586983</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.37498370712742535</v>
+        <v>-0.44571358112511916</v>
       </c>
     </row>
     <row r="187">
@@ -4971,22 +4953,22 @@
         <v>191</v>
       </c>
       <c r="B187" t="n">
-        <v>5.275802163371542</v>
+        <v>7.5515427049969315</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5790916337315211</v>
+        <v>0.7108262920881627</v>
       </c>
       <c r="D187" t="n">
-        <v>4.195955584237789</v>
+        <v>4.154703231471611</v>
       </c>
       <c r="E187" t="n">
-        <v>5.053577855345067E-4</v>
+        <v>5.548218038163063E-4</v>
       </c>
       <c r="F187" t="n">
-        <v>0.03705087795870691</v>
+        <v>0.04072869306079487</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.39094096931160127</v>
+        <v>-0.47086956740377506</v>
       </c>
     </row>
     <row r="188">
@@ -4994,22 +4976,22 @@
         <v>192</v>
       </c>
       <c r="B188" t="n">
-        <v>1.81777249066592</v>
+        <v>7.578259931713231</v>
       </c>
       <c r="C188" t="n">
-        <v>0.15598805202878865</v>
+        <v>0.7867169612236655</v>
       </c>
       <c r="D188" t="n">
-        <v>4.19414335959776</v>
+        <v>4.130700108013796</v>
       </c>
       <c r="E188" t="n">
-        <v>5.074347574540934E-4</v>
+        <v>5.858156042266341E-4</v>
       </c>
       <c r="F188" t="n">
-        <v>0.03705087795870691</v>
+        <v>0.04277393721984204</v>
       </c>
       <c r="G188" t="n">
-        <v>-0.39497284015177136</v>
+        <v>-0.5242253991569115</v>
       </c>
     </row>
     <row r="189">
@@ -5017,22 +4999,22 @@
         <v>193</v>
       </c>
       <c r="B189" t="n">
-        <v>7.5547487716521005</v>
+        <v>1.8238579467480038</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7867169612236655</v>
+        <v>0.15598805202878865</v>
       </c>
       <c r="D189" t="n">
-        <v>4.179616902390071</v>
+        <v>4.126525838282994</v>
       </c>
       <c r="E189" t="n">
-        <v>5.243966074253725E-4</v>
+        <v>5.913804790441532E-4</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03794181978540891</v>
+        <v>0.04295058011100461</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.4272909745570601</v>
+        <v>-0.5335035655359652</v>
       </c>
     </row>
     <row r="190">
@@ -5040,22 +5022,22 @@
         <v>194</v>
       </c>
       <c r="B190" t="n">
-        <v>1.7967970666535493</v>
+        <v>1.8018796874098555</v>
       </c>
       <c r="C190" t="n">
         <v>0.1558679348139633</v>
       </c>
       <c r="D190" t="n">
-        <v>4.178945366823536</v>
+        <v>4.114099063658423</v>
       </c>
       <c r="E190" t="n">
-        <v>5.251943708394818E-4</v>
+        <v>6.082633438800612E-4</v>
       </c>
       <c r="F190" t="n">
-        <v>0.03794181978540891</v>
+        <v>0.043943003689620924</v>
       </c>
       <c r="G190" t="n">
-        <v>-0.42878496225797047</v>
+        <v>-0.5611231974018258</v>
       </c>
     </row>
     <row r="191">
@@ -5063,22 +5045,22 @@
         <v>195</v>
       </c>
       <c r="B191" t="n">
-        <v>2.8660154175694004</v>
+        <v>2.8752035467561887</v>
       </c>
       <c r="C191" t="n">
         <v>0.2698299531351663</v>
       </c>
       <c r="D191" t="n">
-        <v>4.160999262892761</v>
+        <v>4.098164071428143</v>
       </c>
       <c r="E191" t="n">
-        <v>5.46971769993793E-4</v>
+        <v>6.306225429673045E-4</v>
       </c>
       <c r="F191" t="n">
-        <v>0.039307118671027624</v>
+        <v>0.045318527377239876</v>
       </c>
       <c r="G191" t="n">
-        <v>-0.4687090485777743</v>
+        <v>-0.5965367269772539</v>
       </c>
     </row>
     <row r="192">
@@ -5086,22 +5068,22 @@
         <v>196</v>
       </c>
       <c r="B192" t="n">
-        <v>7.622847343306194</v>
+        <v>7.633940967882117</v>
       </c>
       <c r="C192" t="n">
         <v>0.7642488631158385</v>
       </c>
       <c r="D192" t="n">
-        <v>4.118949491818498</v>
+        <v>4.077345338717662</v>
       </c>
       <c r="E192" t="n">
-        <v>6.016203039248356E-4</v>
+        <v>6.610821067900002E-4</v>
       </c>
       <c r="F192" t="n">
-        <v>0.04300797711931783</v>
+        <v>0.047258717728328084</v>
       </c>
       <c r="G192" t="n">
-        <v>-0.5622431133529382</v>
+        <v>-0.6427970613779905</v>
       </c>
     </row>
     <row r="193">
@@ -5109,22 +5091,22 @@
         <v>197</v>
       </c>
       <c r="B193" t="n">
-        <v>2.902525363135229</v>
+        <v>6.259179510873538</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2502125000940638</v>
+        <v>0.5834879747542889</v>
       </c>
       <c r="D193" t="n">
-        <v>4.109878699417982</v>
+        <v>4.062884941831891</v>
       </c>
       <c r="E193" t="n">
-        <v>6.141100782722208E-4</v>
+        <v>6.831034927139865E-4</v>
       </c>
       <c r="F193" t="n">
-        <v>0.043672182337129696</v>
+        <v>0.04837676269256927</v>
       </c>
       <c r="G193" t="n">
-        <v>-0.5824168162868748</v>
+        <v>-0.6749237476451517</v>
       </c>
     </row>
     <row r="194">
@@ -5132,22 +5114,22 @@
         <v>198</v>
       </c>
       <c r="B194" t="n">
-        <v>6.249014269360925</v>
+        <v>5.290049317413859</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5834879747542889</v>
+        <v>0.38918629195508575</v>
       </c>
       <c r="D194" t="n">
-        <v>4.104227122438571</v>
+        <v>4.06243004452257</v>
       </c>
       <c r="E194" t="n">
-        <v>6.220231524100124E-4</v>
+        <v>6.838080562227822E-4</v>
       </c>
       <c r="F194" t="n">
-        <v>0.04400572084459228</v>
+        <v>0.04837676269256927</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.594985427886729</v>
+        <v>-0.6759343202399242</v>
       </c>
     </row>
     <row r="195">
@@ -5155,160 +5137,22 @@
         <v>199</v>
       </c>
       <c r="B195" t="n">
-        <v>5.2900493174138585</v>
+        <v>2.882706945806628</v>
       </c>
       <c r="C195" t="n">
-        <v>0.38918629195508575</v>
+        <v>0.2502125000940638</v>
       </c>
       <c r="D195" t="n">
-        <v>4.097889538794832</v>
+        <v>4.052481786949699</v>
       </c>
       <c r="E195" t="n">
-        <v>6.310185555126415E-4</v>
+        <v>6.993998887241461E-4</v>
       </c>
       <c r="F195" t="n">
-        <v>0.04441199668541035</v>
+        <v>0.049224773611543766</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.6090790197280995</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" t="n">
-        <v>4.345153888482478</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.38512960848380745</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4.070056405032741</v>
-      </c>
-      <c r="E196" t="n">
-        <v>6.720956005132271E-4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.04706047861234668</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-0.6709657776241817</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>201</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.538242936004011</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.5410883021890043</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.063868102849424</v>
-      </c>
-      <c r="E197" t="n">
-        <v>6.815870891213413E-4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.04746942638744971</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-0.6847232499429063</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>202</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.394466469793829</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.7584042713457233</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.061735432421163</v>
-      </c>
-      <c r="E198" t="n">
-        <v>6.848891898584733E-4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.04746942638744971</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-0.6894642801078801</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>203</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.9276632314360675</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.44110909558675016</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.052214168580692</v>
-      </c>
-      <c r="E199" t="n">
-        <v>6.998281587407543E-4</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.0482598670679104</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-0.7106292253478044</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>204</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.505712026020611</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.6594158158470971</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.043311687998339</v>
-      </c>
-      <c r="E200" t="n">
-        <v>7.140917019827328E-4</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.04897979952061984</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-0.7304166836632708</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>205</v>
-      </c>
-      <c r="B201" t="n">
-        <v>7.137595412098222</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.9499057617712284</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.041246178220632</v>
-      </c>
-      <c r="E201" t="n">
-        <v>7.174425006682268E-4</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.04897979952061984</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-0.7350073869305431</v>
+        <v>-0.6980335902062036</v>
       </c>
     </row>
   </sheetData>
@@ -5327,15 +5171,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_5.xlsx
+++ b/docs/LMER_Microglia_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>logFC</t>
   </si>
@@ -30,19 +30,439 @@
     <t>B</t>
   </si>
   <si>
+    <t>Sirpb1c</t>
+  </si>
+  <si>
+    <t>S100a4</t>
+  </si>
+  <si>
+    <t>Cenpt</t>
+  </si>
+  <si>
+    <t>Pilra</t>
+  </si>
+  <si>
+    <t>Fbxl8</t>
+  </si>
+  <si>
+    <t>Taf5l</t>
+  </si>
+  <si>
+    <t>Sptan1</t>
+  </si>
+  <si>
+    <t>Cytip</t>
+  </si>
+  <si>
+    <t>Elac2</t>
+  </si>
+  <si>
+    <t>Map3k9</t>
+  </si>
+  <si>
+    <t>Mis18a</t>
+  </si>
+  <si>
+    <t>Nup35</t>
+  </si>
+  <si>
+    <t>Pdcd7</t>
+  </si>
+  <si>
+    <t>S100a10</t>
+  </si>
+  <si>
+    <t>Npepl1</t>
+  </si>
+  <si>
+    <t>Pde8a</t>
+  </si>
+  <si>
+    <t>Zfp362</t>
+  </si>
+  <si>
+    <t>Glmn</t>
+  </si>
+  <si>
+    <t>Polr2d</t>
+  </si>
+  <si>
+    <t>Tsen54</t>
+  </si>
+  <si>
+    <t>Nedd4l</t>
+  </si>
+  <si>
+    <t>AI662270</t>
+  </si>
+  <si>
+    <t>Mta3</t>
+  </si>
+  <si>
+    <t>Sirpb1b</t>
+  </si>
+  <si>
+    <t>Gm20716</t>
+  </si>
+  <si>
+    <t>Rps6ka4</t>
+  </si>
+  <si>
+    <t>Micall1</t>
+  </si>
+  <si>
+    <t>Taf1b</t>
+  </si>
+  <si>
+    <t>Gm44103</t>
+  </si>
+  <si>
+    <t>Fam69a</t>
+  </si>
+  <si>
+    <t>Batf3</t>
+  </si>
+  <si>
+    <t>Hist1h4d</t>
+  </si>
+  <si>
+    <t>Sde2</t>
+  </si>
+  <si>
+    <t>Mpnd</t>
+  </si>
+  <si>
+    <t>Ticam2</t>
+  </si>
+  <si>
+    <t>Dcaf15</t>
+  </si>
+  <si>
+    <t>C1qc</t>
+  </si>
+  <si>
+    <t>Gm45867</t>
+  </si>
+  <si>
+    <t>Sms</t>
+  </si>
+  <si>
+    <t>Gsr</t>
+  </si>
+  <si>
+    <t>Ms4a4b</t>
+  </si>
+  <si>
     <t>Strip1</t>
   </si>
   <si>
+    <t>Gm42725</t>
+  </si>
+  <si>
     <t>Naalad2</t>
   </si>
   <si>
+    <t>Erlin1</t>
+  </si>
+  <si>
+    <t>1810014B01Rik</t>
+  </si>
+  <si>
+    <t>1190007I07Rik</t>
+  </si>
+  <si>
+    <t>Gm10146</t>
+  </si>
+  <si>
+    <t>Lrif1</t>
+  </si>
+  <si>
+    <t>Tada3</t>
+  </si>
+  <si>
+    <t>Ppp1r26</t>
+  </si>
+  <si>
+    <t>Gm37390</t>
+  </si>
+  <si>
+    <t>Cnn2</t>
+  </si>
+  <si>
+    <t>Fbxo8</t>
+  </si>
+  <si>
+    <t>Pex12</t>
+  </si>
+  <si>
+    <t>Gm4739</t>
+  </si>
+  <si>
+    <t>Slfn1</t>
+  </si>
+  <si>
+    <t>Gpatch11</t>
+  </si>
+  <si>
+    <t>Proser1</t>
+  </si>
+  <si>
+    <t>Cog3</t>
+  </si>
+  <si>
+    <t>CT025600.1</t>
+  </si>
+  <si>
+    <t>AC154636.3</t>
+  </si>
+  <si>
+    <t>Mtrr</t>
+  </si>
+  <si>
+    <t>Arhgap11a</t>
+  </si>
+  <si>
+    <t>Ice1</t>
+  </si>
+  <si>
+    <t>Emb</t>
+  </si>
+  <si>
+    <t>Tex2</t>
+  </si>
+  <si>
+    <t>Gle1</t>
+  </si>
+  <si>
+    <t>Vac14</t>
+  </si>
+  <si>
     <t>Ino80</t>
   </si>
   <si>
-    <t>AC131743.1</t>
+    <t>Cep57l1</t>
+  </si>
+  <si>
+    <t>Gm4924</t>
+  </si>
+  <si>
+    <t>Eme2</t>
+  </si>
+  <si>
+    <t>N4bp1</t>
+  </si>
+  <si>
+    <t>Cep70</t>
+  </si>
+  <si>
+    <t>Gm13369</t>
+  </si>
+  <si>
+    <t>Ctr9</t>
+  </si>
+  <si>
+    <t>Tfdp1</t>
+  </si>
+  <si>
+    <t>Ddx23</t>
+  </si>
+  <si>
+    <t>Rad52</t>
+  </si>
+  <si>
+    <t>Ppp2r3c</t>
   </si>
   <si>
     <t>Slc2a3</t>
+  </si>
+  <si>
+    <t>9130401M01Rik</t>
+  </si>
+  <si>
+    <t>Hmga1</t>
+  </si>
+  <si>
+    <t>Gm10825</t>
+  </si>
+  <si>
+    <t>Hexa</t>
+  </si>
+  <si>
+    <t>Fam98a</t>
+  </si>
+  <si>
+    <t>Birc3</t>
+  </si>
+  <si>
+    <t>Smim11</t>
+  </si>
+  <si>
+    <t>Sept6</t>
+  </si>
+  <si>
+    <t>Pnisr</t>
+  </si>
+  <si>
+    <t>Harbi1</t>
+  </si>
+  <si>
+    <t>Cib2</t>
+  </si>
+  <si>
+    <t>Zfp512</t>
+  </si>
+  <si>
+    <t>Ell</t>
+  </si>
+  <si>
+    <t>Prrc2c</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Qser1</t>
+  </si>
+  <si>
+    <t>AC164550.2</t>
+  </si>
+  <si>
+    <t>Cpt1a</t>
+  </si>
+  <si>
+    <t>Hist1h3e</t>
+  </si>
+  <si>
+    <t>Rpap2</t>
+  </si>
+  <si>
+    <t>Rnaset2b</t>
+  </si>
+  <si>
+    <t>Idua</t>
+  </si>
+  <si>
+    <t>Lrrc45</t>
+  </si>
+  <si>
+    <t>Rbm34</t>
+  </si>
+  <si>
+    <t>Slc26a11</t>
+  </si>
+  <si>
+    <t>Hexb</t>
+  </si>
+  <si>
+    <t>Dlg1</t>
+  </si>
+  <si>
+    <t>Zfand2a</t>
+  </si>
+  <si>
+    <t>Xylt1</t>
+  </si>
+  <si>
+    <t>Zfyve16</t>
+  </si>
+  <si>
+    <t>Mpeg1</t>
+  </si>
+  <si>
+    <t>Slamf7</t>
+  </si>
+  <si>
+    <t>Pigyl</t>
+  </si>
+  <si>
+    <t>Gm26905</t>
+  </si>
+  <si>
+    <t>Gm42857</t>
+  </si>
+  <si>
+    <t>Apoe</t>
+  </si>
+  <si>
+    <t>Prmt3</t>
+  </si>
+  <si>
+    <t>Fhad1</t>
+  </si>
+  <si>
+    <t>Pdhx</t>
+  </si>
+  <si>
+    <t>Nol10</t>
+  </si>
+  <si>
+    <t>Sirpb1a</t>
+  </si>
+  <si>
+    <t>Nup54</t>
+  </si>
+  <si>
+    <t>Fbxo21</t>
+  </si>
+  <si>
+    <t>Gm37733</t>
+  </si>
+  <si>
+    <t>Vps36</t>
+  </si>
+  <si>
+    <t>Pex6</t>
+  </si>
+  <si>
+    <t>Ppid</t>
+  </si>
+  <si>
+    <t>Gpr35</t>
+  </si>
+  <si>
+    <t>Nelfa</t>
+  </si>
+  <si>
+    <t>Tcea1-ps1</t>
+  </si>
+  <si>
+    <t>Ppp2r2d</t>
+  </si>
+  <si>
+    <t>Mefv</t>
+  </si>
+  <si>
+    <t>Me2</t>
+  </si>
+  <si>
+    <t>Hnrnpul2</t>
+  </si>
+  <si>
+    <t>Ech1</t>
+  </si>
+  <si>
+    <t>Map2k4</t>
+  </si>
+  <si>
+    <t>4930481A15Rik</t>
+  </si>
+  <si>
+    <t>2300009A05Rik</t>
+  </si>
+  <si>
+    <t>Fn1</t>
+  </si>
+  <si>
+    <t>Mtmr3</t>
+  </si>
+  <si>
+    <t>Mtr</t>
+  </si>
+  <si>
+    <t>Ttc32</t>
+  </si>
+  <si>
+    <t>Tnpo2</t>
   </si>
   <si>
     <t>x</t>
@@ -125,19 +545,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5.33696652375473</v>
+        <v>8.787619257456651</v>
       </c>
       <c r="C2" t="n">
-        <v>15.181319903775048</v>
+        <v>78.37397999373502</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4591613014348746E-12</v>
+        <v>4.7333382122352265E-25</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3577388409791775E-8</v>
+        <v>5.5015590040810034E-21</v>
       </c>
       <c r="F2" t="n">
-        <v>10.785710896891091</v>
+        <v>30.91031831497888</v>
       </c>
     </row>
     <row r="3">
@@ -145,19 +565,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>6.930748924395728</v>
+        <v>8.060695931687562</v>
       </c>
       <c r="C3" t="n">
-        <v>12.658502234019968</v>
+        <v>71.8907821534937</v>
       </c>
       <c r="D3" t="n">
-        <v>6.420267911858405E-11</v>
+        <v>2.375413117592591E-24</v>
       </c>
       <c r="E3" t="n">
-        <v>4.383116903425733E-7</v>
+        <v>1.3804713332889343E-20</v>
       </c>
       <c r="F3" t="n">
-        <v>9.530726986341195</v>
+        <v>30.667023331801545</v>
       </c>
     </row>
     <row r="4">
@@ -165,19 +585,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5.063740086655031</v>
+        <v>7.209453365628946</v>
       </c>
       <c r="C4" t="n">
-        <v>9.523636456213097</v>
+        <v>64.29882056668701</v>
       </c>
       <c r="D4" t="n">
-        <v>8.195061914087102E-9</v>
+        <v>1.9083500573654156E-23</v>
       </c>
       <c r="E4" t="n">
-        <v>3.7298458458315095E-5</v>
+        <v>7.393584238919409E-20</v>
       </c>
       <c r="F4" t="n">
-        <v>7.169950638562698</v>
+        <v>30.295705386647874</v>
       </c>
     </row>
     <row r="5">
@@ -185,19 +605,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1.5464202292430012</v>
+        <v>7.0947863672361855</v>
       </c>
       <c r="C5" t="n">
-        <v>7.232403646120846</v>
+        <v>63.27614209431805</v>
       </c>
       <c r="D5" t="n">
-        <v>5.831723246871855E-7</v>
+        <v>2.5738765047156644E-23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0019906587303197077</v>
+        <v>7.479041653577542E-20</v>
       </c>
       <c r="F5" t="n">
-        <v>4.603780637151555</v>
+        <v>30.236587518182787</v>
       </c>
     </row>
     <row r="6">
@@ -205,19 +625,2819 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1.7340724769781486</v>
+        <v>6.96578428466209</v>
       </c>
       <c r="C6" t="n">
-        <v>6.052483409114833</v>
+        <v>62.12561356746668</v>
       </c>
       <c r="D6" t="n">
-        <v>6.875856460564485E-6</v>
+        <v>3.6246991392168425E-23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0187765888225095</v>
+        <v>8.425975619023471E-20</v>
       </c>
       <c r="F6" t="n">
-        <v>2.9283949888171197</v>
+        <v>30.167035533766743</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.825870142172162</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60.87776385037279</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.292358888988111E-23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0252181227784803E-19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.08772828016022</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.714245517666123</v>
+      </c>
+      <c r="C8" t="n">
+        <v>59.88221934263583</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.197838004916256E-23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.1951495875877376E-19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30.021384690120342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.568734243033028</v>
+      </c>
+      <c r="C9" t="n">
+        <v>58.58445058492821</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0830233707086507E-22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.5734975797183308E-19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.93053400370961</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.475733430966399</v>
+      </c>
+      <c r="C10" t="n">
+        <v>57.755005934361876</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.4128367822437354E-22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.5787419722660624E-19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.869725986113444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.442943495848726</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57.462562936592285</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.5530663741777719E-22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.5787419722660624E-19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.847753074606217</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.426264754702105</v>
+      </c>
+      <c r="C12" t="n">
+        <v>57.31381055137296</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.6299495540904026E-22</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.5787419722660624E-19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29.83646718700563</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.426264754702105</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57.31381055137296</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.6299495540904026E-22</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.5787419722660624E-19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.83646718700563</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.643856189774728</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50.33575751812254</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.8296823366677526E-21</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.635876753776099E-18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.211062681406197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.044394119358453</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44.989346057027234</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.4763833558618052E-20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.2257145532272687E-17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.567585463382542</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.906890595608525</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43.76299588143212</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.4667811714055107E-20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.9114265036830834E-17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28.393543001507318</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.674727225912314</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0876506074784335E-18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.436331182777549E-16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.90132646048297</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35.674727225912314</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0876506074784335E-18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.436331182777549E-16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.90132646048297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.8073549220576055</v>
+      </c>
+      <c r="C19" t="n">
+        <v>33.95658707415992</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.7065823703249833E-18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.655716152120383E-15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26.48465503934417</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.8073549220576055</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.95658707415992</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.7065823703249833E-18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.655716152120383E-15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.48465503934417</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.3219280948873644</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29.627219662300313</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.335593346852441E-17</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.938480073523296E-14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25.21728948344333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.1699250014423104</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28.271552438263523</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.878786206926034E-17</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.3607205753857753E-14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24.7430668738748</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.169925001442316</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26.443115508051427</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.679088314268326E-16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.4154110671245798E-13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24.032393728364834</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.281575357496297</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.685747976750672</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.394056310787253E-16</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.747265934794793E-13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.26128089839642</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.40382938641391</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.14892556129515</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.0214344807431064E-15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.4632555404032137E-12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22.50533991200952</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.227130592815254</v>
+      </c>
+      <c r="C26" t="n">
+        <v>22.27155645904869</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.084174457793968E-15</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.8286543889175717E-12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>22.035346817681194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.321928094887361</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.708537855822208</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.2616721070352076E-14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.01105441923347E-11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>21.12034550788221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.000130985111207</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17.838531827484392</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.256270974303277E-13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.307562619851565E-10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>19.135479387361546</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17.83736361295615</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.2600582912125156E-13</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.307562619851565E-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>19.13457955991853</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.9999201593926308</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.8366303341745</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.262437922713188E-13</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.307562619851565E-10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>19.134014703820476</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.545730892254143</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17.146269476007546</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.564011233753611E-13</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.543116752330607E-10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.587626833866825</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.829196310386875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16.48230917855809</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.3169921884576076E-12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.937871034336379E-10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18.033407641229957</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.5849625007211552</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.135776219131762</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.9087290895083328E-11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.9328619397985475E-9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.81981183839478</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6.8201789624151905</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13.970941532867371</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.3352613267529414E-11</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.225073454802859E-9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15.647738275579613</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6.176919118756779</v>
+      </c>
+      <c r="C35" t="n">
+        <v>13.929475310288153</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.457569918145143E-11</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.401275046647352E-9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.60407866930085</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.3589411749742775</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13.605301132452533</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.679133767565489E-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.2217877651546765E-8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.257505077604435</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.846260868503886</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13.086947169649719</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.132452961160219E-11</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.3027916879879226E-8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14.683398434223019</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-11.263683175323036</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-12.998990004117399</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.997270940449216E-11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.512223787590304E-8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14.583469310346196</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.6210579089640085</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12.275986796989041</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.0994129659483085E-10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.421441290320312E-8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13.733182061313176</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5.08080329283871</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.457641368351272</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.617807940204453E-10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.9722764535640092E-7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.705152013217386</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5.071820568919014</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11.353350343460102</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.695111956579049E-10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.1968968256104941E-7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.568853778631624</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.543377946306149</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.348495370887441</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.749528508133034E-10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.1968968256104941E-7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12.562478805199994</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5.336966523754735</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.200196875115422</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.621372598699365E-10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.662600326540065E-7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.366454350848315</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5.149267095194719</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10.688267649574772</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.0650630484368305E-9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.58191344464681E-7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11.670061971644007</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5.4959512113183555</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10.375966021139535</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.334778772747984E-9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.809121289920414E-7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11.229745679298869</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.684668373386297</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10.204771940291607</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.355960383756286E-9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.1250961675644293E-6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10.983243372484939</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.974295427613485</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10.15143176533442</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.737134566439988E-9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.1969503275159126E-6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10.905683754221915</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5.946285628396979</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9.600376995271574</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.1481106724339776E-8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.839253265042579E-6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10.082935134752606</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.7706564200428128</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.182265495210364</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.3007813862766204E-8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.571246260977742E-6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.431774208365894</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5.0631799966400335</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.08911369399365</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.693831524972012E-8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.389878329540754E-6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.283448636742587</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.8325134924703965</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.039171360085522</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.932796422514149E-8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.817578563776391E-6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.203430588388027</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.0059721960290076</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.971945922546707</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.289850452588206E-8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.4976336883201414E-6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9.09517319858941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.000725670475896</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8.925153830548947</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.56489886810006E-8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.617898123058785E-6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.019448184484151</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.918681806478078</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.604787032334451E-8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7.617898123058785E-6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.008950167101439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.918681806478078</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.604787032334451E-8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7.617898123058785E-6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.008950167101439</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.918681806478078</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.604787032334451E-8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7.617898123058785E-6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.008950167101439</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.492309324480122</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.873277528406497</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.898022631451394E-8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8.090485186671349E-6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8.935136275603774</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.519445354326208</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.487212413144277</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.658858592663122E-8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.561735323202166E-5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.295701545132559</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.473851389610048</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.386766453357982</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.158508978716163E-8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.8353336182692753E-5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.125832765552271</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6.168817159275689</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.334299978850343</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.006035860058978E-7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.9818906443161865E-5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8.036523653121037</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.857980995127575</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.300165299939646</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.0696294918570233E-7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.0720505973090304E-5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.978204531047406</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.5319540211923823</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.71888911879618</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.1095672986802853E-7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.925000116813271E-5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.958869487042903</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.015095415074871</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7.568990235211834</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.1245226073119633E-7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7.732149397546282E-5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.687900419649345</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.2108169837762537</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.495036198181458</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.7465516313816957E-7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.757011049452293E-5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.552983820013343</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6.000000000000004</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.432540597228615</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.347858294787773E-7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.712212025049733E-5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.438336318769951</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.049807200853446</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.316108750580961</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.688037487041853E-7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.18953605063721E-4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.223192087450241</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5.85472580528581</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7.310970094852283</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.754657088708239E-7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.18953605063721E-4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>6.213650305351144</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8.813300052260486</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.130663780784451</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.585761728291853E-7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.6629150532527793E-4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5.876359298626556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.034431692027941</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.10426588237089</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.0093554835530598E-6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.7252557037260609E-4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.8265726000461955</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.962281906272108</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7.002452749782917</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.2327908474696228E-6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.076627249295569E-4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.633584826654096</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.998184163226568</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.977436795537421</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.2951527114348275E-6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.1505085664295714E-4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.585932154920587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.116853507617628</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.857027023234085</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.6443435394135182E-6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.6918598533244115E-4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5.355273626306507</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.4791699932783398</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.740952411621832</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.0736573461920916E-6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.3475165742764834E-4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.130904636670601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8.007856405270871</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.190616057564298</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.383195159335101E-6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0010163270868075599</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.040737237044451</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.477141864738185</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.053366973126141</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.501687275248111E-6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0013353393405433622</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.7622749180848176</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.696096256325338</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.998727641301868</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.53557720746326E-6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0014777601850979396</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.650714495556719</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.30507373998293</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.987668669962906</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.760115050740288E-6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0014926554899309784</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.6280866249037755</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.344434328553777</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5.943051106429739</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.0722684785791314E-5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0016185683800682136</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3.536631034424791</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.122615564594436</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.892506578305749</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.193189018817858E-5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0017780046109897392</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.4327131991466215</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.42106605527265</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5.7741166606909875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.534412094097315E-5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0022575280721130494</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.188027273933522</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5.783691474961439</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.760282342188313</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.5803556933832542E-5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0022960592780241953</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.159319569435625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7.224488516118456</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5.736427070223282</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.662923724431055E-5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0023861928949459447</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.1097615111436765</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.1010207746635348</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.717332697745301</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.732196610533463E-5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.002455283073686639</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.0700433664105367</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.235488212680908</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5.668868313608964</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.92163363731459E-5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0026909816586153587</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.9690326362168227</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.108126694122209</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.594827816780912</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.2530125447108027E-5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.003113638422976275</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.8141696747423497</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.8887886864100785</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.589903388359756</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.2770305941063696E-5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.003113638422976275</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.803846690530727</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-10.17915080835716</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-5.5701013137784585</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.376292102765644E-5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0032115864081912883</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.7623072938595685</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.0715059767143</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.414120321587702</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.3307909382820435E-5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.004449860123638183</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.4335323500757307</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8.829188353074002</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.394425352264501</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.476545034271731E-5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.004591804878788674</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.391826906782245</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.6473789942869095</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5.354331068375556</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.79376878824669E-5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.004954491530987784</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.306795410336716</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.211312809300821</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.343578220842369</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.883776632534148E-5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.005015681755549378</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.283961788083963</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-9.219900997038689</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-5.320062440073848</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.088306224769583E-5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.005221800357197458</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.2339837759211436</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.8139990687946925</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.308845964253347</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.189708936782393E-5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0052931507578501905</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.2101251212616573</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.694301508469709</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.200890426410318</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.3074693224110514E-5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.006605382205961061</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.979838605920599</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10.367486906961132</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.19793384176547</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.342045318423296E-5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.006605382205961061</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.9735154734028706</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.857270628559169</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.190650512099158</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.428205169068461E-5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.006641266176850813</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.957935290067538</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-9.764252810397823</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-5.147660565853435</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.966477650267991E-5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0071950623800278715</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.8658696589990198</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-5.576942955988701</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-5.1447634529995785</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.004655001830023E-5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0071950623800278715</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.8596590269763693</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.853144442111954</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.9727004664701475</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8.78274786307203E-5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.010416518205355735</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.4894515949900553</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.7758279280988494</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.941389821183986</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9.414757927677335E-5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.011053306201352895</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.4218138665440456</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.507510704142949</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.905704818455518</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.0191771446445867E-4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.011845895952204031</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.3446320996637464</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5.476574799646187</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.886295361693463</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.0641484748171058E-4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.01224613635920715</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.3026110382212988</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.921695421616207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.878726662211546</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.08222740373416E-4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.01233208736627661</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.2862172912735632</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-8.387960034853398</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-4.860274063705957</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.1276245362164299E-4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.012724640761595693</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.2462313472907338</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8.034497663113132</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.841401516463846</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.1760596240616343E-4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.013069489344937159</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.2053097781926843</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.832218856399225</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.839645268829247</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.1806731319094912E-4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.013069489344937159</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.2015003874544883</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8.202981375590799</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.812557615792399</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.254205795174818E-4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.01375248486539331</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.1427184085447504</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.7177468628475605</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.787810000193902</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.325450375233003E-4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.01439785954330205</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.0889703165394025</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-8.872218785393603</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-4.776837713956008</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.3583404018665873E-4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.014618509713791986</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.0651270262836139</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.591131227624727</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.737608790774507</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.482862349651843E-4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.015812210174315017</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.979816872632072</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.8157243625320545</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.707691924062291</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.5855669589393234E-4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01675367705795614</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9146927766247641</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.443192980390762</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.634114381185829</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.8699582622053363E-4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.01958065304649786</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7543052118786591</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.636065463412876</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.620658439912157</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.927313667138155E-4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.020001041743881048</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7249414671053493</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-6.780814428252555</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-4.600393369794718</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.0170753064493652E-4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.020747315298107055</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.6807013181102652</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.823346448624087</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.595820533256952</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.0379089814115235E-4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.020777733413110646</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.6707156523061473</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.390496325701973</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.586633828951639</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.080424396238603E-4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.02098442415930145</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.650651648614434</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-10.46751605017887</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-4.5814629037147085</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.104749025661484E-4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.02098442415930145</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.6393564308732254</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-6.906294173761505</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-4.579860720493125</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.11234416814787E-4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.02098442415930145</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.6358564113083744</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-10.814078607241452</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-4.573259254175294</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.1439322606632043E-4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.021117732767532562</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.6214340283162185</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.694076874985874</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.55191367884556</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.2493822376785954E-4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.021970226679443962</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5747861162407757</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.9119329908992766</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.526297055282932</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.3828886359639532E-4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.023080262179840858</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.518777837892328</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.49542659738454</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.515514061870783</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.441458208570652E-4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.023452122940674947</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.4951935900259823</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.917555858300845</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.503326328450521</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.50941326436774E-4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.02390730358339856</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.4685312745329693</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.445585774293485</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.491413960547957</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.577681599184418E-4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0243580432742443</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.44246573074361795</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.82159247282114</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.46987973559942</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.705893926729995E-4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.02536339121805059</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.39533299892389184</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.791504021724303</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.449229774369497</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.834894459796338E-4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.02635998264497027</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.3501201805144536</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.051537956058643</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.383885670467004</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.285508049806399E-4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.030307507986428395</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.20696131071636614</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.85704301067195</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.371351816198816</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3.379881261569516E-4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.030827650517851374</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.17948796150910873</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.873966490130345</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.369384509405966</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.3949404338681717E-4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.030827650517851374</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.17517540625256345</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="n">
+        <v>10.085862544214857</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.3642071036216645</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.434896311651478E-4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.03094868203901173</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.163825512741977</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.583221045698098</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.344194400523433</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.5938538187654285E-4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.03213181764270044</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.11994793982341179</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.8184424067681904</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.331804547523443</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3.695962111863155E-4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.032792494371133935</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.09277905245098772</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.9051809993737145</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.309251414242499</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.889397483419066E-4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.03414575096118742</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.04331619587893876</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.806682130480114</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.301896465158345</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.954661488236434E-4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.03414575096118742</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.027183613281779984</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.192211109206236</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.300883841753392</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.9637330037790587E-4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.03414575096118742</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.024962423509728993</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.639691408497717</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.3006316688036215</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.965995336625915E-4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.03414575096118742</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.02440927952335681</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.201738119994122</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.260922999692464</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.338966992538687E-4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.03708221570167438</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.06270337809042648</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.43382318223064</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.248488301556951</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.462876991823671E-4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.03785383566829692</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.08998644780836162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7.257828389672128</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.245381334265433</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.4943898496300225E-4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.03785383566829692</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.0968037033104503</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7.7963548944508725</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.234053481418171</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.6111931966705353E-4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.03855820037762707</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.12165978631216934</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.8760385329437796</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.215063747118475</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.8138938504186795E-4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.03996563444529737</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.16332995783203597</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8.166723692848077</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.203748758596789</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.938910447140455E-4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.04071273484192447</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.1881599394468214</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.929710290512043</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.199198475516395</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.990101460237024E-4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.040845034698827415</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.1981453658775516</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.298664181761898</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.164912168221999</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.393377717466677E-4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.043837223223856775</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.2733864211117707</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7.5515427049969315</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.157106888547262</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.489670078475401E-4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.04431002452924971</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.2905149638950073</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.578259931713231</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.133151791628744</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.796120820897314E-4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.04646090503537205</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.34308264522926546</v>
       </c>
     </row>
   </sheetData>
@@ -236,15 +3456,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_5.xlsx
+++ b/docs/LMER_Microglia_5.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>logFC</t>
+  </si>
+  <si>
+    <t>AveExpr</t>
   </si>
   <si>
     <t>t</t>
@@ -539,2904 +542,3342 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>8.787619257456651</v>
       </c>
       <c r="C2" t="n">
+        <v>0.382070402498115</v>
+      </c>
+      <c r="D2" t="n">
         <v>78.37397999373502</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4.7333382122352265E-25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5.5015590040810034E-21</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>30.91031831497888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>8.060695931687562</v>
       </c>
       <c r="C3" t="n">
+        <v>0.3504650405081545</v>
+      </c>
+      <c r="D3" t="n">
         <v>71.8907821534937</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2.375413117592591E-24</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.3804713332889343E-20</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>30.667023331801545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>7.209453365628946</v>
       </c>
       <c r="C4" t="n">
+        <v>0.31345449415778043</v>
+      </c>
+      <c r="D4" t="n">
         <v>64.29882056668701</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1.9083500573654156E-23</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.393584238919409E-20</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>30.295705386647874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>7.0947863672361855</v>
       </c>
       <c r="C5" t="n">
+        <v>0.3084689724885294</v>
+      </c>
+      <c r="D5" t="n">
         <v>63.27614209431805</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2.5738765047156644E-23</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.479041653577542E-20</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>30.236587518182787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>6.96578428466209</v>
       </c>
       <c r="C6" t="n">
+        <v>0.30286018628965594</v>
+      </c>
+      <c r="D6" t="n">
         <v>62.12561356746668</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>3.6246991392168425E-23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8.425975619023471E-20</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>30.167035533766743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>6.825870142172162</v>
       </c>
       <c r="C7" t="n">
+        <v>0.2967769627031371</v>
+      </c>
+      <c r="D7" t="n">
         <v>60.87776385037279</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>5.292358888988111E-23</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.0252181227784803E-19</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>30.08772828016022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>6.714245517666123</v>
       </c>
       <c r="C8" t="n">
+        <v>0.2919237181593966</v>
+      </c>
+      <c r="D8" t="n">
         <v>59.88221934263583</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>7.197838004916256E-23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.1951495875877376E-19</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>30.021384690120342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>6.568734243033028</v>
       </c>
       <c r="C9" t="n">
+        <v>0.28559714100143563</v>
+      </c>
+      <c r="D9" t="n">
         <v>58.58445058492821</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.0830233707086507E-22</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.5734975797183308E-19</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>29.93053400370961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>6.475733430966399</v>
       </c>
       <c r="C10" t="n">
+        <v>0.28155362743332163</v>
+      </c>
+      <c r="D10" t="n">
         <v>57.755005934361876</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.4128367822437354E-22</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.5787419722660624E-19</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>29.869725986113444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>6.442943495848726</v>
       </c>
       <c r="C11" t="n">
+        <v>0.2801279780803795</v>
+      </c>
+      <c r="D11" t="n">
         <v>57.462562936592285</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1.5530663741777719E-22</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.5787419722660624E-19</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>29.847753074606217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>6.426264754702105</v>
       </c>
       <c r="C12" t="n">
+        <v>0.2794028154218303</v>
+      </c>
+      <c r="D12" t="n">
         <v>57.31381055137296</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.6299495540904026E-22</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.5787419722660624E-19</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>29.83646718700563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>6.426264754702105</v>
       </c>
       <c r="C13" t="n">
+        <v>0.2794028154218303</v>
+      </c>
+      <c r="D13" t="n">
         <v>57.31381055137296</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.6299495540904026E-22</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.5787419722660624E-19</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>29.83646718700563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>5.643856189774728</v>
       </c>
       <c r="C14" t="n">
+        <v>0.24538505172933583</v>
+      </c>
+      <c r="D14" t="n">
         <v>50.33575751812254</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1.8296823366677526E-21</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.635876753776099E-18</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>29.211062681406197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>5.044394119358453</v>
       </c>
       <c r="C15" t="n">
+        <v>0.21932148345036753</v>
+      </c>
+      <c r="D15" t="n">
         <v>44.989346057027234</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1.4763833558618052E-20</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.2257145532272687E-17</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>28.567585463382542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>4.906890595608525</v>
       </c>
       <c r="C16" t="n">
+        <v>0.21334306937428343</v>
+      </c>
+      <c r="D16" t="n">
         <v>43.76299588143212</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>2.4667811714055107E-20</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.9114265036830834E-17</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>28.393543001507318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>4.000000000000001</v>
       </c>
       <c r="C17" t="n">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="D17" t="n">
         <v>35.674727225912314</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1.0876506074784335E-18</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>7.436331182777549E-16</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>26.90132646048297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>4.000000000000001</v>
       </c>
       <c r="C18" t="n">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="D18" t="n">
         <v>35.674727225912314</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.0876506074784335E-18</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>7.436331182777549E-16</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>26.90132646048297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>3.8073549220576055</v>
       </c>
       <c r="C19" t="n">
+        <v>0.16553717052424366</v>
+      </c>
+      <c r="D19" t="n">
         <v>33.95658707415992</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>2.7065823703249833E-18</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.655716152120383E-15</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>26.48465503934417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>3.8073549220576055</v>
       </c>
       <c r="C20" t="n">
+        <v>0.16553717052424366</v>
+      </c>
+      <c r="D20" t="n">
         <v>33.95658707415992</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2.7065823703249833E-18</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.655716152120383E-15</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>26.48465503934417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>3.3219280948873644</v>
       </c>
       <c r="C21" t="n">
+        <v>0.14443165629945054</v>
+      </c>
+      <c r="D21" t="n">
         <v>29.627219662300313</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3.335593346852441E-17</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.938480073523296E-14</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>25.21728948344333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>3.1699250014423104</v>
       </c>
       <c r="C22" t="n">
+        <v>0.13782282614966573</v>
+      </c>
+      <c r="D22" t="n">
         <v>28.271552438263523</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>7.878786206926034E-17</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>4.3607205753857753E-14</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>24.7430668738748</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>6.169925001442316</v>
       </c>
       <c r="C23" t="n">
+        <v>0.3117358696279266</v>
+      </c>
+      <c r="D23" t="n">
         <v>26.443115508051427</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>2.679088314268326E-16</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.4154110671245798E-13</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>24.032393728364834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>7.281575357496297</v>
       </c>
       <c r="C24" t="n">
+        <v>0.36489941167858275</v>
+      </c>
+      <c r="D24" t="n">
         <v>24.685747976750672</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>9.394056310787253E-16</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>4.747265934794793E-13</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>23.26128089839642</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>5.40382938641391</v>
       </c>
       <c r="C25" t="n">
+        <v>0.27845386251182414</v>
+      </c>
+      <c r="D25" t="n">
         <v>23.14892556129515</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>3.0214344807431064E-15</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.4632555404032137E-12</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>22.50533991200952</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>7.227130592815254</v>
       </c>
       <c r="C26" t="n">
+        <v>0.3681425152656407</v>
+      </c>
+      <c r="D26" t="n">
         <v>22.27155645904869</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>6.084174457793968E-15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>2.8286543889175717E-12</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>22.035346817681194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>2.321928094887361</v>
       </c>
       <c r="C27" t="n">
+        <v>0.10095339542988531</v>
+      </c>
+      <c r="D27" t="n">
         <v>20.708537855822208</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>2.2616721070352076E-14</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.01105441923347E-11</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>21.12034550788221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>2.000130985111207</v>
       </c>
       <c r="C28" t="n">
+        <v>0.08696221674396547</v>
+      </c>
+      <c r="D28" t="n">
         <v>17.838531827484392</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>3.256270974303277E-13</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.307562619851565E-10</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>19.135479387361546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>1.9999999999999998</v>
       </c>
       <c r="C29" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="D29" t="n">
         <v>17.83736361295615</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>3.2600582912125156E-13</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1.307562619851565E-10</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>19.13457955991853</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>1.9999201593926308</v>
       </c>
       <c r="C30" t="n">
+        <v>0.08698429238517236</v>
+      </c>
+      <c r="D30" t="n">
         <v>17.8366303341745</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>3.262437922713188E-13</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.307562619851565E-10</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>19.134014703820476</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>6.545730892254143</v>
       </c>
       <c r="C31" t="n">
+        <v>0.3505375009113912</v>
+      </c>
+      <c r="D31" t="n">
         <v>17.146269476007546</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>6.564011233753611E-13</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>2.543116752330607E-10</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>18.587626833866825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>4.829196310386875</v>
       </c>
       <c r="C32" t="n">
+        <v>0.25887810045160325</v>
+      </c>
+      <c r="D32" t="n">
         <v>16.48230917855809</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.3169921884576076E-12</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>4.937871034336379E-10</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>18.033407641229957</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>1.5849625007211552</v>
       </c>
       <c r="C33" t="n">
+        <v>0.06891141307483287</v>
+      </c>
+      <c r="D33" t="n">
         <v>14.135776219131762</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1.9087290895083328E-11</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>6.9328619397985475E-9</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>15.81981183839478</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>6.8201789624151905</v>
       </c>
       <c r="C34" t="n">
+        <v>0.39748291553489346</v>
+      </c>
+      <c r="D34" t="n">
         <v>13.970941532867371</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>2.3352613267529414E-11</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>8.225073454802859E-9</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>15.647738275579613</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
         <v>6.176919118756779</v>
       </c>
       <c r="C35" t="n">
+        <v>0.34608704052469913</v>
+      </c>
+      <c r="D35" t="n">
         <v>13.929475310288153</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>2.457569918145143E-11</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>8.401275046647352E-9</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>15.60407866930085</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
         <v>7.3589411749742775</v>
       </c>
       <c r="C36" t="n">
+        <v>0.4753778545631406</v>
+      </c>
+      <c r="D36" t="n">
         <v>13.605301132452533</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>3.679133767565489E-11</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1.2217877651546765E-8</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>15.257505077604435</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
         <v>5.846260868503886</v>
       </c>
       <c r="C37" t="n">
+        <v>0.33075349190215697</v>
+      </c>
+      <c r="D37" t="n">
         <v>13.086947169649719</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>7.132452961160219E-11</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>2.3027916879879226E-8</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>14.683398434223019</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
         <v>-11.263683175323036</v>
       </c>
       <c r="C38" t="n">
+        <v>9.702866042057343</v>
+      </c>
+      <c r="D38" t="n">
         <v>-12.998990004117399</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>7.997270940449216E-11</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>2.512223787590304E-8</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>14.583469310346196</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
         <v>3.6210579089640085</v>
       </c>
       <c r="C39" t="n">
+        <v>0.20574647913370056</v>
+      </c>
+      <c r="D39" t="n">
         <v>12.275986796989041</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>2.0994129659483085E-10</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>6.421441290320312E-8</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>13.733182061313176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="n">
         <v>5.08080329283871</v>
       </c>
       <c r="C40" t="n">
+        <v>0.29842983070217427</v>
+      </c>
+      <c r="D40" t="n">
         <v>11.457641368351272</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>6.617807940204453E-10</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1.9722764535640092E-7</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>12.705152013217386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
         <v>5.071820568919014</v>
       </c>
       <c r="C41" t="n">
+        <v>0.2970821745289018</v>
+      </c>
+      <c r="D41" t="n">
         <v>11.353350343460102</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>7.695111956579049E-10</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>2.1968968256104941E-7</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>12.568853778631624</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="n">
         <v>4.543377946306149</v>
       </c>
       <c r="C42" t="n">
+        <v>0.2947603938007504</v>
+      </c>
+      <c r="D42" t="n">
         <v>11.348495370887441</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>7.749528508133034E-10</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>2.1968968256104941E-7</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>12.562478805199994</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
         <v>5.336966523754735</v>
       </c>
       <c r="C43" t="n">
+        <v>0.6961260683158346</v>
+      </c>
+      <c r="D43" t="n">
         <v>11.200196875115422</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>9.621372598699365E-10</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>2.662600326540065E-7</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>12.366454350848315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="n">
         <v>5.149267095194719</v>
       </c>
       <c r="C44" t="n">
+        <v>0.28135956687886876</v>
+      </c>
+      <c r="D44" t="n">
         <v>10.688267649574772</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>2.0650630484368305E-9</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>5.58191344464681E-7</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>11.670061971644007</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
         <v>5.4959512113183555</v>
       </c>
       <c r="C45" t="n">
+        <v>0.9078335242058182</v>
+      </c>
+      <c r="D45" t="n">
         <v>10.375966021139535</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>3.334778772747984E-9</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>8.809121289920414E-7</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>11.229745679298869</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
         <v>5.684668373386297</v>
       </c>
       <c r="C46" t="n">
+        <v>0.34377785198297905</v>
+      </c>
+      <c r="D46" t="n">
         <v>10.204771940291607</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>4.355960383756286E-9</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>1.1250961675644293E-6</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>10.983243372484939</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
         <v>2.974295427613485</v>
       </c>
       <c r="C47" t="n">
+        <v>0.17823023598319507</v>
+      </c>
+      <c r="D47" t="n">
         <v>10.15143176533442</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>4.737134566439988E-9</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>1.1969503275159126E-6</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>10.905683754221915</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>5.946285628396979</v>
       </c>
       <c r="C48" t="n">
+        <v>0.4126277342153917</v>
+      </c>
+      <c r="D48" t="n">
         <v>9.600376995271574</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>1.1481106724339776E-8</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>2.839253265042579E-6</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>10.082935134752606</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="n">
         <v>2.7706564200428128</v>
       </c>
       <c r="C49" t="n">
+        <v>0.1802577193423313</v>
+      </c>
+      <c r="D49" t="n">
         <v>9.182265495210364</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>2.3007813862766204E-8</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>5.571246260977742E-6</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>9.431774208365894</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
         <v>5.0631799966400335</v>
       </c>
       <c r="C50" t="n">
+        <v>0.3167566182114021</v>
+      </c>
+      <c r="D50" t="n">
         <v>9.08911369399365</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>2.693831524972012E-8</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>6.389878329540754E-6</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>9.283448636742587</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
         <v>4.8325134924703965</v>
       </c>
       <c r="C51" t="n">
+        <v>0.367697671877583</v>
+      </c>
+      <c r="D51" t="n">
         <v>9.039171360085522</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>2.932796422514149E-8</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>6.817578563776391E-6</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>9.203430588388027</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
         <v>1.0059721960290076</v>
       </c>
       <c r="C52" t="n">
+        <v>0.0437379215664786</v>
+      </c>
+      <c r="D52" t="n">
         <v>8.971945922546707</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>3.289850452588206E-8</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>7.4976336883201414E-6</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>9.09517319858941</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
         <v>1.000725670475896</v>
       </c>
       <c r="C53" t="n">
+        <v>0.04350981175982151</v>
+      </c>
+      <c r="D53" t="n">
         <v>8.925153830548947</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>3.56489886810006E-8</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>7.617898123058785E-6</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>9.019448184484151</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
         <v>1.0000000000000002</v>
       </c>
       <c r="C54" t="n">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="D54" t="n">
         <v>8.918681806478078</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>3.604787032334451E-8</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>7.617898123058785E-6</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>9.008950167101439</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
         <v>1.0000000000000002</v>
       </c>
       <c r="C55" t="n">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="D55" t="n">
         <v>8.918681806478078</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>3.604787032334451E-8</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>7.617898123058785E-6</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>9.008950167101439</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
         <v>1.0000000000000002</v>
       </c>
       <c r="C56" t="n">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="D56" t="n">
         <v>8.918681806478078</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>3.604787032334451E-8</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>7.617898123058785E-6</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>9.008950167101439</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="n">
         <v>4.492309324480122</v>
       </c>
       <c r="C57" t="n">
+        <v>0.282736228338621</v>
+      </c>
+      <c r="D57" t="n">
         <v>8.873277528406497</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>3.898022631451394E-8</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>8.090485186671349E-6</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>8.935136275603774</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
         <v>6.519445354326208</v>
       </c>
       <c r="C58" t="n">
+        <v>0.420770419201783</v>
+      </c>
+      <c r="D58" t="n">
         <v>8.487212413144277</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>7.658858592663122E-8</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>1.561735323202166E-5</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>8.295701545132559</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="n">
         <v>2.473851389610048</v>
       </c>
       <c r="C59" t="n">
+        <v>0.1558679348139633</v>
+      </c>
+      <c r="D59" t="n">
         <v>8.386766453357982</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>9.158508978716163E-8</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>1.8353336182692753E-5</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>8.125832765552271</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
         <v>6.168817159275689</v>
       </c>
       <c r="C60" t="n">
+        <v>0.42772295361614804</v>
+      </c>
+      <c r="D60" t="n">
         <v>8.334299978850343</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>1.006035860058978E-7</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>1.9818906443161865E-5</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>8.036523653121037</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
         <v>4.857980995127575</v>
       </c>
       <c r="C61" t="n">
+        <v>0.33327547466022506</v>
+      </c>
+      <c r="D61" t="n">
         <v>8.300165299939646</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>1.0696294918570233E-7</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>2.0720505973090304E-5</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>7.978204531047406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="n">
         <v>3.5319540211923823</v>
       </c>
       <c r="C62" t="n">
+        <v>0.26470934349238145</v>
+      </c>
+      <c r="D62" t="n">
         <v>7.71888911879618</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>3.1095672986802853E-7</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>5.925000116813271E-5</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>6.958869487042903</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
         <v>6.015095415074871</v>
       </c>
       <c r="C63" t="n">
+        <v>0.4466768562272418</v>
+      </c>
+      <c r="D63" t="n">
         <v>7.568990235211834</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>4.1245226073119633E-7</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>7.732149397546282E-5</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>6.687900419649345</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="n">
         <v>2.2108169837762537</v>
       </c>
       <c r="C64" t="n">
+        <v>0.14443165629945054</v>
+      </c>
+      <c r="D64" t="n">
         <v>7.495036198181458</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>4.7465516313816957E-7</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>8.757011049452293E-5</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>6.552983820013343</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
         <v>6.000000000000004</v>
       </c>
       <c r="C65" t="n">
+        <v>0.4307343737221095</v>
+      </c>
+      <c r="D65" t="n">
         <v>7.432540597228615</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>5.347858294787773E-7</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>9.712212025049733E-5</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>6.438336318769951</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="n">
         <v>5.049807200853446</v>
       </c>
       <c r="C66" t="n">
+        <v>0.40947184847329987</v>
+      </c>
+      <c r="D66" t="n">
         <v>7.316108750580961</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>6.688037487041853E-7</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>1.18953605063721E-4</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>6.223192087450241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="n">
         <v>5.85472580528581</v>
       </c>
       <c r="C67" t="n">
+        <v>0.4693154975515133</v>
+      </c>
+      <c r="D67" t="n">
         <v>7.310970094852283</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>6.754657088708239E-7</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>1.18953605063721E-4</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>6.213650305351144</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="n">
         <v>8.813300052260486</v>
       </c>
       <c r="C68" t="n">
+        <v>0.534185607073034</v>
+      </c>
+      <c r="D68" t="n">
         <v>7.130663780784451</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>9.585761728291853E-7</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>1.6629150532527793E-4</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>5.876359298626556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="n">
         <v>5.034431692027941</v>
       </c>
       <c r="C69" t="n">
+        <v>0.3453267176234452</v>
+      </c>
+      <c r="D69" t="n">
         <v>7.10426588237089</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>1.0093554835530598E-6</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>1.7252557037260609E-4</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>5.8265726000461955</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="n">
         <v>4.962281906272108</v>
       </c>
       <c r="C70" t="n">
+        <v>0.34218977041666976</v>
+      </c>
+      <c r="D70" t="n">
         <v>7.002452749782917</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>1.2327908474696228E-6</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>2.076627249295569E-4</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>5.633584826654096</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="n">
         <v>4.998184163226568</v>
       </c>
       <c r="C71" t="n">
+        <v>0.8105153995253914</v>
+      </c>
+      <c r="D71" t="n">
         <v>6.977436795537421</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>1.2951527114348275E-6</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>2.1505085664295714E-4</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>5.585932154920587</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="n">
         <v>1.116853507617628</v>
       </c>
       <c r="C72" t="n">
+        <v>0.06947764625235985</v>
+      </c>
+      <c r="D72" t="n">
         <v>6.857027023234085</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>1.6443435394135182E-6</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>2.6918598533244115E-4</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>5.355273626306507</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="n">
         <v>2.4791699932783398</v>
       </c>
       <c r="C73" t="n">
+        <v>0.20277362187033057</v>
+      </c>
+      <c r="D73" t="n">
         <v>6.740952411621832</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>2.0736573461920916E-6</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>3.3475165742764834E-4</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>5.130904636670601</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="n">
         <v>8.007856405270871</v>
       </c>
       <c r="C74" t="n">
+        <v>0.5062573955675032</v>
+      </c>
+      <c r="D74" t="n">
         <v>6.190616057564298</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>6.383195159335101E-6</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.0010163270868075599</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>4.040737237044451</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="n">
         <v>8.477141864738185</v>
       </c>
       <c r="C75" t="n">
+        <v>0.5398151796774477</v>
+      </c>
+      <c r="D75" t="n">
         <v>6.053366973126141</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>8.501687275248111E-6</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.0013353393405433622</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>3.7622749180848176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="n">
         <v>6.696096256325338</v>
       </c>
       <c r="C76" t="n">
+        <v>0.4273792493515678</v>
+      </c>
+      <c r="D76" t="n">
         <v>5.998727641301868</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>9.53557720746326E-6</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.0014777601850979396</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>3.650714495556719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="n">
         <v>5.30507373998293</v>
       </c>
       <c r="C77" t="n">
+        <v>0.429929815084197</v>
+      </c>
+      <c r="D77" t="n">
         <v>5.987668669962906</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>9.760115050740288E-6</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.0014926554899309784</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>3.6280866249037755</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="n">
         <v>6.344434328553777</v>
       </c>
       <c r="C78" t="n">
+        <v>0.7442545577322615</v>
+      </c>
+      <c r="D78" t="n">
         <v>5.943051106429739</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>1.0722684785791314E-5</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.0016185683800682136</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>3.536631034424791</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="n">
         <v>5.122615564594436</v>
       </c>
       <c r="C79" t="n">
+        <v>0.4266861387485668</v>
+      </c>
+      <c r="D79" t="n">
         <v>5.892506578305749</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>1.193189018817858E-5</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.0017780046109897392</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>3.4327131991466215</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="n">
         <v>5.42106605527265</v>
       </c>
       <c r="C80" t="n">
+        <v>0.7609339782657745</v>
+      </c>
+      <c r="D80" t="n">
         <v>5.7741166606909875</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>1.534412094097315E-5</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.0022575280721130494</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>3.188027273933522</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="n">
         <v>5.783691474961439</v>
       </c>
       <c r="C81" t="n">
+        <v>0.49051869682414967</v>
+      </c>
+      <c r="D81" t="n">
         <v>5.760282342188313</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>1.5803556933832542E-5</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.0022960592780241953</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>3.159319569435625</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="n">
         <v>7.224488516118456</v>
       </c>
       <c r="C82" t="n">
+        <v>0.7734091941562806</v>
+      </c>
+      <c r="D82" t="n">
         <v>5.736427070223282</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>1.662923724431055E-5</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.0023861928949459447</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>3.1097615111436765</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="n">
         <v>2.1010207746635348</v>
       </c>
       <c r="C83" t="n">
+        <v>0.28940247174734807</v>
+      </c>
+      <c r="D83" t="n">
         <v>5.717332697745301</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>1.732196610533463E-5</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.002455283073686639</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>3.0700433664105367</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="n">
         <v>6.235488212680908</v>
       </c>
       <c r="C84" t="n">
+        <v>0.5789195461850566</v>
+      </c>
+      <c r="D84" t="n">
         <v>5.668868313608964</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>1.92163363731459E-5</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0.0026909816586153587</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>2.9690326362168227</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="n">
         <v>5.108126694122209</v>
       </c>
       <c r="C85" t="n">
+        <v>0.49674851649075336</v>
+      </c>
+      <c r="D85" t="n">
         <v>5.594827816780912</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>2.2530125447108027E-5</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.003113638422976275</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>2.8141696747423497</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="n">
         <v>2.8887886864100785</v>
       </c>
       <c r="C86" t="n">
+        <v>0.3071386415060213</v>
+      </c>
+      <c r="D86" t="n">
         <v>5.589903388359756</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>2.2770305941063696E-5</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.003113638422976275</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>2.803846690530727</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="n">
         <v>-10.17915080835716</v>
       </c>
       <c r="C87" t="n">
+        <v>7.250462839260562</v>
+      </c>
+      <c r="D87" t="n">
         <v>-5.5701013137784585</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>2.376292102765644E-5</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>0.0032115864081912883</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.7623072938595685</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="n">
         <v>7.0715059767143</v>
       </c>
       <c r="C88" t="n">
+        <v>0.5425991419143087</v>
+      </c>
+      <c r="D88" t="n">
         <v>5.414120321587702</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>3.3307909382820435E-5</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.004449860123638183</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>2.4335323500757307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="n">
         <v>8.829188353074002</v>
       </c>
       <c r="C89" t="n">
+        <v>0.9733793205320477</v>
+      </c>
+      <c r="D89" t="n">
         <v>5.394425352264501</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>3.476545034271731E-5</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.004591804878788674</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>2.391826906782245</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="n">
         <v>6.6473789942869095</v>
       </c>
       <c r="C90" t="n">
+        <v>0.7137824085432355</v>
+      </c>
+      <c r="D90" t="n">
         <v>5.354331068375556</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>3.79376878824669E-5</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.004954491530987784</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>2.306795410336716</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="n">
         <v>6.211312809300821</v>
       </c>
       <c r="C91" t="n">
+        <v>0.5235801469475518</v>
+      </c>
+      <c r="D91" t="n">
         <v>5.343578220842369</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>3.883776632534148E-5</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.005015681755549378</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>2.283961788083963</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="n">
         <v>-9.219900997038689</v>
       </c>
       <c r="C92" t="n">
+        <v>3.741539088506998</v>
+      </c>
+      <c r="D92" t="n">
         <v>-5.320062440073848</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>4.088306224769583E-5</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.005221800357197458</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>2.2339837759211436</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="n">
         <v>6.8139990687946925</v>
       </c>
       <c r="C93" t="n">
+        <v>0.9472586821792676</v>
+      </c>
+      <c r="D93" t="n">
         <v>5.308845964253347</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>4.189708936782393E-5</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>0.0052931507578501905</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>2.2101251212616573</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="n">
         <v>6.694301508469709</v>
       </c>
       <c r="C94" t="n">
+        <v>0.5635727404830307</v>
+      </c>
+      <c r="D94" t="n">
         <v>5.200890426410318</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>5.3074693224110514E-5</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>0.006605382205961061</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>1.979838605920599</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
         <v>10.367486906961132</v>
       </c>
       <c r="C95" t="n">
+        <v>1.0997484610410775</v>
+      </c>
+      <c r="D95" t="n">
         <v>5.19793384176547</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>5.342045318423296E-5</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0.006605382205961061</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>1.9735154734028706</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
         <v>7.857270628559169</v>
       </c>
       <c r="C96" t="n">
+        <v>0.6068305235461864</v>
+      </c>
+      <c r="D96" t="n">
         <v>5.190650512099158</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>5.428205169068461E-5</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.006641266176850813</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>1.957935290067538</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
         <v>-9.764252810397823</v>
       </c>
       <c r="C97" t="n">
+        <v>3.9074243163939237</v>
+      </c>
+      <c r="D97" t="n">
         <v>-5.147660565853435</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>5.966477650267991E-5</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>0.0071950623800278715</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>1.8658696589990198</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
         <v>-5.576942955988701</v>
       </c>
       <c r="C98" t="n">
+        <v>9.728261497100076</v>
+      </c>
+      <c r="D98" t="n">
         <v>-5.1447634529995785</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>6.004655001830023E-5</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>0.0071950623800278715</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>1.8596590269763693</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
         <v>4.853144442111954</v>
       </c>
       <c r="C99" t="n">
+        <v>0.43527075023579365</v>
+      </c>
+      <c r="D99" t="n">
         <v>4.9727004664701475</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>8.78274786307203E-5</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>0.010416518205355735</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>1.4894515949900553</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
         <v>2.7758279280988494</v>
       </c>
       <c r="C100" t="n">
+        <v>0.21815428900479916</v>
+      </c>
+      <c r="D100" t="n">
         <v>4.941389821183986</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>9.414757927677335E-5</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>0.011053306201352895</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>1.4218138665440456</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
         <v>7.507510704142949</v>
       </c>
       <c r="C101" t="n">
+        <v>0.8032304387871494</v>
+      </c>
+      <c r="D101" t="n">
         <v>4.905704818455518</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>1.0191771446445867E-4</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>0.011845895952204031</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>1.3446320996637464</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
         <v>5.476574799646187</v>
       </c>
       <c r="C102" t="n">
+        <v>0.43557392081796636</v>
+      </c>
+      <c r="D102" t="n">
         <v>4.886295361693463</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>1.0641484748171058E-4</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>0.01224613635920715</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1.3026110382212988</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="n">
         <v>6.921695421616207</v>
       </c>
       <c r="C103" t="n">
+        <v>0.6388567277924037</v>
+      </c>
+      <c r="D103" t="n">
         <v>4.878726662211546</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>1.08222740373416E-4</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>0.01233208736627661</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1.2862172912735632</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="n">
         <v>-8.387960034853398</v>
       </c>
       <c r="C104" t="n">
+        <v>7.105080871358947</v>
+      </c>
+      <c r="D104" t="n">
         <v>-4.860274063705957</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>1.1276245362164299E-4</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>0.012724640761595693</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>1.2462313472907338</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="n">
         <v>8.034497663113132</v>
       </c>
       <c r="C105" t="n">
+        <v>0.9829891456814458</v>
+      </c>
+      <c r="D105" t="n">
         <v>4.841401516463846</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>1.1760596240616343E-4</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>0.013069489344937159</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>1.2053097781926843</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
         <v>7.832218856399225</v>
       </c>
       <c r="C106" t="n">
+        <v>0.5385860376453209</v>
+      </c>
+      <c r="D106" t="n">
         <v>4.839645268829247</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>1.1806731319094912E-4</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>0.013069489344937159</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>1.2015003874544883</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="n">
         <v>8.202981375590799</v>
       </c>
       <c r="C107" t="n">
+        <v>0.9957093974867556</v>
+      </c>
+      <c r="D107" t="n">
         <v>4.812557615792399</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>1.254205795174818E-4</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>0.01375248486539331</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>1.1427184085447504</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="n">
         <v>5.7177468628475605</v>
       </c>
       <c r="C108" t="n">
+        <v>0.46343930275972445</v>
+      </c>
+      <c r="D108" t="n">
         <v>4.787810000193902</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>1.325450375233003E-4</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>0.01439785954330205</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>1.0889703165394025</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="n">
         <v>-8.872218785393603</v>
       </c>
       <c r="C109" t="n">
+        <v>9.371664511254277</v>
+      </c>
+      <c r="D109" t="n">
         <v>-4.776837713956008</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>1.3583404018665873E-4</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>0.014618509713791986</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>1.0651270262836139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="n">
         <v>6.591131227624727</v>
       </c>
       <c r="C110" t="n">
+        <v>0.911914093196037</v>
+      </c>
+      <c r="D110" t="n">
         <v>4.737608790774507</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>1.482862349651843E-4</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>0.015812210174315017</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>0.979816872632072</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="n">
         <v>7.8157243625320545</v>
       </c>
       <c r="C111" t="n">
+        <v>0.7602396476313844</v>
+      </c>
+      <c r="D111" t="n">
         <v>4.707691924062291</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>1.5855669589393234E-4</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>0.01675367705795614</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.9146927766247641</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="n">
         <v>3.443192980390762</v>
       </c>
       <c r="C112" t="n">
+        <v>0.48483999101127656</v>
+      </c>
+      <c r="D112" t="n">
         <v>4.634114381185829</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>1.8699582622053363E-4</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>0.01958065304649786</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>0.7543052118786591</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" t="n">
         <v>6.636065463412876</v>
       </c>
       <c r="C113" t="n">
+        <v>0.5420476536480759</v>
+      </c>
+      <c r="D113" t="n">
         <v>4.620658439912157</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>1.927313667138155E-4</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>0.020001041743881048</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>0.7249414671053493</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" t="n">
         <v>-6.780814428252555</v>
       </c>
       <c r="C114" t="n">
+        <v>7.1326320245999835</v>
+      </c>
+      <c r="D114" t="n">
         <v>-4.600393369794718</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>2.0170753064493652E-4</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>0.020747315298107055</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.6807013181102652</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" t="n">
         <v>6.823346448624087</v>
       </c>
       <c r="C115" t="n">
+        <v>0.5588056308436606</v>
+      </c>
+      <c r="D115" t="n">
         <v>4.595820533256952</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>2.0379089814115235E-4</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>0.020777733413110646</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.6707156523061473</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" t="n">
         <v>5.390496325701973</v>
       </c>
       <c r="C116" t="n">
+        <v>0.44576806228044563</v>
+      </c>
+      <c r="D116" t="n">
         <v>4.586633828951639</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>2.080424396238603E-4</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>0.02098442415930145</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>0.650651648614434</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" t="n">
         <v>-10.46751605017887</v>
       </c>
       <c r="C117" t="n">
+        <v>5.056511768900916</v>
+      </c>
+      <c r="D117" t="n">
         <v>-4.5814629037147085</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>2.104749025661484E-4</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>0.02098442415930145</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>0.6393564308732254</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" t="n">
         <v>-6.906294173761505</v>
       </c>
       <c r="C118" t="n">
+        <v>3.9356946770684895</v>
+      </c>
+      <c r="D118" t="n">
         <v>-4.579860720493125</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>2.11234416814787E-4</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>0.02098442415930145</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>0.6358564113083744</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" t="n">
         <v>-10.814078607241452</v>
       </c>
       <c r="C119" t="n">
+        <v>10.645395828138671</v>
+      </c>
+      <c r="D119" t="n">
         <v>-4.573259254175294</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>2.1439322606632043E-4</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>0.021117732767532562</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>0.6214340283162185</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120" t="n">
         <v>6.694076874985874</v>
       </c>
       <c r="C120" t="n">
+        <v>0.5916230571195483</v>
+      </c>
+      <c r="D120" t="n">
         <v>4.55191367884556</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>2.2493822376785954E-4</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>0.021970226679443962</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>0.5747861162407757</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" t="n">
         <v>2.9119329908992766</v>
       </c>
       <c r="C121" t="n">
+        <v>0.23877622157955106</v>
+      </c>
+      <c r="D121" t="n">
         <v>4.526297055282932</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>2.3828886359639532E-4</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>0.023080262179840858</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>0.518777837892328</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" t="n">
         <v>3.49542659738454</v>
       </c>
       <c r="C122" t="n">
+        <v>0.2875960801789221</v>
+      </c>
+      <c r="D122" t="n">
         <v>4.515514061870783</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>2.441458208570652E-4</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>0.023452122940674947</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.4951935900259823</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" t="n">
         <v>3.917555858300845</v>
       </c>
       <c r="C123" t="n">
+        <v>0.36430081298418776</v>
+      </c>
+      <c r="D123" t="n">
         <v>4.503326328450521</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>2.50941326436774E-4</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>0.02390730358339856</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>0.4685312745329693</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" t="n">
         <v>6.445585774293485</v>
       </c>
       <c r="C124" t="n">
+        <v>0.5387679682831962</v>
+      </c>
+      <c r="D124" t="n">
         <v>4.491413960547957</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>2.577681599184418E-4</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>0.0243580432742443</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.44246573074361795</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125" t="n">
         <v>0.82159247282114</v>
       </c>
       <c r="C125" t="n">
+        <v>0.0535887351009512</v>
+      </c>
+      <c r="D125" t="n">
         <v>4.46987973559942</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>2.705893926729995E-4</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>0.02536339121805059</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>0.39533299892389184</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126" t="n">
         <v>6.791504021724303</v>
       </c>
       <c r="C126" t="n">
+        <v>0.4820347689401501</v>
+      </c>
+      <c r="D126" t="n">
         <v>4.449229774369497</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>2.834894459796338E-4</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>0.02635998264497027</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>0.3501201805144536</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" t="n">
         <v>6.051537956058643</v>
       </c>
       <c r="C127" t="n">
+        <v>0.8374158555080315</v>
+      </c>
+      <c r="D127" t="n">
         <v>4.383885670467004</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>3.285508049806399E-4</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>0.030307507986428395</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>0.20696131071636614</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" t="n">
         <v>6.85704301067195</v>
       </c>
       <c r="C128" t="n">
+        <v>0.6700156110720472</v>
+      </c>
+      <c r="D128" t="n">
         <v>4.371351816198816</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>3.379881261569516E-4</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>0.030827650517851374</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>0.17948796150910873</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" t="n">
         <v>7.873966490130345</v>
       </c>
       <c r="C129" t="n">
+        <v>0.8189243877664125</v>
+      </c>
+      <c r="D129" t="n">
         <v>4.369384509405966</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>3.3949404338681717E-4</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>0.030827650517851374</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>0.17517540625256345</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" t="n">
         <v>10.085862544214857</v>
       </c>
       <c r="C130" t="n">
+        <v>1.693855417415141</v>
+      </c>
+      <c r="D130" t="n">
         <v>4.3642071036216645</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>3.434896311651478E-4</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>0.03094868203901173</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>0.163825512741977</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" t="n">
         <v>5.583221045698098</v>
       </c>
       <c r="C131" t="n">
+        <v>0.5934459207616224</v>
+      </c>
+      <c r="D131" t="n">
         <v>4.344194400523433</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>3.5938538187654285E-4</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>0.03213181764270044</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>0.11994793982341179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" t="n">
         <v>3.8184424067681904</v>
       </c>
       <c r="C132" t="n">
+        <v>0.27327835734183686</v>
+      </c>
+      <c r="D132" t="n">
         <v>4.331804547523443</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>3.695962111863155E-4</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>0.032792494371133935</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>0.09277905245098772</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" t="n">
         <v>3.9051809993737145</v>
       </c>
       <c r="C133" t="n">
+        <v>0.35544340173724104</v>
+      </c>
+      <c r="D133" t="n">
         <v>4.309251414242499</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>3.889397483419066E-4</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>0.03414575096118742</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>0.04331619587893876</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" t="n">
         <v>6.806682130480114</v>
       </c>
       <c r="C134" t="n">
+        <v>0.9653849543554726</v>
+      </c>
+      <c r="D134" t="n">
         <v>4.301896465158345</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>3.954661488236434E-4</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>0.03414575096118742</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>0.027183613281779984</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" t="n">
         <v>6.192211109206236</v>
       </c>
       <c r="C135" t="n">
+        <v>0.6519284102982112</v>
+      </c>
+      <c r="D135" t="n">
         <v>4.300883841753392</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>3.9637330037790587E-4</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>0.03414575096118742</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>0.024962423509728993</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" t="n">
         <v>6.639691408497717</v>
       </c>
       <c r="C136" t="n">
+        <v>0.5613322926291141</v>
+      </c>
+      <c r="D136" t="n">
         <v>4.3006316688036215</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>3.965995336625915E-4</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>0.03414575096118742</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>0.02440927952335681</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" t="n">
         <v>6.201738119994122</v>
       </c>
       <c r="C137" t="n">
+        <v>0.7520273684471958</v>
+      </c>
+      <c r="D137" t="n">
         <v>4.260922999692464</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>4.338966992538687E-4</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>0.03708221570167438</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>-0.06270337809042648</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" t="n">
         <v>9.43382318223064</v>
       </c>
       <c r="C138" t="n">
+        <v>1.1536108787149495</v>
+      </c>
+      <c r="D138" t="n">
         <v>4.248488301556951</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>4.462876991823671E-4</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>0.03785383566829692</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>-0.08998644780836162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" t="n">
         <v>7.257828389672128</v>
       </c>
       <c r="C139" t="n">
+        <v>0.9192176189014694</v>
+      </c>
+      <c r="D139" t="n">
         <v>4.245381334265433</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>4.4943898496300225E-4</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>0.03785383566829692</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>-0.0968037033104503</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" t="n">
         <v>7.7963548944508725</v>
       </c>
       <c r="C140" t="n">
+        <v>0.953852159506954</v>
+      </c>
+      <c r="D140" t="n">
         <v>4.234053481418171</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>4.6111931966705353E-4</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>0.03855820037762707</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>-0.12165978631216934</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" t="n">
         <v>3.8760385329437796</v>
       </c>
       <c r="C141" t="n">
+        <v>0.49347170555493103</v>
+      </c>
+      <c r="D141" t="n">
         <v>4.215063747118475</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>4.8138938504186795E-4</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>0.03996563444529737</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>-0.16332995783203597</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B142" t="n">
         <v>8.166723692848077</v>
       </c>
       <c r="C142" t="n">
+        <v>1.2152024149053886</v>
+      </c>
+      <c r="D142" t="n">
         <v>4.203748758596789</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>4.938910447140455E-4</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>0.04071273484192447</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-0.1881599394468214</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" t="n">
         <v>5.929710290512043</v>
       </c>
       <c r="C143" t="n">
+        <v>0.5971290699756092</v>
+      </c>
+      <c r="D143" t="n">
         <v>4.199198475516395</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>4.990101460237024E-4</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>0.040845034698827415</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>-0.1981453658775516</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144" t="n">
         <v>5.298664181761898</v>
       </c>
       <c r="C144" t="n">
+        <v>0.5790916337315211</v>
+      </c>
+      <c r="D144" t="n">
         <v>4.164912168221999</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>5.393377717466677E-4</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>0.043837223223856775</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>-0.2733864211117707</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" t="n">
         <v>7.5515427049969315</v>
       </c>
       <c r="C145" t="n">
+        <v>0.7108262920881627</v>
+      </c>
+      <c r="D145" t="n">
         <v>4.157106888547262</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>5.489670078475401E-4</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>0.04431002452924971</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>-0.2905149638950073</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146" t="n">
         <v>7.578259931713231</v>
       </c>
       <c r="C146" t="n">
+        <v>0.7867169612236655</v>
+      </c>
+      <c r="D146" t="n">
         <v>4.133151791628744</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>5.796120820897314E-4</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>0.04646090503537205</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>-0.34308264522926546</v>
       </c>
     </row>
@@ -3456,15 +3897,15 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_5.xlsx
+++ b/docs/LMER_Microglia_5.xlsx
@@ -557,16 +557,16 @@
         <v>0.382070402498115</v>
       </c>
       <c r="D2" t="n">
-        <v>78.37397999373502</v>
+        <v>78.37397999373496</v>
       </c>
       <c r="E2" t="n">
-        <v>4.7333382122352265E-25</v>
+        <v>4.7333382122352945E-25</v>
       </c>
       <c r="F2" t="n">
-        <v>5.5015590040810034E-21</v>
+        <v>5.5015590040810824E-21</v>
       </c>
       <c r="G2" t="n">
-        <v>30.91031831497888</v>
+        <v>30.910318314978866</v>
       </c>
     </row>
     <row r="3">
@@ -580,16 +580,16 @@
         <v>0.3504650405081545</v>
       </c>
       <c r="D3" t="n">
-        <v>71.8907821534937</v>
+        <v>71.89078215349366</v>
       </c>
       <c r="E3" t="n">
-        <v>2.375413117592591E-24</v>
+        <v>2.375413117592608E-24</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3804713332889343E-20</v>
+        <v>1.380471333288944E-20</v>
       </c>
       <c r="G3" t="n">
-        <v>30.667023331801545</v>
+        <v>30.667023331801538</v>
       </c>
     </row>
     <row r="4">
@@ -603,16 +603,16 @@
         <v>0.31345449415778043</v>
       </c>
       <c r="D4" t="n">
-        <v>64.29882056668701</v>
+        <v>64.29882056668697</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9083500573654156E-23</v>
+        <v>1.9083500573654426E-23</v>
       </c>
       <c r="F4" t="n">
-        <v>7.393584238919409E-20</v>
+        <v>7.393584238919514E-20</v>
       </c>
       <c r="G4" t="n">
-        <v>30.295705386647874</v>
+        <v>30.295705386647867</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         <v>0.3084689724885294</v>
       </c>
       <c r="D5" t="n">
-        <v>63.27614209431805</v>
+        <v>63.27614209431801</v>
       </c>
       <c r="E5" t="n">
-        <v>2.5738765047156644E-23</v>
+        <v>2.5738765047156832E-23</v>
       </c>
       <c r="F5" t="n">
-        <v>7.479041653577542E-20</v>
+        <v>7.479041653577596E-20</v>
       </c>
       <c r="G5" t="n">
-        <v>30.236587518182787</v>
+        <v>30.23658751818278</v>
       </c>
     </row>
     <row r="6">
@@ -649,16 +649,16 @@
         <v>0.30286018628965594</v>
       </c>
       <c r="D6" t="n">
-        <v>62.12561356746668</v>
+        <v>62.12561356746664</v>
       </c>
       <c r="E6" t="n">
-        <v>3.6246991392168425E-23</v>
+        <v>3.624699139216894E-23</v>
       </c>
       <c r="F6" t="n">
-        <v>8.425975619023471E-20</v>
+        <v>8.425975619023592E-20</v>
       </c>
       <c r="G6" t="n">
-        <v>30.167035533766743</v>
+        <v>30.167035533766736</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>0.2967769627031371</v>
       </c>
       <c r="D7" t="n">
-        <v>60.87776385037279</v>
+        <v>60.877763850372745</v>
       </c>
       <c r="E7" t="n">
-        <v>5.292358888988111E-23</v>
+        <v>5.292358888988148E-23</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0252181227784803E-19</v>
+        <v>1.0252181227784875E-19</v>
       </c>
       <c r="G7" t="n">
-        <v>30.08772828016022</v>
+        <v>30.087728280160214</v>
       </c>
     </row>
     <row r="8">
@@ -695,16 +695,16 @@
         <v>0.2919237181593966</v>
       </c>
       <c r="D8" t="n">
-        <v>59.88221934263583</v>
+        <v>59.88221934263579</v>
       </c>
       <c r="E8" t="n">
-        <v>7.197838004916256E-23</v>
+        <v>7.19783800491636E-23</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1951495875877376E-19</v>
+        <v>1.195149587587755E-19</v>
       </c>
       <c r="G8" t="n">
-        <v>30.021384690120342</v>
+        <v>30.021384690120335</v>
       </c>
     </row>
     <row r="9">
@@ -718,16 +718,16 @@
         <v>0.28559714100143563</v>
       </c>
       <c r="D9" t="n">
-        <v>58.58445058492821</v>
+        <v>58.58445058492817</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0830233707086507E-22</v>
+        <v>1.0830233707086585E-22</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5734975797183308E-19</v>
+        <v>1.5734975797183422E-19</v>
       </c>
       <c r="G9" t="n">
-        <v>29.93053400370961</v>
+        <v>29.930534003709603</v>
       </c>
     </row>
     <row r="10">
@@ -741,16 +741,16 @@
         <v>0.28155362743332163</v>
       </c>
       <c r="D10" t="n">
-        <v>57.755005934361876</v>
+        <v>57.75500593436184</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4128367822437354E-22</v>
+        <v>1.4128367822437455E-22</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5787419722660624E-19</v>
+        <v>1.578741972266096E-19</v>
       </c>
       <c r="G10" t="n">
-        <v>29.869725986113444</v>
+        <v>29.86972598611343</v>
       </c>
     </row>
     <row r="11">
@@ -764,16 +764,16 @@
         <v>0.2801279780803795</v>
       </c>
       <c r="D11" t="n">
-        <v>57.462562936592285</v>
+        <v>57.46256293659225</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5530663741777719E-22</v>
+        <v>1.553066374177805E-22</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5787419722660624E-19</v>
+        <v>1.578741972266096E-19</v>
       </c>
       <c r="G11" t="n">
-        <v>29.847753074606217</v>
+        <v>29.84775307460621</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>0.2794028154218303</v>
       </c>
       <c r="D12" t="n">
-        <v>57.31381055137296</v>
+        <v>57.313810551372924</v>
       </c>
       <c r="E12" t="n">
-        <v>1.6299495540904026E-22</v>
+        <v>1.6299495540904374E-22</v>
       </c>
       <c r="F12" t="n">
-        <v>1.5787419722660624E-19</v>
+        <v>1.578741972266096E-19</v>
       </c>
       <c r="G12" t="n">
-        <v>29.83646718700563</v>
+        <v>29.836467187005624</v>
       </c>
     </row>
     <row r="13">
@@ -810,16 +810,16 @@
         <v>0.2794028154218303</v>
       </c>
       <c r="D13" t="n">
-        <v>57.31381055137296</v>
+        <v>57.313810551372924</v>
       </c>
       <c r="E13" t="n">
-        <v>1.6299495540904026E-22</v>
+        <v>1.6299495540904374E-22</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5787419722660624E-19</v>
+        <v>1.578741972266096E-19</v>
       </c>
       <c r="G13" t="n">
-        <v>29.83646718700563</v>
+        <v>29.836467187005624</v>
       </c>
     </row>
     <row r="14">
@@ -833,16 +833,16 @@
         <v>0.24538505172933583</v>
       </c>
       <c r="D14" t="n">
-        <v>50.33575751812254</v>
+        <v>50.33575751812251</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8296823366677526E-21</v>
+        <v>1.8296823366677786E-21</v>
       </c>
       <c r="F14" t="n">
-        <v>1.635876753776099E-18</v>
+        <v>1.6358767537761224E-18</v>
       </c>
       <c r="G14" t="n">
-        <v>29.211062681406197</v>
+        <v>29.211062681406183</v>
       </c>
     </row>
     <row r="15">
@@ -856,16 +856,16 @@
         <v>0.21932148345036753</v>
       </c>
       <c r="D15" t="n">
-        <v>44.989346057027234</v>
+        <v>44.989346057027205</v>
       </c>
       <c r="E15" t="n">
-        <v>1.4763833558618052E-20</v>
+        <v>1.476383355861816E-20</v>
       </c>
       <c r="F15" t="n">
-        <v>1.2257145532272687E-17</v>
+        <v>1.2257145532272777E-17</v>
       </c>
       <c r="G15" t="n">
-        <v>28.567585463382542</v>
+        <v>28.567585463382535</v>
       </c>
     </row>
     <row r="16">
@@ -879,16 +879,16 @@
         <v>0.21334306937428343</v>
       </c>
       <c r="D16" t="n">
-        <v>43.76299588143212</v>
+        <v>43.76299588143209</v>
       </c>
       <c r="E16" t="n">
-        <v>2.4667811714055107E-20</v>
+        <v>2.466781171405546E-20</v>
       </c>
       <c r="F16" t="n">
-        <v>1.9114265036830834E-17</v>
+        <v>1.9114265036831105E-17</v>
       </c>
       <c r="G16" t="n">
-        <v>28.393543001507318</v>
+        <v>28.39354300150731</v>
       </c>
     </row>
     <row r="17">
@@ -902,16 +902,16 @@
         <v>0.17391304347826086</v>
       </c>
       <c r="D17" t="n">
-        <v>35.674727225912314</v>
+        <v>35.67472722591229</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0876506074784335E-18</v>
+        <v>1.0876506074784487E-18</v>
       </c>
       <c r="F17" t="n">
-        <v>7.436331182777549E-16</v>
+        <v>7.436331182777653E-16</v>
       </c>
       <c r="G17" t="n">
-        <v>26.90132646048297</v>
+        <v>26.901326460482963</v>
       </c>
     </row>
     <row r="18">
@@ -925,16 +925,16 @@
         <v>0.17391304347826086</v>
       </c>
       <c r="D18" t="n">
-        <v>35.674727225912314</v>
+        <v>35.67472722591229</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0876506074784335E-18</v>
+        <v>1.0876506074784487E-18</v>
       </c>
       <c r="F18" t="n">
-        <v>7.436331182777549E-16</v>
+        <v>7.436331182777653E-16</v>
       </c>
       <c r="G18" t="n">
-        <v>26.90132646048297</v>
+        <v>26.901326460482963</v>
       </c>
     </row>
     <row r="19">
@@ -948,16 +948,16 @@
         <v>0.16553717052424366</v>
       </c>
       <c r="D19" t="n">
-        <v>33.95658707415992</v>
+        <v>33.9565870741599</v>
       </c>
       <c r="E19" t="n">
-        <v>2.7065823703249833E-18</v>
+        <v>2.7065823703250218E-18</v>
       </c>
       <c r="F19" t="n">
-        <v>1.655716152120383E-15</v>
+        <v>1.6557161521204066E-15</v>
       </c>
       <c r="G19" t="n">
-        <v>26.48465503934417</v>
+        <v>26.48465503934416</v>
       </c>
     </row>
     <row r="20">
@@ -971,16 +971,16 @@
         <v>0.16553717052424366</v>
       </c>
       <c r="D20" t="n">
-        <v>33.95658707415992</v>
+        <v>33.9565870741599</v>
       </c>
       <c r="E20" t="n">
-        <v>2.7065823703249833E-18</v>
+        <v>2.7065823703250218E-18</v>
       </c>
       <c r="F20" t="n">
-        <v>1.655716152120383E-15</v>
+        <v>1.6557161521204066E-15</v>
       </c>
       <c r="G20" t="n">
-        <v>26.48465503934417</v>
+        <v>26.48465503934416</v>
       </c>
     </row>
     <row r="21">
@@ -994,16 +994,16 @@
         <v>0.14443165629945054</v>
       </c>
       <c r="D21" t="n">
-        <v>29.627219662300313</v>
+        <v>29.627219662300295</v>
       </c>
       <c r="E21" t="n">
-        <v>3.335593346852441E-17</v>
+        <v>3.335593346852489E-17</v>
       </c>
       <c r="F21" t="n">
-        <v>1.938480073523296E-14</v>
+        <v>1.9384800735233237E-14</v>
       </c>
       <c r="G21" t="n">
-        <v>25.21728948344333</v>
+        <v>25.217289483443324</v>
       </c>
     </row>
     <row r="22">
@@ -1017,16 +1017,16 @@
         <v>0.13782282614966573</v>
       </c>
       <c r="D22" t="n">
-        <v>28.271552438263523</v>
+        <v>28.271552438263505</v>
       </c>
       <c r="E22" t="n">
-        <v>7.878786206926034E-17</v>
+        <v>7.878786206926146E-17</v>
       </c>
       <c r="F22" t="n">
-        <v>4.3607205753857753E-14</v>
+        <v>4.360720575385838E-14</v>
       </c>
       <c r="G22" t="n">
-        <v>24.7430668738748</v>
+        <v>24.74306687387479</v>
       </c>
     </row>
     <row r="23">
@@ -1040,7 +1040,7 @@
         <v>0.3117358696279266</v>
       </c>
       <c r="D23" t="n">
-        <v>26.443115508051427</v>
+        <v>26.443115508051424</v>
       </c>
       <c r="E23" t="n">
         <v>2.679088314268326E-16</v>
@@ -1049,7 +1049,7 @@
         <v>1.4154110671245798E-13</v>
       </c>
       <c r="G23" t="n">
-        <v>24.032393728364834</v>
+        <v>24.03239372836483</v>
       </c>
     </row>
     <row r="24">
@@ -1072,7 +1072,7 @@
         <v>4.747265934794793E-13</v>
       </c>
       <c r="G24" t="n">
-        <v>23.26128089839642</v>
+        <v>23.261280898396414</v>
       </c>
     </row>
     <row r="25">
@@ -1086,16 +1086,16 @@
         <v>0.27845386251182414</v>
       </c>
       <c r="D25" t="n">
-        <v>23.14892556129515</v>
+        <v>23.148925561295147</v>
       </c>
       <c r="E25" t="n">
-        <v>3.0214344807431064E-15</v>
+        <v>3.0214344807431175E-15</v>
       </c>
       <c r="F25" t="n">
-        <v>1.4632555404032137E-12</v>
+        <v>1.463255540403219E-12</v>
       </c>
       <c r="G25" t="n">
-        <v>22.50533991200952</v>
+        <v>22.505339912009518</v>
       </c>
     </row>
     <row r="26">
@@ -1118,7 +1118,7 @@
         <v>2.8286543889175717E-12</v>
       </c>
       <c r="G26" t="n">
-        <v>22.035346817681194</v>
+        <v>22.035346817681187</v>
       </c>
     </row>
     <row r="27">
@@ -1132,16 +1132,16 @@
         <v>0.10095339542988531</v>
       </c>
       <c r="D27" t="n">
-        <v>20.708537855822208</v>
+        <v>20.708537855822193</v>
       </c>
       <c r="E27" t="n">
-        <v>2.2616721070352076E-14</v>
+        <v>2.2616721070352398E-14</v>
       </c>
       <c r="F27" t="n">
-        <v>1.01105441923347E-11</v>
+        <v>1.0110544192334844E-11</v>
       </c>
       <c r="G27" t="n">
-        <v>21.12034550788221</v>
+        <v>21.1203455078822</v>
       </c>
     </row>
     <row r="28">
@@ -1155,16 +1155,16 @@
         <v>0.08696221674396547</v>
       </c>
       <c r="D28" t="n">
-        <v>17.838531827484392</v>
+        <v>17.83853182748438</v>
       </c>
       <c r="E28" t="n">
-        <v>3.256270974303277E-13</v>
+        <v>3.2562709743033237E-13</v>
       </c>
       <c r="F28" t="n">
-        <v>1.307562619851565E-10</v>
+        <v>1.3075626198515743E-10</v>
       </c>
       <c r="G28" t="n">
-        <v>19.135479387361546</v>
+        <v>19.135479387361535</v>
       </c>
     </row>
     <row r="29">
@@ -1178,16 +1178,16 @@
         <v>0.08695652173913042</v>
       </c>
       <c r="D29" t="n">
-        <v>17.83736361295615</v>
+        <v>17.83736361295614</v>
       </c>
       <c r="E29" t="n">
-        <v>3.2600582912125156E-13</v>
+        <v>3.2600582912125615E-13</v>
       </c>
       <c r="F29" t="n">
-        <v>1.307562619851565E-10</v>
+        <v>1.3075626198515743E-10</v>
       </c>
       <c r="G29" t="n">
-        <v>19.13457955991853</v>
+        <v>19.13457955991852</v>
       </c>
     </row>
     <row r="30">
@@ -1201,16 +1201,16 @@
         <v>0.08698429238517236</v>
       </c>
       <c r="D30" t="n">
-        <v>17.8366303341745</v>
+        <v>17.836630334174494</v>
       </c>
       <c r="E30" t="n">
-        <v>3.262437922713188E-13</v>
+        <v>3.262437922713211E-13</v>
       </c>
       <c r="F30" t="n">
-        <v>1.307562619851565E-10</v>
+        <v>1.3075626198515743E-10</v>
       </c>
       <c r="G30" t="n">
-        <v>19.134014703820476</v>
+        <v>19.13401470382047</v>
       </c>
     </row>
     <row r="31">
@@ -1233,7 +1233,7 @@
         <v>2.543116752330607E-10</v>
       </c>
       <c r="G31" t="n">
-        <v>18.587626833866825</v>
+        <v>18.58762683386682</v>
       </c>
     </row>
     <row r="32">
@@ -1256,7 +1256,7 @@
         <v>4.937871034336379E-10</v>
       </c>
       <c r="G32" t="n">
-        <v>18.033407641229957</v>
+        <v>18.03340764122995</v>
       </c>
     </row>
     <row r="33">
@@ -1270,16 +1270,16 @@
         <v>0.06891141307483287</v>
       </c>
       <c r="D33" t="n">
-        <v>14.135776219131762</v>
+        <v>14.135776219131753</v>
       </c>
       <c r="E33" t="n">
-        <v>1.9087290895083328E-11</v>
+        <v>1.908729089508353E-11</v>
       </c>
       <c r="F33" t="n">
-        <v>6.9328619397985475E-9</v>
+        <v>6.932861939798621E-9</v>
       </c>
       <c r="G33" t="n">
-        <v>15.81981183839478</v>
+        <v>15.819811838394774</v>
       </c>
     </row>
     <row r="34">
@@ -1302,7 +1302,7 @@
         <v>8.225073454802859E-9</v>
       </c>
       <c r="G34" t="n">
-        <v>15.647738275579613</v>
+        <v>15.64773827557961</v>
       </c>
     </row>
     <row r="35">
@@ -1408,13 +1408,13 @@
         <v>0.20574647913370056</v>
       </c>
       <c r="D39" t="n">
-        <v>12.275986796989041</v>
+        <v>12.27598679698904</v>
       </c>
       <c r="E39" t="n">
-        <v>2.0994129659483085E-10</v>
+        <v>2.0994129659483157E-10</v>
       </c>
       <c r="F39" t="n">
-        <v>6.421441290320312E-8</v>
+        <v>6.421441290320335E-8</v>
       </c>
       <c r="G39" t="n">
         <v>13.733182061313176</v>
@@ -1463,7 +1463,7 @@
         <v>2.1968968256104941E-7</v>
       </c>
       <c r="G41" t="n">
-        <v>12.568853778631624</v>
+        <v>12.56885377863162</v>
       </c>
     </row>
     <row r="42">
@@ -1707,16 +1707,16 @@
         <v>0.0437379215664786</v>
       </c>
       <c r="D52" t="n">
-        <v>8.971945922546707</v>
+        <v>8.971945922546702</v>
       </c>
       <c r="E52" t="n">
-        <v>3.289850452588206E-8</v>
+        <v>3.2898504525882354E-8</v>
       </c>
       <c r="F52" t="n">
-        <v>7.4976336883201414E-6</v>
+        <v>7.497633688320208E-6</v>
       </c>
       <c r="G52" t="n">
-        <v>9.09517319858941</v>
+        <v>9.0951731985894</v>
       </c>
     </row>
     <row r="53">
@@ -1730,16 +1730,16 @@
         <v>0.04350981175982151</v>
       </c>
       <c r="D53" t="n">
-        <v>8.925153830548947</v>
+        <v>8.925153830548942</v>
       </c>
       <c r="E53" t="n">
-        <v>3.56489886810006E-8</v>
+        <v>3.5648988681001056E-8</v>
       </c>
       <c r="F53" t="n">
-        <v>7.617898123058785E-6</v>
+        <v>7.617898123058868E-6</v>
       </c>
       <c r="G53" t="n">
-        <v>9.019448184484151</v>
+        <v>9.01944818448414</v>
       </c>
     </row>
     <row r="54">
@@ -1753,16 +1753,16 @@
         <v>0.043478260869565216</v>
       </c>
       <c r="D54" t="n">
-        <v>8.918681806478078</v>
+        <v>8.918681806478073</v>
       </c>
       <c r="E54" t="n">
-        <v>3.604787032334451E-8</v>
+        <v>3.60478703233449E-8</v>
       </c>
       <c r="F54" t="n">
-        <v>7.617898123058785E-6</v>
+        <v>7.617898123058868E-6</v>
       </c>
       <c r="G54" t="n">
-        <v>9.008950167101439</v>
+        <v>9.008950167101432</v>
       </c>
     </row>
     <row r="55">
@@ -1776,16 +1776,16 @@
         <v>0.043478260869565216</v>
       </c>
       <c r="D55" t="n">
-        <v>8.918681806478078</v>
+        <v>8.918681806478073</v>
       </c>
       <c r="E55" t="n">
-        <v>3.604787032334451E-8</v>
+        <v>3.60478703233449E-8</v>
       </c>
       <c r="F55" t="n">
-        <v>7.617898123058785E-6</v>
+        <v>7.617898123058868E-6</v>
       </c>
       <c r="G55" t="n">
-        <v>9.008950167101439</v>
+        <v>9.008950167101432</v>
       </c>
     </row>
     <row r="56">
@@ -1799,16 +1799,16 @@
         <v>0.043478260869565216</v>
       </c>
       <c r="D56" t="n">
-        <v>8.918681806478078</v>
+        <v>8.918681806478073</v>
       </c>
       <c r="E56" t="n">
-        <v>3.604787032334451E-8</v>
+        <v>3.60478703233449E-8</v>
       </c>
       <c r="F56" t="n">
-        <v>7.617898123058785E-6</v>
+        <v>7.617898123058868E-6</v>
       </c>
       <c r="G56" t="n">
-        <v>9.008950167101439</v>
+        <v>9.008950167101432</v>
       </c>
     </row>
     <row r="57">
@@ -1914,16 +1914,16 @@
         <v>0.33327547466022506</v>
       </c>
       <c r="D61" t="n">
-        <v>8.300165299939646</v>
+        <v>8.300165299939644</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0696294918570233E-7</v>
+        <v>1.069629491857029E-7</v>
       </c>
       <c r="F61" t="n">
-        <v>2.0720505973090304E-5</v>
+        <v>2.0720505973090413E-5</v>
       </c>
       <c r="G61" t="n">
-        <v>7.978204531047406</v>
+        <v>7.978204531047401</v>
       </c>
     </row>
     <row r="62">
@@ -1983,16 +1983,16 @@
         <v>0.14443165629945054</v>
       </c>
       <c r="D64" t="n">
-        <v>7.495036198181458</v>
+        <v>7.495036198181457</v>
       </c>
       <c r="E64" t="n">
-        <v>4.7465516313816957E-7</v>
+        <v>4.746551631381713E-7</v>
       </c>
       <c r="F64" t="n">
-        <v>8.757011049452293E-5</v>
+        <v>8.757011049452326E-5</v>
       </c>
       <c r="G64" t="n">
-        <v>6.552983820013343</v>
+        <v>6.552983820013341</v>
       </c>
     </row>
     <row r="65">
@@ -2130,7 +2130,7 @@
         <v>2.076627249295569E-4</v>
       </c>
       <c r="G70" t="n">
-        <v>5.633584826654096</v>
+        <v>5.633584826654093</v>
       </c>
     </row>
     <row r="71">
@@ -2167,16 +2167,16 @@
         <v>0.06947764625235985</v>
       </c>
       <c r="D72" t="n">
-        <v>6.857027023234085</v>
+        <v>6.8570270232340835</v>
       </c>
       <c r="E72" t="n">
-        <v>1.6443435394135182E-6</v>
+        <v>1.6443435394135242E-6</v>
       </c>
       <c r="F72" t="n">
-        <v>2.6918598533244115E-4</v>
+        <v>2.691859853324421E-4</v>
       </c>
       <c r="G72" t="n">
-        <v>5.355273626306507</v>
+        <v>5.355273626306503</v>
       </c>
     </row>
     <row r="73">
@@ -2268,7 +2268,7 @@
         <v>0.0014777601850979396</v>
       </c>
       <c r="G76" t="n">
-        <v>3.650714495556719</v>
+        <v>3.6507144955567137</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>0.004954491530987784</v>
       </c>
       <c r="G90" t="n">
-        <v>2.306795410336716</v>
+        <v>2.3067954103367123</v>
       </c>
     </row>
     <row r="91">
@@ -2696,7 +2696,7 @@
         <v>1.0997484610410775</v>
       </c>
       <c r="D95" t="n">
-        <v>5.19793384176547</v>
+        <v>5.197933841765469</v>
       </c>
       <c r="E95" t="n">
         <v>5.342045318423296E-5</v>
@@ -2705,7 +2705,7 @@
         <v>0.006605382205961061</v>
       </c>
       <c r="G95" t="n">
-        <v>1.9735154734028706</v>
+        <v>1.9735154734028653</v>
       </c>
     </row>
     <row r="96">
@@ -2843,7 +2843,7 @@
         <v>0.011845895952204031</v>
       </c>
       <c r="G101" t="n">
-        <v>1.3446320996637464</v>
+        <v>1.3446320996637446</v>
       </c>
     </row>
     <row r="102">
@@ -2866,7 +2866,7 @@
         <v>0.01224613635920715</v>
       </c>
       <c r="G102" t="n">
-        <v>1.3026110382212988</v>
+        <v>1.302611038221297</v>
       </c>
     </row>
     <row r="103">
@@ -2903,16 +2903,16 @@
         <v>7.105080871358947</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.860274063705957</v>
+        <v>-4.8602740637059565</v>
       </c>
       <c r="E104" t="n">
-        <v>1.1276245362164299E-4</v>
+        <v>1.1276245362164321E-4</v>
       </c>
       <c r="F104" t="n">
-        <v>0.012724640761595693</v>
+        <v>0.012724640761595718</v>
       </c>
       <c r="G104" t="n">
-        <v>1.2462313472907338</v>
+        <v>1.2462313472907294</v>
       </c>
     </row>
     <row r="105">
@@ -2926,16 +2926,16 @@
         <v>0.9829891456814458</v>
       </c>
       <c r="D105" t="n">
-        <v>4.841401516463846</v>
+        <v>4.841401516463845</v>
       </c>
       <c r="E105" t="n">
-        <v>1.1760596240616343E-4</v>
+        <v>1.1760596240616356E-4</v>
       </c>
       <c r="F105" t="n">
         <v>0.013069489344937159</v>
       </c>
       <c r="G105" t="n">
-        <v>1.2053097781926843</v>
+        <v>1.2053097781926798</v>
       </c>
     </row>
     <row r="106">
@@ -3018,7 +3018,7 @@
         <v>9.371664511254277</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.776837713956008</v>
+        <v>-4.776837713956007</v>
       </c>
       <c r="E109" t="n">
         <v>1.3583404018665873E-4</v>
@@ -3096,7 +3096,7 @@
         <v>0.01958065304649786</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7543052118786591</v>
+        <v>0.7543052118786582</v>
       </c>
     </row>
     <row r="113">
@@ -3386,13 +3386,13 @@
         <v>0.0535887351009512</v>
       </c>
       <c r="D125" t="n">
-        <v>4.46987973559942</v>
+        <v>4.469879735599419</v>
       </c>
       <c r="E125" t="n">
-        <v>2.705893926729995E-4</v>
+        <v>2.7058939267299997E-4</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02536339121805059</v>
+        <v>0.025363391218050636</v>
       </c>
       <c r="G125" t="n">
         <v>0.39533299892389184</v>
@@ -3579,7 +3579,7 @@
         <v>0.03414575096118742</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04331619587893876</v>
+        <v>0.04331619587893698</v>
       </c>
     </row>
     <row r="134">
@@ -3685,16 +3685,16 @@
         <v>1.1536108787149495</v>
       </c>
       <c r="D138" t="n">
-        <v>4.248488301556951</v>
+        <v>4.24848830155695</v>
       </c>
       <c r="E138" t="n">
-        <v>4.462876991823671E-4</v>
+        <v>4.4628769918236827E-4</v>
       </c>
       <c r="F138" t="n">
         <v>0.03785383566829692</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.08998644780836162</v>
+        <v>-0.08998644780836429</v>
       </c>
     </row>
     <row r="139">
@@ -3717,7 +3717,7 @@
         <v>0.03785383566829692</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.0968037033104503</v>
+        <v>-0.09680370331045118</v>
       </c>
     </row>
     <row r="140">
@@ -3777,16 +3777,16 @@
         <v>1.2152024149053886</v>
       </c>
       <c r="D142" t="n">
-        <v>4.203748758596789</v>
+        <v>4.203748758596788</v>
       </c>
       <c r="E142" t="n">
-        <v>4.938910447140455E-4</v>
+        <v>4.938910447140469E-4</v>
       </c>
       <c r="F142" t="n">
-        <v>0.04071273484192447</v>
+        <v>0.040712734841924586</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.1881599394468214</v>
+        <v>-0.1881599394468232</v>
       </c>
     </row>
     <row r="143">
@@ -3809,7 +3809,7 @@
         <v>0.040845034698827415</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.1981453658775516</v>
+        <v>-0.19814536587755427</v>
       </c>
     </row>
     <row r="144">
@@ -3846,16 +3846,16 @@
         <v>0.7108262920881627</v>
       </c>
       <c r="D145" t="n">
-        <v>4.157106888547262</v>
+        <v>4.157106888547261</v>
       </c>
       <c r="E145" t="n">
-        <v>5.489670078475401E-4</v>
+        <v>5.489670078475412E-4</v>
       </c>
       <c r="F145" t="n">
-        <v>0.04431002452924971</v>
+        <v>0.0443100245292498</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.2905149638950073</v>
+        <v>-0.2905149638950091</v>
       </c>
     </row>
     <row r="146">
@@ -3869,7 +3869,7 @@
         <v>0.7867169612236655</v>
       </c>
       <c r="D146" t="n">
-        <v>4.133151791628744</v>
+        <v>4.133151791628743</v>
       </c>
       <c r="E146" t="n">
         <v>5.796120820897314E-4</v>
@@ -3878,7 +3878,7 @@
         <v>0.04646090503537205</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.34308264522926546</v>
+        <v>-0.3430826452292699</v>
       </c>
     </row>
   </sheetData>
